--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de febrero 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de marzo 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -35,181 +35,181 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2019 - dic 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nov 2020 - dic 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dic 2019 - dic 2020.1</t>
+    <t xml:space="preserve">ene 2020 - ene 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dic 2020 - ene 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dic 2020 - ene 2021.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="49.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="47.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="19.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="21.71" hidden="0" customWidth="1"/>
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>5.57</v>
+        <v>5.54</v>
       </c>
       <c r="C8" t="n">
-        <v>0.58</v>
+        <v>0.84</v>
       </c>
       <c r="D8" t="n">
-        <v>5.57</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="9">
@@ -689,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>4.67</v>
+        <v>5.23</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="D9" t="n">
-        <v>4.67</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="10">
@@ -703,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>4.46</v>
+        <v>5.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07</v>
+        <v>1.39</v>
       </c>
       <c r="D10" t="n">
-        <v>4.46</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="11">
@@ -717,13 +717,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>4.44</v>
+        <v>5.22</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29</v>
+        <v>1.12</v>
       </c>
       <c r="D11" t="n">
-        <v>4.44</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="12">
@@ -731,13 +731,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>4.26</v>
+        <v>5.02</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09</v>
+        <v>1.33</v>
       </c>
       <c r="D12" t="n">
-        <v>4.26</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="13">
@@ -745,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>4.23</v>
+        <v>5.34</v>
       </c>
       <c r="C13" t="n">
-        <v>0.23</v>
+        <v>0.84</v>
       </c>
       <c r="D13" t="n">
-        <v>4.23</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="14">
@@ -759,13 +759,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>4.15</v>
+        <v>5.42</v>
       </c>
       <c r="C14" t="n">
-        <v>0.45</v>
+        <v>0.94</v>
       </c>
       <c r="D14" t="n">
-        <v>4.15</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="15">
@@ -773,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>4.14</v>
+        <v>5.06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.58</v>
+        <v>-0.49</v>
       </c>
       <c r="D15" t="n">
-        <v>4.14</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="16">
@@ -787,13 +787,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>4.05</v>
+        <v>5.3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.87</v>
+        <v>1.1</v>
       </c>
       <c r="D16" t="n">
-        <v>4.05</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>3.92</v>
+        <v>4.15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3</v>
+        <v>0.71</v>
       </c>
       <c r="D17" t="n">
-        <v>3.92</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="18">
@@ -815,13 +815,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>3.75</v>
+        <v>4.79</v>
       </c>
       <c r="C18" t="n">
-        <v>0.52</v>
+        <v>0.84</v>
       </c>
       <c r="D18" t="n">
-        <v>3.75</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>3.68</v>
+        <v>4.25</v>
       </c>
       <c r="C19" t="n">
-        <v>0.33</v>
+        <v>0.87</v>
       </c>
       <c r="D19" t="n">
-        <v>3.68</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="20">
@@ -843,13 +843,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>3.65</v>
+        <v>5.17</v>
       </c>
       <c r="C20" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="D20" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>3.54</v>
+        <v>4.12</v>
       </c>
       <c r="C21" t="n">
-        <v>0.69</v>
+        <v>1.11</v>
       </c>
       <c r="D21" t="n">
-        <v>3.54</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="22">
@@ -871,13 +871,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>3.53</v>
+        <v>4.48</v>
       </c>
       <c r="C22" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>3.53</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="23">
@@ -885,13 +885,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>3.52</v>
+        <v>4.17</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="D23" t="n">
-        <v>3.52</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="24">
@@ -899,13 +899,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>3.49</v>
+        <v>4.68</v>
       </c>
       <c r="C24" t="n">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
       <c r="D24" t="n">
-        <v>3.49</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="25">
@@ -913,13 +913,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>3.44</v>
+        <v>4.29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2</v>
+        <v>1.01</v>
       </c>
       <c r="D25" t="n">
-        <v>3.44</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="26">
@@ -927,13 +927,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>3.42</v>
+        <v>4.45</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3</v>
+        <v>0.94</v>
       </c>
       <c r="D26" t="n">
-        <v>3.42</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>3.4</v>
+        <v>4.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23</v>
+        <v>0.75</v>
       </c>
       <c r="D27" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="28">
@@ -955,13 +955,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>3.36</v>
+        <v>4.74</v>
       </c>
       <c r="C28" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="D28" t="n">
-        <v>3.36</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="29">
@@ -969,13 +969,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>3.34</v>
+        <v>3.9</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04</v>
+        <v>0.84</v>
       </c>
       <c r="D29" t="n">
-        <v>3.34</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="30">
@@ -983,13 +983,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>3.34</v>
+        <v>4.12</v>
       </c>
       <c r="C30" t="n">
-        <v>0.47</v>
+        <v>1.31</v>
       </c>
       <c r="D30" t="n">
-        <v>3.34</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="31">
@@ -997,13 +997,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>3.34</v>
+        <v>4.79</v>
       </c>
       <c r="C31" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="D31" t="n">
-        <v>3.34</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="32">
@@ -1011,13 +1011,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>3.27</v>
+        <v>4.14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.11</v>
+        <v>0.72</v>
       </c>
       <c r="D32" t="n">
-        <v>3.27</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="33">
@@ -1025,13 +1025,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="D33" t="n">
-        <v>3.25</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="34">
@@ -1039,13 +1039,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>3.25</v>
+        <v>3.78</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="D34" t="n">
-        <v>3.25</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="35">
@@ -1053,13 +1053,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>3.24</v>
+        <v>4.2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.36</v>
+        <v>1.13</v>
       </c>
       <c r="D35" t="n">
-        <v>3.24</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="36">
@@ -1067,13 +1067,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>3.21</v>
+        <v>4.15</v>
       </c>
       <c r="C36" t="n">
-        <v>0.44</v>
+        <v>1.36</v>
       </c>
       <c r="D36" t="n">
-        <v>3.21</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="37">
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>3.19</v>
+        <v>4.18</v>
       </c>
       <c r="C37" t="n">
-        <v>0.52</v>
+        <v>1.26</v>
       </c>
       <c r="D37" t="n">
-        <v>3.19</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="38">
@@ -1095,13 +1095,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>3.19</v>
+        <v>4.04</v>
       </c>
       <c r="C38" t="n">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="D38" t="n">
-        <v>3.19</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="39">
@@ -1109,13 +1109,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>3.15</v>
+        <v>3.93</v>
       </c>
       <c r="C39" t="n">
-        <v>0.38</v>
+        <v>0.56</v>
       </c>
       <c r="D39" t="n">
-        <v>3.15</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="40">
@@ -1123,13 +1123,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>3.15</v>
+        <v>3.73</v>
       </c>
       <c r="C40" t="n">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
       <c r="D40" t="n">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +1137,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>3.14</v>
+        <v>4.42</v>
       </c>
       <c r="C41" t="n">
-        <v>0.61</v>
+        <v>1.88</v>
       </c>
       <c r="D41" t="n">
-        <v>3.14</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="42">
@@ -1151,13 +1151,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>3.05</v>
+        <v>4.13</v>
       </c>
       <c r="C42" t="n">
-        <v>0.28</v>
+        <v>1.04</v>
       </c>
       <c r="D42" t="n">
-        <v>3.05</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>3.04</v>
+        <v>3.99</v>
       </c>
       <c r="C43" t="n">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="D43" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="44">
@@ -1179,13 +1179,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>3.04</v>
+        <v>3.93</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04</v>
+        <v>0.75</v>
       </c>
       <c r="D44" t="n">
-        <v>3.04</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="45">
@@ -1193,13 +1193,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>3.03</v>
+        <v>3.85</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03</v>
+        <v>0.79</v>
       </c>
       <c r="D45" t="n">
-        <v>3.03</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="46">
@@ -1207,13 +1207,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>2.98</v>
+        <v>3.78</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.08</v>
+        <v>0.94</v>
       </c>
       <c r="D46" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="47">
@@ -1221,13 +1221,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>2.89</v>
+        <v>4.51</v>
       </c>
       <c r="C47" t="n">
-        <v>0.65</v>
+        <v>1.22</v>
       </c>
       <c r="D47" t="n">
-        <v>2.89</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="48">
@@ -1235,13 +1235,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>2.85</v>
+        <v>3.84</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2</v>
+        <v>0.68</v>
       </c>
       <c r="D48" t="n">
-        <v>2.85</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="49">
@@ -1249,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="D49" t="n">
-        <v>2.84</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="50">
@@ -1263,13 +1263,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>2.81</v>
+        <v>3.61</v>
       </c>
       <c r="C50" t="n">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="D50" t="n">
-        <v>2.81</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="51">
@@ -1277,13 +1277,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>2.81</v>
+        <v>3.66</v>
       </c>
       <c r="C51" t="n">
-        <v>0.62</v>
+        <v>0.96</v>
       </c>
       <c r="D51" t="n">
-        <v>2.81</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="52">
@@ -1291,13 +1291,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="D52" t="n">
-        <v>2.78</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="53">
@@ -1305,13 +1305,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>2.76</v>
+        <v>3.66</v>
       </c>
       <c r="C53" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="D53" t="n">
-        <v>2.76</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="54">
@@ -1319,13 +1319,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>2.69</v>
+        <v>4.28</v>
       </c>
       <c r="C54" t="n">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="D54" t="n">
-        <v>2.69</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="55">
@@ -1333,13 +1333,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>2.68</v>
+        <v>4.02</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07</v>
+        <v>0.48</v>
       </c>
       <c r="D55" t="n">
-        <v>2.68</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="56">
@@ -1347,13 +1347,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="D56" t="n">
-        <v>2.62</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="57">
@@ -1361,13 +1361,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>2.59</v>
+        <v>3.38</v>
       </c>
       <c r="C57" t="n">
-        <v>0.31</v>
+        <v>0.77</v>
       </c>
       <c r="D57" t="n">
-        <v>2.59</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="58">
@@ -1375,13 +1375,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>2.49</v>
+        <v>3.72</v>
       </c>
       <c r="C58" t="n">
-        <v>0.22</v>
+        <v>1.07</v>
       </c>
       <c r="D58" t="n">
-        <v>2.49</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="59">
@@ -1389,13 +1389,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="D59" t="n">
-        <v>2.46</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="60">
@@ -1403,13 +1403,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>2.44</v>
+        <v>3.21</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.03</v>
+        <v>0.75</v>
       </c>
       <c r="D60" t="n">
-        <v>2.44</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="61">
@@ -1417,13 +1417,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>2.27</v>
+        <v>2.98</v>
       </c>
       <c r="C61" t="n">
-        <v>0.23</v>
+        <v>1.14</v>
       </c>
       <c r="D61" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="62">
@@ -1431,13 +1431,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>1.97</v>
+        <v>2.92</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.34</v>
+        <v>0.45</v>
       </c>
       <c r="D62" t="n">
-        <v>1.97</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="63">
@@ -1445,13 +1445,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>1.82</v>
+        <v>2.35</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="D63" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de marzo 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de abril 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -35,70 +35,88 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">ene 2020 - ene 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">dic 2020 - ene 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - ene 2021.1</t>
+    <t xml:space="preserve">ene 2021 - feb 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feb 2020 - feb 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
@@ -107,106 +125,88 @@
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDMX</t>
   </si>
   <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
@@ -544,7 +544,7 @@
     <col min="1" max="1" width="47.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="19.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="21.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>5.54</v>
+        <v>6.3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="D8" t="n">
-        <v>5.25</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="9">
@@ -689,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>5.23</v>
+        <v>6.39</v>
       </c>
       <c r="C9" t="n">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="D9" t="n">
-        <v>5.09</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="10">
@@ -703,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>5.11</v>
+        <v>5.3</v>
       </c>
       <c r="C10" t="n">
-        <v>1.39</v>
+        <v>0.23</v>
       </c>
       <c r="D10" t="n">
-        <v>4.93</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="11">
@@ -717,13 +717,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>5.22</v>
+        <v>6.61</v>
       </c>
       <c r="C11" t="n">
         <v>1.12</v>
       </c>
       <c r="D11" t="n">
-        <v>4.54</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="12">
@@ -731,13 +731,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>5.02</v>
+        <v>6.13</v>
       </c>
       <c r="C12" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="D12" t="n">
-        <v>4.54</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="13">
@@ -745,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>5.34</v>
+        <v>5.97</v>
       </c>
       <c r="C13" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="D13" t="n">
-        <v>4.52</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="14">
@@ -759,13 +759,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>5.42</v>
+        <v>5.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="D14" t="n">
-        <v>4.49</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="15">
@@ -773,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>5.06</v>
+        <v>5.61</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.49</v>
+        <v>0.36</v>
       </c>
       <c r="D15" t="n">
-        <v>4.28</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="16">
@@ -787,13 +787,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>5.3</v>
+        <v>5.82</v>
       </c>
       <c r="C16" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="D16" t="n">
-        <v>4.27</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>4.15</v>
+        <v>5.42</v>
       </c>
       <c r="C17" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="D17" t="n">
-        <v>4.25</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="18">
@@ -815,13 +815,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>4.79</v>
+        <v>5.15</v>
       </c>
       <c r="C18" t="n">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="D18" t="n">
-        <v>4.23</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="C19" t="n">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="D19" t="n">
-        <v>4.21</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="20">
@@ -843,13 +843,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>5.17</v>
+        <v>6.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.58</v>
+        <v>0.71</v>
       </c>
       <c r="D20" t="n">
-        <v>4.21</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>4.12</v>
+        <v>4.88</v>
       </c>
       <c r="C21" t="n">
-        <v>1.11</v>
+        <v>0.61</v>
       </c>
       <c r="D21" t="n">
-        <v>4.14</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="22">
@@ -871,13 +871,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>4.48</v>
+        <v>5.36</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D22" t="n">
-        <v>4.01</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="23">
@@ -885,13 +885,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>4.17</v>
+        <v>5.97</v>
       </c>
       <c r="C23" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D23" t="n">
-        <v>3.86</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="24">
@@ -899,13 +899,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>4.68</v>
+        <v>5.38</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9</v>
+        <v>1.19</v>
       </c>
       <c r="D24" t="n">
-        <v>3.82</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="25">
@@ -913,13 +913,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>4.29</v>
+        <v>4.76</v>
       </c>
       <c r="C25" t="n">
-        <v>1.01</v>
+        <v>0.61</v>
       </c>
       <c r="D25" t="n">
-        <v>3.81</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="26">
@@ -927,13 +927,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>4.45</v>
+        <v>5.74</v>
       </c>
       <c r="C26" t="n">
-        <v>0.94</v>
+        <v>0.55</v>
       </c>
       <c r="D26" t="n">
-        <v>3.81</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>4.31</v>
+        <v>4.54</v>
       </c>
       <c r="C27" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="D27" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="28">
@@ -955,13 +955,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>4.74</v>
+        <v>4.81</v>
       </c>
       <c r="C28" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="D28" t="n">
-        <v>3.74</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="29">
@@ -969,13 +969,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>3.9</v>
+        <v>5.02</v>
       </c>
       <c r="C29" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="D29" t="n">
-        <v>3.74</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="30">
@@ -983,13 +983,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>4.12</v>
+        <v>5.98</v>
       </c>
       <c r="C30" t="n">
-        <v>1.31</v>
+        <v>0.6</v>
       </c>
       <c r="D30" t="n">
-        <v>3.73</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="31">
@@ -997,13 +997,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>4.79</v>
+        <v>5.2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.62</v>
+        <v>1.02</v>
       </c>
       <c r="D31" t="n">
-        <v>3.7</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="32">
@@ -1011,13 +1011,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>4.14</v>
+        <v>4.88</v>
       </c>
       <c r="C32" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="D32" t="n">
-        <v>3.68</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="33">
@@ -1025,13 +1025,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>4.2</v>
+        <v>4.85</v>
       </c>
       <c r="C33" t="n">
-        <v>0.98</v>
+        <v>0.52</v>
       </c>
       <c r="D33" t="n">
-        <v>3.68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1039,13 +1039,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>3.78</v>
+        <v>5.38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="D34" t="n">
-        <v>3.64</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="35">
@@ -1053,13 +1053,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>4.2</v>
+        <v>4.44</v>
       </c>
       <c r="C35" t="n">
-        <v>1.13</v>
+        <v>0.49</v>
       </c>
       <c r="D35" t="n">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="36">
@@ -1067,13 +1067,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>4.15</v>
+        <v>4.21</v>
       </c>
       <c r="C36" t="n">
-        <v>1.36</v>
+        <v>0.79</v>
       </c>
       <c r="D36" t="n">
-        <v>3.56</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="37">
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>4.18</v>
+        <v>4.5</v>
       </c>
       <c r="C37" t="n">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="D37" t="n">
-        <v>3.55</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="38">
@@ -1095,13 +1095,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>4.04</v>
+        <v>4.89</v>
       </c>
       <c r="C38" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="D38" t="n">
-        <v>3.54</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="39">
@@ -1109,13 +1109,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>3.93</v>
+        <v>5.24</v>
       </c>
       <c r="C39" t="n">
-        <v>0.56</v>
+        <v>1.2</v>
       </c>
       <c r="D39" t="n">
-        <v>3.51</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="40">
@@ -1123,13 +1123,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>3.73</v>
+        <v>4.6</v>
       </c>
       <c r="C40" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="D40" t="n">
-        <v>3.48</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +1137,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>4.42</v>
+        <v>4.31</v>
       </c>
       <c r="C41" t="n">
-        <v>1.88</v>
+        <v>0.56</v>
       </c>
       <c r="D41" t="n">
-        <v>3.47</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="42">
@@ -1151,13 +1151,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>4.13</v>
+        <v>4.69</v>
       </c>
       <c r="C42" t="n">
-        <v>1.04</v>
+        <v>0.63</v>
       </c>
       <c r="D42" t="n">
-        <v>3.47</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>3.99</v>
+        <v>4.07</v>
       </c>
       <c r="C43" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="D43" t="n">
-        <v>3.44</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="44">
@@ -1179,13 +1179,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>3.93</v>
+        <v>4.44</v>
       </c>
       <c r="C44" t="n">
-        <v>0.75</v>
+        <v>0.23</v>
       </c>
       <c r="D44" t="n">
-        <v>3.41</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="45">
@@ -1193,13 +1193,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>3.85</v>
+        <v>4.79</v>
       </c>
       <c r="C45" t="n">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="D45" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="46">
@@ -1207,13 +1207,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>3.78</v>
+        <v>4.37</v>
       </c>
       <c r="C46" t="n">
-        <v>0.94</v>
+        <v>0.5</v>
       </c>
       <c r="D46" t="n">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="47">
@@ -1221,13 +1221,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>4.51</v>
+        <v>4.01</v>
       </c>
       <c r="C47" t="n">
-        <v>1.22</v>
+        <v>0.1</v>
       </c>
       <c r="D47" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="48">
@@ -1235,13 +1235,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>3.84</v>
+        <v>4.62</v>
       </c>
       <c r="C48" t="n">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="D48" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="49">
@@ -1249,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="C49" t="n">
-        <v>1.1</v>
+        <v>0.62</v>
       </c>
       <c r="D49" t="n">
-        <v>3.27</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="50">
@@ -1263,13 +1263,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>3.61</v>
+        <v>4.96</v>
       </c>
       <c r="C50" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="D50" t="n">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="51">
@@ -1277,13 +1277,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>3.66</v>
+        <v>4.8</v>
       </c>
       <c r="C51" t="n">
-        <v>0.96</v>
+        <v>0.63</v>
       </c>
       <c r="D51" t="n">
-        <v>3.2</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="52">
@@ -1291,13 +1291,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>3.85</v>
+        <v>4.06</v>
       </c>
       <c r="C52" t="n">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="D52" t="n">
-        <v>3.19</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="53">
@@ -1305,13 +1305,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>3.66</v>
+        <v>4.94</v>
       </c>
       <c r="C53" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="D53" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="54">
@@ -1319,13 +1319,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>4.28</v>
+        <v>4.97</v>
       </c>
       <c r="C54" t="n">
-        <v>1.04</v>
+        <v>0.44</v>
       </c>
       <c r="D54" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="55">
@@ -1333,13 +1333,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>4.02</v>
+        <v>4.17</v>
       </c>
       <c r="C55" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="D55" t="n">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="56">
@@ -1347,10 +1347,10 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>3.35</v>
+        <v>4.12</v>
       </c>
       <c r="C56" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="D56" t="n">
         <v>3.08</v>
@@ -1361,13 +1361,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>3.38</v>
+        <v>3.85</v>
       </c>
       <c r="C57" t="n">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="D57" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="58">
@@ -1375,13 +1375,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>3.72</v>
+        <v>3.97</v>
       </c>
       <c r="C58" t="n">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
       <c r="D58" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="59">
@@ -1389,13 +1389,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>3.3</v>
+        <v>4.34</v>
       </c>
       <c r="C59" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="D59" t="n">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="60">
@@ -1403,13 +1403,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>3.21</v>
+        <v>4.36</v>
       </c>
       <c r="C60" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="D60" t="n">
-        <v>2.69</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="61">
@@ -1417,13 +1417,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>2.98</v>
+        <v>3.59</v>
       </c>
       <c r="C61" t="n">
-        <v>1.14</v>
+        <v>0.65</v>
       </c>
       <c r="D61" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="62">
@@ -1431,13 +1431,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>2.92</v>
+        <v>4.09</v>
       </c>
       <c r="C62" t="n">
-        <v>0.45</v>
+        <v>0.07</v>
       </c>
       <c r="D62" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="63">
@@ -1445,13 +1445,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>2.35</v>
+        <v>2.86</v>
       </c>
       <c r="C63" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - ene 2021</t>
+    <t xml:space="preserve">dic 2020 - feb 2021</t>
   </si>
   <si>
     <t xml:space="preserve">ene 2021 - feb 2021</t>
@@ -675,7 +675,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>6.3</v>
+        <v>1.56</v>
       </c>
       <c r="C8" t="n">
         <v>0.72</v>
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>6.39</v>
+        <v>2.61</v>
       </c>
       <c r="C9" t="n">
         <v>1.21</v>
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>5.3</v>
+        <v>-0.26</v>
       </c>
       <c r="C10" t="n">
         <v>0.23</v>
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>6.61</v>
+        <v>2.07</v>
       </c>
       <c r="C11" t="n">
         <v>1.12</v>
@@ -731,7 +731,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>6.13</v>
+        <v>1.91</v>
       </c>
       <c r="C12" t="n">
         <v>1.28</v>
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>5.97</v>
+        <v>1.84</v>
       </c>
       <c r="C13" t="n">
         <v>0.71</v>
@@ -759,7 +759,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>5.1</v>
+        <v>1.77</v>
       </c>
       <c r="C14" t="n">
         <v>0.89</v>
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>5.61</v>
+        <v>1.33</v>
       </c>
       <c r="C15" t="n">
         <v>0.36</v>
@@ -787,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>5.82</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>1.09</v>
@@ -801,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>5.42</v>
+        <v>1.44</v>
       </c>
       <c r="C17" t="n">
         <v>0.6</v>
@@ -815,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>5.15</v>
+        <v>1.61</v>
       </c>
       <c r="C18" t="n">
         <v>0.67</v>
@@ -829,7 +829,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>4.9</v>
+        <v>1.43</v>
       </c>
       <c r="C19" t="n">
         <v>0.72</v>
@@ -843,7 +843,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>6.05</v>
+        <v>1.82</v>
       </c>
       <c r="C20" t="n">
         <v>0.71</v>
@@ -857,7 +857,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>4.88</v>
+        <v>1.49</v>
       </c>
       <c r="C21" t="n">
         <v>0.61</v>
@@ -871,7 +871,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>5.36</v>
+        <v>1.86</v>
       </c>
       <c r="C22" t="n">
         <v>0.85</v>
@@ -885,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>5.97</v>
+        <v>2.24</v>
       </c>
       <c r="C23" t="n">
         <v>0.9</v>
@@ -899,7 +899,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>5.38</v>
+        <v>1.92</v>
       </c>
       <c r="C24" t="n">
         <v>1.19</v>
@@ -913,7 +913,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>4.76</v>
+        <v>1.73</v>
       </c>
       <c r="C25" t="n">
         <v>0.61</v>
@@ -927,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>5.74</v>
+        <v>2.13</v>
       </c>
       <c r="C26" t="n">
         <v>0.55</v>
@@ -941,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>4.54</v>
+        <v>1.25</v>
       </c>
       <c r="C27" t="n">
         <v>0.73</v>
@@ -955,7 +955,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>4.81</v>
+        <v>1.51</v>
       </c>
       <c r="C28" t="n">
         <v>0.5</v>
@@ -969,7 +969,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>5.02</v>
+        <v>2.07</v>
       </c>
       <c r="C29" t="n">
         <v>0.8</v>
@@ -983,7 +983,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>5.98</v>
+        <v>1.45</v>
       </c>
       <c r="C30" t="n">
         <v>0.6</v>
@@ -997,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>5.2</v>
+        <v>2.08</v>
       </c>
       <c r="C31" t="n">
         <v>1.02</v>
@@ -1011,7 +1011,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>4.88</v>
+        <v>1.79</v>
       </c>
       <c r="C32" t="n">
         <v>0.65</v>
@@ -1025,7 +1025,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>4.85</v>
+        <v>1.27</v>
       </c>
       <c r="C33" t="n">
         <v>0.52</v>
@@ -1039,7 +1039,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>5.38</v>
+        <v>1.07</v>
       </c>
       <c r="C34" t="n">
         <v>0.61</v>
@@ -1053,7 +1053,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>4.44</v>
+        <v>1.05</v>
       </c>
       <c r="C35" t="n">
         <v>0.49</v>
@@ -1067,7 +1067,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>4.21</v>
+        <v>1.9</v>
       </c>
       <c r="C36" t="n">
         <v>0.79</v>
@@ -1081,7 +1081,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>4.5</v>
+        <v>1.86</v>
       </c>
       <c r="C37" t="n">
         <v>1.09</v>
@@ -1095,7 +1095,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>4.89</v>
+        <v>1.69</v>
       </c>
       <c r="C38" t="n">
         <v>0.93</v>
@@ -1109,7 +1109,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>5.24</v>
+        <v>1.84</v>
       </c>
       <c r="C39" t="n">
         <v>1.2</v>
@@ -1123,7 +1123,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>4.6</v>
+        <v>1.37</v>
       </c>
       <c r="C40" t="n">
         <v>0.91</v>
@@ -1137,7 +1137,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>4.31</v>
+        <v>1.46</v>
       </c>
       <c r="C41" t="n">
         <v>0.56</v>
@@ -1151,7 +1151,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>4.69</v>
+        <v>1.5</v>
       </c>
       <c r="C42" t="n">
         <v>0.63</v>
@@ -1165,7 +1165,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>4.07</v>
+        <v>1.35</v>
       </c>
       <c r="C43" t="n">
         <v>0.7</v>
@@ -1179,7 +1179,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>4.44</v>
+        <v>1.21</v>
       </c>
       <c r="C44" t="n">
         <v>0.23</v>
@@ -1193,7 +1193,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>4.79</v>
+        <v>1.92</v>
       </c>
       <c r="C45" t="n">
         <v>0.97</v>
@@ -1207,7 +1207,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>4.37</v>
+        <v>1.29</v>
       </c>
       <c r="C46" t="n">
         <v>0.5</v>
@@ -1221,7 +1221,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>4.01</v>
+        <v>0.94</v>
       </c>
       <c r="C47" t="n">
         <v>0.1</v>
@@ -1235,7 +1235,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>4.62</v>
+        <v>1.79</v>
       </c>
       <c r="C48" t="n">
         <v>0.47</v>
@@ -1249,7 +1249,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>4.5</v>
+        <v>1.12</v>
       </c>
       <c r="C49" t="n">
         <v>0.62</v>
@@ -1263,7 +1263,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>4.96</v>
+        <v>1.7</v>
       </c>
       <c r="C50" t="n">
         <v>0.65</v>
@@ -1277,7 +1277,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>4.8</v>
+        <v>1.99</v>
       </c>
       <c r="C51" t="n">
         <v>0.63</v>
@@ -1291,7 +1291,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>4.06</v>
+        <v>1.18</v>
       </c>
       <c r="C52" t="n">
         <v>0.73</v>
@@ -1305,7 +1305,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>4.94</v>
+        <v>2.39</v>
       </c>
       <c r="C53" t="n">
         <v>0.5</v>
@@ -1319,7 +1319,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>4.97</v>
+        <v>1.67</v>
       </c>
       <c r="C54" t="n">
         <v>0.44</v>
@@ -1333,7 +1333,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>4.17</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0.32</v>
@@ -1347,7 +1347,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>4.12</v>
+        <v>1.25</v>
       </c>
       <c r="C56" t="n">
         <v>0.5</v>
@@ -1361,7 +1361,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>3.85</v>
+        <v>1.38</v>
       </c>
       <c r="C57" t="n">
         <v>0.62</v>
@@ -1375,7 +1375,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>3.97</v>
+        <v>2.11</v>
       </c>
       <c r="C58" t="n">
         <v>0.96</v>
@@ -1389,7 +1389,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>4.34</v>
+        <v>1.67</v>
       </c>
       <c r="C59" t="n">
         <v>0.6</v>
@@ -1403,7 +1403,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>4.36</v>
+        <v>1.64</v>
       </c>
       <c r="C60" t="n">
         <v>0.67</v>
@@ -1417,7 +1417,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>3.59</v>
+        <v>1.11</v>
       </c>
       <c r="C61" t="n">
         <v>0.65</v>
@@ -1431,7 +1431,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>4.09</v>
+        <v>0.55</v>
       </c>
       <c r="C62" t="n">
         <v>0.07</v>
@@ -1445,7 +1445,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>2.86</v>
+        <v>0.87</v>
       </c>
       <c r="C63" t="n">
         <v>0.5</v>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de abril 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de mayo 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -35,181 +35,181 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - feb 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ene 2021 - feb 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feb 2020 - feb 2021</t>
+    <t xml:space="preserve">dic 2020 - mar 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feb 2021 - mar 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mar 2020 - mar 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="47.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="46.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="19.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="19.71" hidden="0" customWidth="1"/>
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="C8" t="n">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="D8" t="n">
-        <v>5.98</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="9">
@@ -689,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>2.61</v>
+        <v>1.78</v>
       </c>
       <c r="C9" t="n">
-        <v>1.21</v>
+        <v>0.67</v>
       </c>
       <c r="D9" t="n">
-        <v>5.83</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="10">
@@ -703,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.26</v>
+        <v>0.93</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="D10" t="n">
-        <v>5.19</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
@@ -717,13 +717,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="C11" t="n">
-        <v>1.12</v>
+        <v>0.4</v>
       </c>
       <c r="D11" t="n">
-        <v>5.01</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="12">
@@ -731,13 +731,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>1.91</v>
+        <v>3.03</v>
       </c>
       <c r="C12" t="n">
-        <v>1.28</v>
+        <v>0.77</v>
       </c>
       <c r="D12" t="n">
-        <v>4.9</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="13">
@@ -745,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="C13" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="n">
-        <v>4.82</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="14">
@@ -759,13 +759,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="C14" t="n">
-        <v>0.89</v>
+        <v>0.48</v>
       </c>
       <c r="D14" t="n">
-        <v>4.77</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="15">
@@ -773,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="C15" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="D15" t="n">
-        <v>4.71</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="16">
@@ -787,13 +787,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="C16" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="D16" t="n">
-        <v>4.68</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>1.44</v>
+        <v>2.45</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="D17" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="18">
@@ -815,13 +815,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>1.61</v>
+        <v>2.17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="D18" t="n">
-        <v>4.63</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>1.43</v>
+        <v>3.24</v>
       </c>
       <c r="C19" t="n">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="D19" t="n">
-        <v>4.63</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="20">
@@ -843,13 +843,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="D20" t="n">
-        <v>4.6</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>1.49</v>
+        <v>1.93</v>
       </c>
       <c r="C21" t="n">
-        <v>0.61</v>
+        <v>0.92</v>
       </c>
       <c r="D21" t="n">
-        <v>4.59</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="22">
@@ -871,13 +871,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>1.86</v>
+        <v>2.55</v>
       </c>
       <c r="C22" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="D22" t="n">
-        <v>4.56</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="23">
@@ -885,13 +885,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>2.24</v>
+        <v>2.74</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="D23" t="n">
-        <v>4.53</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="24">
@@ -899,13 +899,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>1.92</v>
+        <v>1.45</v>
       </c>
       <c r="C24" t="n">
-        <v>1.19</v>
+        <v>0.39</v>
       </c>
       <c r="D24" t="n">
-        <v>4.45</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="25">
@@ -913,13 +913,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="C25" t="n">
-        <v>0.61</v>
+        <v>1.07</v>
       </c>
       <c r="D25" t="n">
-        <v>4.3</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="26">
@@ -927,13 +927,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="C26" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="D26" t="n">
-        <v>4.2</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>1.25</v>
+        <v>3.06</v>
       </c>
       <c r="C27" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="D27" t="n">
-        <v>4.19</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="28">
@@ -955,13 +955,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>1.51</v>
+        <v>2.93</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5</v>
+        <v>1.27</v>
       </c>
       <c r="D28" t="n">
-        <v>4.13</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="29">
@@ -969,13 +969,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>2.07</v>
+        <v>2.66</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="D29" t="n">
-        <v>4.13</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="30">
@@ -983,13 +983,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>1.45</v>
+        <v>2.34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="D30" t="n">
-        <v>4.13</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="31">
@@ -997,13 +997,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="C31" t="n">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="D31" t="n">
-        <v>4.08</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="32">
@@ -1011,13 +1011,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="C32" t="n">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="D32" t="n">
-        <v>4.05</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="33">
@@ -1025,13 +1025,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>1.27</v>
+        <v>3.06</v>
       </c>
       <c r="C33" t="n">
-        <v>0.52</v>
+        <v>1.19</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="34">
@@ -1039,13 +1039,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>1.07</v>
+        <v>2.25</v>
       </c>
       <c r="C34" t="n">
-        <v>0.61</v>
+        <v>1.03</v>
       </c>
       <c r="D34" t="n">
-        <v>3.97</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="35">
@@ -1053,13 +1053,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.49</v>
+        <v>1.01</v>
       </c>
       <c r="D35" t="n">
-        <v>3.94</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="36">
@@ -1067,13 +1067,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>1.9</v>
+        <v>2.68</v>
       </c>
       <c r="C36" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="D36" t="n">
-        <v>3.94</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="37">
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="C37" t="n">
-        <v>1.09</v>
+        <v>0.56</v>
       </c>
       <c r="D37" t="n">
-        <v>3.91</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="38">
@@ -1095,13 +1095,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>1.69</v>
+        <v>2.83</v>
       </c>
       <c r="C38" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="D38" t="n">
-        <v>3.87</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="39">
@@ -1109,13 +1109,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>1.84</v>
+        <v>2.68</v>
       </c>
       <c r="C39" t="n">
-        <v>1.2</v>
+        <v>0.59</v>
       </c>
       <c r="D39" t="n">
-        <v>3.85</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="40">
@@ -1123,13 +1123,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>1.37</v>
+        <v>2.29</v>
       </c>
       <c r="C40" t="n">
-        <v>0.91</v>
+        <v>0.22</v>
       </c>
       <c r="D40" t="n">
-        <v>3.84</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +1137,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>1.46</v>
+        <v>3.05</v>
       </c>
       <c r="C41" t="n">
-        <v>0.56</v>
+        <v>1.17</v>
       </c>
       <c r="D41" t="n">
-        <v>3.77</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="42">
@@ -1151,13 +1151,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>1.5</v>
+        <v>2.39</v>
       </c>
       <c r="C42" t="n">
-        <v>0.63</v>
+        <v>1.1</v>
       </c>
       <c r="D42" t="n">
-        <v>3.76</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>1.35</v>
+        <v>2.8</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="D43" t="n">
-        <v>3.72</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="44">
@@ -1179,13 +1179,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>1.21</v>
+        <v>2.03</v>
       </c>
       <c r="C44" t="n">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
       <c r="D44" t="n">
-        <v>3.71</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="45">
@@ -1193,13 +1193,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>1.92</v>
+        <v>2.27</v>
       </c>
       <c r="C45" t="n">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="D45" t="n">
-        <v>3.65</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="46">
@@ -1207,13 +1207,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>1.29</v>
+        <v>2.81</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="D46" t="n">
-        <v>3.59</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="47">
@@ -1221,13 +1221,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>0.94</v>
+        <v>2.35</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1</v>
+        <v>1.27</v>
       </c>
       <c r="D47" t="n">
-        <v>3.58</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="48">
@@ -1235,13 +1235,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>1.79</v>
+        <v>2.34</v>
       </c>
       <c r="C48" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D48" t="n">
-        <v>3.58</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="49">
@@ -1249,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>1.12</v>
+        <v>3.06</v>
       </c>
       <c r="C49" t="n">
-        <v>0.62</v>
+        <v>0.97</v>
       </c>
       <c r="D49" t="n">
-        <v>3.56</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="50">
@@ -1263,13 +1263,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>1.7</v>
+        <v>2.77</v>
       </c>
       <c r="C50" t="n">
-        <v>0.65</v>
+        <v>0.96</v>
       </c>
       <c r="D50" t="n">
-        <v>3.51</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="51">
@@ -1277,13 +1277,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>1.99</v>
+        <v>2.41</v>
       </c>
       <c r="C51" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="D51" t="n">
-        <v>3.51</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="52">
@@ -1291,13 +1291,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>1.18</v>
+        <v>2.46</v>
       </c>
       <c r="C52" t="n">
-        <v>0.73</v>
+        <v>1.01</v>
       </c>
       <c r="D52" t="n">
-        <v>3.47</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="53">
@@ -1305,13 +1305,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="D53" t="n">
-        <v>3.28</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="54">
@@ -1319,13 +1319,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="C54" t="n">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="D54" t="n">
-        <v>3.27</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="55">
@@ -1333,13 +1333,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2.26</v>
       </c>
       <c r="C55" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="D55" t="n">
-        <v>3.16</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="56">
@@ -1347,13 +1347,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>3.08</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="57">
@@ -1361,13 +1361,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="C57" t="n">
-        <v>0.62</v>
+        <v>1.3</v>
       </c>
       <c r="D57" t="n">
-        <v>3.05</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="58">
@@ -1375,13 +1375,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>2.11</v>
+        <v>2.51</v>
       </c>
       <c r="C58" t="n">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="D58" t="n">
-        <v>3.05</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="59">
@@ -1389,13 +1389,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6</v>
+        <v>1.04</v>
       </c>
       <c r="D59" t="n">
-        <v>2.91</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="60">
@@ -1403,13 +1403,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>1.64</v>
+        <v>2.34</v>
       </c>
       <c r="C60" t="n">
-        <v>0.67</v>
+        <v>0.56</v>
       </c>
       <c r="D60" t="n">
-        <v>2.89</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="61">
@@ -1417,13 +1417,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>1.11</v>
+        <v>3.07</v>
       </c>
       <c r="C61" t="n">
-        <v>0.65</v>
+        <v>1.14</v>
       </c>
       <c r="D61" t="n">
-        <v>2.75</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="62">
@@ -1431,13 +1431,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>0.55</v>
+        <v>3.6</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07</v>
+        <v>0.96</v>
       </c>
       <c r="D62" t="n">
-        <v>2.55</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="63">
@@ -1445,13 +1445,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>0.87</v>
+        <v>2.72</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="D63" t="n">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de mayo 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de junio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -35,181 +35,181 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - mar 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feb 2021 - mar 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mar 2020 - mar 2021</t>
+    <t xml:space="preserve">dic 2020 - abr 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mar 2021 - abr 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abr 2020 - abr 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="46.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="47.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="19.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="19.71" hidden="0" customWidth="1"/>
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.85</v>
+        <v>-0.67</v>
       </c>
       <c r="D8" t="n">
-        <v>3.31</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="9">
@@ -689,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>1.78</v>
+        <v>0.64</v>
       </c>
       <c r="C9" t="n">
-        <v>0.67</v>
+        <v>-0.65</v>
       </c>
       <c r="D9" t="n">
-        <v>3.42</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="10">
@@ -703,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="C10" t="n">
-        <v>0.38</v>
+        <v>-0.99</v>
       </c>
       <c r="D10" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="11">
@@ -717,13 +717,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>1.78</v>
+        <v>0.72</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4</v>
+        <v>-0.72</v>
       </c>
       <c r="D11" t="n">
-        <v>3.68</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="12">
@@ -731,13 +731,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>3.03</v>
+        <v>1.15</v>
       </c>
       <c r="C12" t="n">
-        <v>0.77</v>
+        <v>-1.28</v>
       </c>
       <c r="D12" t="n">
-        <v>3.97</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="13">
@@ -745,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>2.16</v>
+        <v>0.94</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9</v>
+        <v>-0.83</v>
       </c>
       <c r="D13" t="n">
-        <v>4.03</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="14">
@@ -759,13 +759,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>1.61</v>
+        <v>2.61</v>
       </c>
       <c r="C14" t="n">
-        <v>0.48</v>
+        <v>-0.41</v>
       </c>
       <c r="D14" t="n">
-        <v>4.11</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="15">
@@ -773,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="C15" t="n">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>4.13</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="16">
@@ -787,13 +787,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="C16" t="n">
-        <v>1.06</v>
+        <v>0.52</v>
       </c>
       <c r="D16" t="n">
-        <v>4.15</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="C17" t="n">
-        <v>0.74</v>
+        <v>0.52</v>
       </c>
       <c r="D17" t="n">
-        <v>4.16</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="18">
@@ -815,13 +815,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>2.17</v>
+        <v>1.44</v>
       </c>
       <c r="C18" t="n">
-        <v>0.98</v>
+        <v>-0.71</v>
       </c>
       <c r="D18" t="n">
-        <v>4.17</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>3.24</v>
+        <v>1.27</v>
       </c>
       <c r="C19" t="n">
-        <v>0.83</v>
+        <v>0.23</v>
       </c>
       <c r="D19" t="n">
-        <v>4.23</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="20">
@@ -843,13 +843,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>1.3</v>
+        <v>2.37</v>
       </c>
       <c r="C20" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="D20" t="n">
-        <v>4.24</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="C21" t="n">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D21" t="n">
-        <v>4.26</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="22">
@@ -871,13 +871,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="C22" t="n">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="D22" t="n">
-        <v>4.26</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="23">
@@ -885,13 +885,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.81</v>
+        <v>1.11</v>
       </c>
       <c r="D23" t="n">
-        <v>4.33</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="24">
@@ -899,13 +899,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>1.45</v>
+        <v>3.55</v>
       </c>
       <c r="C24" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="D24" t="n">
-        <v>4.39</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="25">
@@ -913,13 +913,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>2.38</v>
+        <v>3.33</v>
       </c>
       <c r="C25" t="n">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
       <c r="D25" t="n">
-        <v>4.39</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="26">
@@ -927,13 +927,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>1.88</v>
+        <v>2.87</v>
       </c>
       <c r="C26" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="D26" t="n">
-        <v>4.41</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="C27" t="n">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="D27" t="n">
-        <v>4.46</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="28">
@@ -955,13 +955,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="C28" t="n">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="D28" t="n">
-        <v>4.65</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="29">
@@ -969,13 +969,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>2.66</v>
+        <v>1.6</v>
       </c>
       <c r="C29" t="n">
-        <v>0.86</v>
+        <v>-0.58</v>
       </c>
       <c r="D29" t="n">
-        <v>4.66</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="30">
@@ -983,13 +983,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>2.34</v>
+        <v>2.67</v>
       </c>
       <c r="C30" t="n">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D30" t="n">
-        <v>4.67</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="31">
@@ -997,13 +997,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>2.19</v>
+        <v>3.28</v>
       </c>
       <c r="C31" t="n">
-        <v>0.93</v>
+        <v>0.53</v>
       </c>
       <c r="D31" t="n">
-        <v>4.67</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="32">
@@ -1011,13 +1011,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="C32" t="n">
-        <v>0.98</v>
+        <v>0.63</v>
       </c>
       <c r="D32" t="n">
-        <v>4.71</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="33">
@@ -1025,13 +1025,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>3.06</v>
+        <v>2.42</v>
       </c>
       <c r="C33" t="n">
-        <v>1.19</v>
+        <v>0.52</v>
       </c>
       <c r="D33" t="n">
-        <v>4.89</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="34">
@@ -1039,13 +1039,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>2.25</v>
+        <v>4.03</v>
       </c>
       <c r="C34" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="D34" t="n">
-        <v>4.89</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="35">
@@ -1053,13 +1053,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>2.4</v>
+        <v>0.35</v>
       </c>
       <c r="C35" t="n">
-        <v>1.01</v>
+        <v>-2.38</v>
       </c>
       <c r="D35" t="n">
-        <v>5.01</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="36">
@@ -1067,13 +1067,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="D36" t="n">
-        <v>5.02</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="37">
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>1.89</v>
+        <v>1.18</v>
       </c>
       <c r="C37" t="n">
-        <v>0.56</v>
+        <v>-1.04</v>
       </c>
       <c r="D37" t="n">
-        <v>5.02</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="38">
@@ -1095,13 +1095,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>2.83</v>
+        <v>3.13</v>
       </c>
       <c r="C38" t="n">
-        <v>0.82</v>
+        <v>0.43</v>
       </c>
       <c r="D38" t="n">
-        <v>5.03</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="39">
@@ -1109,13 +1109,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="D39" t="n">
-        <v>5.06</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="40">
@@ -1123,13 +1123,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>2.29</v>
+        <v>2.86</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22</v>
+        <v>0.58</v>
       </c>
       <c r="D40" t="n">
-        <v>5.08</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +1137,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="C41" t="n">
-        <v>1.17</v>
+        <v>0.81</v>
       </c>
       <c r="D41" t="n">
-        <v>5.11</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="42">
@@ -1151,13 +1151,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>2.39</v>
+        <v>3.32</v>
       </c>
       <c r="C42" t="n">
-        <v>1.1</v>
+        <v>0.53</v>
       </c>
       <c r="D42" t="n">
-        <v>5.15</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="C43" t="n">
-        <v>0.86</v>
+        <v>0.31</v>
       </c>
       <c r="D43" t="n">
-        <v>5.26</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="44">
@@ -1179,13 +1179,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>2.03</v>
+        <v>3.39</v>
       </c>
       <c r="C44" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="D44" t="n">
-        <v>5.26</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="45">
@@ -1193,13 +1193,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>2.27</v>
+        <v>3.01</v>
       </c>
       <c r="C45" t="n">
-        <v>0.77</v>
+        <v>0.26</v>
       </c>
       <c r="D45" t="n">
-        <v>5.27</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="46">
@@ -1207,13 +1207,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>2.81</v>
+        <v>3.19</v>
       </c>
       <c r="C46" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="D46" t="n">
-        <v>5.29</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="47">
@@ -1221,13 +1221,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>2.35</v>
+        <v>2.74</v>
       </c>
       <c r="C47" t="n">
-        <v>1.27</v>
+        <v>0.47</v>
       </c>
       <c r="D47" t="n">
-        <v>5.31</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="48">
@@ -1235,13 +1235,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>2.34</v>
+        <v>3.46</v>
       </c>
       <c r="C48" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="D48" t="n">
-        <v>5.35</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="49">
@@ -1249,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>3.06</v>
+        <v>3.44</v>
       </c>
       <c r="C49" t="n">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="D49" t="n">
-        <v>5.4</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="50">
@@ -1263,13 +1263,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>2.77</v>
+        <v>2.36</v>
       </c>
       <c r="C50" t="n">
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="D50" t="n">
-        <v>5.4</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="51">
@@ -1277,13 +1277,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>2.41</v>
+        <v>3.57</v>
       </c>
       <c r="C51" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="D51" t="n">
-        <v>5.45</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="52">
@@ -1291,13 +1291,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
       <c r="C52" t="n">
-        <v>1.01</v>
+        <v>0.57</v>
       </c>
       <c r="D52" t="n">
-        <v>5.48</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="53">
@@ -1305,13 +1305,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>2.28</v>
+        <v>3.25</v>
       </c>
       <c r="C53" t="n">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="D53" t="n">
-        <v>5.51</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="54">
@@ -1319,13 +1319,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>2.64</v>
+        <v>4.13</v>
       </c>
       <c r="C54" t="n">
-        <v>0.63</v>
+        <v>1.04</v>
       </c>
       <c r="D54" t="n">
-        <v>5.54</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="55">
@@ -1333,13 +1333,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>2.26</v>
+        <v>3.07</v>
       </c>
       <c r="C55" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="D55" t="n">
-        <v>5.57</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="56">
@@ -1347,13 +1347,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>-0.42</v>
       </c>
       <c r="D56" t="n">
-        <v>5.62</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="57">
@@ -1361,13 +1361,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>1.04</v>
+        <v>3.27</v>
       </c>
       <c r="C57" t="n">
-        <v>1.3</v>
+        <v>0.58</v>
       </c>
       <c r="D57" t="n">
-        <v>5.79</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="58">
@@ -1375,13 +1375,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>2.51</v>
+        <v>3.12</v>
       </c>
       <c r="C58" t="n">
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
       <c r="D58" t="n">
-        <v>5.85</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="59">
@@ -1389,13 +1389,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="C59" t="n">
-        <v>1.04</v>
+        <v>0.4</v>
       </c>
       <c r="D59" t="n">
-        <v>5.88</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="60">
@@ -1403,13 +1403,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>2.34</v>
+        <v>3.18</v>
       </c>
       <c r="C60" t="n">
-        <v>0.56</v>
+        <v>0.45</v>
       </c>
       <c r="D60" t="n">
-        <v>6.15</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="61">
@@ -1417,13 +1417,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>3.07</v>
+        <v>3.39</v>
       </c>
       <c r="C61" t="n">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="D61" t="n">
-        <v>6.21</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="62">
@@ -1431,13 +1431,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>3.6</v>
+        <v>4.09</v>
       </c>
       <c r="C62" t="n">
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="D62" t="n">
-        <v>6.23</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="63">
@@ -1445,13 +1445,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="C63" t="n">
-        <v>1.14</v>
+        <v>-0.69</v>
       </c>
       <c r="D63" t="n">
-        <v>6.5</v>
+        <v>8.26</v>
       </c>
     </row>
   </sheetData>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de junio 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de julio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -35,181 +35,181 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - abr 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mar 2021 - abr 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abr 2020 - abr 2021</t>
+    <t xml:space="preserve">dic 2020 - may 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abr 2021 - may 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may 2020 - may 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
 </sst>
 </file>
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.67</v>
+        <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>3.81</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="9">
@@ -689,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.64</v>
+        <v>1.8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.65</v>
+        <v>0.75</v>
       </c>
       <c r="D9" t="n">
-        <v>4.59</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="10">
@@ -703,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.99</v>
+        <v>0.55</v>
       </c>
       <c r="D10" t="n">
-        <v>4.9</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="11">
@@ -717,13 +717,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.72</v>
+        <v>1.31</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.72</v>
+        <v>0.67</v>
       </c>
       <c r="D11" t="n">
-        <v>4.95</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="12">
@@ -731,13 +731,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>1.15</v>
+        <v>2.83</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.28</v>
+        <v>0.27</v>
       </c>
       <c r="D12" t="n">
-        <v>5.02</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="13">
@@ -745,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.94</v>
+        <v>1.36</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.83</v>
+        <v>0.75</v>
       </c>
       <c r="D13" t="n">
-        <v>5.06</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="14">
@@ -759,13 +759,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>2.61</v>
+        <v>2.91</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.41</v>
+        <v>0.29</v>
       </c>
       <c r="D14" t="n">
-        <v>5.07</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="15">
@@ -773,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>2.55</v>
+        <v>3.04</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="D15" t="n">
-        <v>5.14</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="16">
@@ -787,13 +787,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>2.69</v>
+        <v>3.57</v>
       </c>
       <c r="C16" t="n">
-        <v>0.52</v>
+        <v>0.27</v>
       </c>
       <c r="D16" t="n">
-        <v>5.4</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>1.45</v>
+        <v>0.94</v>
       </c>
       <c r="C17" t="n">
-        <v>0.52</v>
+        <v>0.22</v>
       </c>
       <c r="D17" t="n">
-        <v>5.57</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="18">
@@ -815,13 +815,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>1.44</v>
+        <v>4.48</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.71</v>
+        <v>0.66</v>
       </c>
       <c r="D18" t="n">
-        <v>5.61</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>1.27</v>
+        <v>3.77</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="D19" t="n">
-        <v>5.71</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="20">
@@ -843,13 +843,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>2.37</v>
+        <v>3.4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.38</v>
+        <v>0.69</v>
       </c>
       <c r="D20" t="n">
-        <v>5.79</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>2.9</v>
+        <v>4.56</v>
       </c>
       <c r="C21" t="n">
-        <v>0.94</v>
+        <v>0.54</v>
       </c>
       <c r="D21" t="n">
-        <v>5.8</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="22">
@@ -871,13 +871,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="C22" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="D22" t="n">
-        <v>5.82</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="23">
@@ -885,13 +885,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>3.8</v>
+        <v>1.51</v>
       </c>
       <c r="C23" t="n">
-        <v>1.11</v>
+        <v>0.24</v>
       </c>
       <c r="D23" t="n">
-        <v>5.86</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="24">
@@ -899,13 +899,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="C24" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="D24" t="n">
-        <v>5.86</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="25">
@@ -913,13 +913,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>3.33</v>
+        <v>1.58</v>
       </c>
       <c r="C25" t="n">
-        <v>0.96</v>
+        <v>0.39</v>
       </c>
       <c r="D25" t="n">
-        <v>5.87</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="26">
@@ -927,13 +927,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>2.87</v>
+        <v>3.87</v>
       </c>
       <c r="C26" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="D26" t="n">
-        <v>5.93</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>3.13</v>
+        <v>-0.08</v>
       </c>
       <c r="C27" t="n">
-        <v>0.57</v>
+        <v>-2.44</v>
       </c>
       <c r="D27" t="n">
-        <v>5.93</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="28">
@@ -955,13 +955,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>3.29</v>
+        <v>3.97</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="D28" t="n">
-        <v>5.98</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="29">
@@ -969,13 +969,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>1.6</v>
+        <v>2.23</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.58</v>
+        <v>0.78</v>
       </c>
       <c r="D29" t="n">
-        <v>6.07</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="30">
@@ -983,13 +983,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>2.67</v>
+        <v>3.26</v>
       </c>
       <c r="C30" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="D30" t="n">
-        <v>6.08</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="31">
@@ -997,13 +997,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="C31" t="n">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
       <c r="D31" t="n">
-        <v>6.13</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="32">
@@ -1011,13 +1011,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>2.99</v>
+        <v>3.8</v>
       </c>
       <c r="C32" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="D32" t="n">
-        <v>6.16</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="33">
@@ -1025,13 +1025,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="C33" t="n">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="D33" t="n">
-        <v>6.16</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="34">
@@ -1039,13 +1039,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>4.03</v>
+        <v>3.06</v>
       </c>
       <c r="C34" t="n">
-        <v>1.06</v>
+        <v>0.67</v>
       </c>
       <c r="D34" t="n">
-        <v>6.19</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="35">
@@ -1053,13 +1053,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>0.35</v>
+        <v>2.14</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.38</v>
+        <v>0.53</v>
       </c>
       <c r="D35" t="n">
-        <v>6.21</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="36">
@@ -1067,13 +1067,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="C36" t="n">
-        <v>0.73</v>
+        <v>0.94</v>
       </c>
       <c r="D36" t="n">
-        <v>6.23</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="37">
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>1.18</v>
+        <v>3.69</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.04</v>
+        <v>0.42</v>
       </c>
       <c r="D37" t="n">
-        <v>6.31</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="38">
@@ -1095,13 +1095,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>3.13</v>
+        <v>2.83</v>
       </c>
       <c r="C38" t="n">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="D38" t="n">
-        <v>6.32</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="39">
@@ -1109,13 +1109,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>0.79</v>
       </c>
       <c r="C39" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="D39" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="40">
@@ -1123,13 +1123,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>2.86</v>
+        <v>0.49</v>
       </c>
       <c r="C40" t="n">
-        <v>0.58</v>
+        <v>-2.88</v>
       </c>
       <c r="D40" t="n">
-        <v>6.56</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +1137,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>3.22</v>
+        <v>-0.59</v>
       </c>
       <c r="C41" t="n">
-        <v>0.81</v>
+        <v>-3.5</v>
       </c>
       <c r="D41" t="n">
-        <v>6.68</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="42">
@@ -1151,13 +1151,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>3.32</v>
+        <v>3.71</v>
       </c>
       <c r="C42" t="n">
-        <v>0.53</v>
+        <v>0.82</v>
       </c>
       <c r="D42" t="n">
-        <v>6.73</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>3.13</v>
+        <v>1.87</v>
       </c>
       <c r="C43" t="n">
-        <v>0.31</v>
+        <v>-1.4</v>
       </c>
       <c r="D43" t="n">
-        <v>6.75</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="44">
@@ -1179,13 +1179,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>3.39</v>
+        <v>4.71</v>
       </c>
       <c r="C44" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="D44" t="n">
-        <v>6.76</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="45">
@@ -1193,13 +1193,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>3.01</v>
+        <v>0.17</v>
       </c>
       <c r="C45" t="n">
-        <v>0.26</v>
+        <v>-2.14</v>
       </c>
       <c r="D45" t="n">
-        <v>6.77</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="46">
@@ -1207,13 +1207,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>3.19</v>
+        <v>1.97</v>
       </c>
       <c r="C46" t="n">
-        <v>0.88</v>
+        <v>-1.12</v>
       </c>
       <c r="D46" t="n">
-        <v>6.77</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="47">
@@ -1221,13 +1221,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>2.74</v>
+        <v>-1.31</v>
       </c>
       <c r="C47" t="n">
-        <v>0.47</v>
+        <v>-3.95</v>
       </c>
       <c r="D47" t="n">
-        <v>6.8</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="48">
@@ -1235,13 +1235,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>3.46</v>
+        <v>4.08</v>
       </c>
       <c r="C48" t="n">
-        <v>0.39</v>
+        <v>0.56</v>
       </c>
       <c r="D48" t="n">
-        <v>6.84</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="49">
@@ -1249,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>3.44</v>
+        <v>3.82</v>
       </c>
       <c r="C49" t="n">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="D49" t="n">
-        <v>6.85</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="50">
@@ -1263,13 +1263,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>2.36</v>
+        <v>2.92</v>
       </c>
       <c r="C50" t="n">
-        <v>0.48</v>
+        <v>-0.5</v>
       </c>
       <c r="D50" t="n">
-        <v>6.86</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="51">
@@ -1277,13 +1277,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="D51" t="n">
-        <v>6.88</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="52">
@@ -1291,13 +1291,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>2.61</v>
+        <v>-0.86</v>
       </c>
       <c r="C52" t="n">
-        <v>0.57</v>
+        <v>-4</v>
       </c>
       <c r="D52" t="n">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="53">
@@ -1305,10 +1305,10 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="C53" t="n">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="D53" t="n">
         <v>6.99</v>
@@ -1319,13 +1319,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>4.13</v>
+        <v>3.82</v>
       </c>
       <c r="C54" t="n">
-        <v>1.04</v>
+        <v>0.72</v>
       </c>
       <c r="D54" t="n">
-        <v>7.01</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="55">
@@ -1333,13 +1333,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>3.07</v>
+        <v>3.22</v>
       </c>
       <c r="C55" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="D55" t="n">
-        <v>7.03</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="56">
@@ -1347,13 +1347,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>2.64</v>
+        <v>4.17</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.42</v>
+        <v>0.76</v>
       </c>
       <c r="D56" t="n">
-        <v>7.15</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="57">
@@ -1361,13 +1361,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>3.27</v>
+        <v>4.18</v>
       </c>
       <c r="C57" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="D57" t="n">
-        <v>7.22</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="58">
@@ -1375,13 +1375,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>3.12</v>
+        <v>1.88</v>
       </c>
       <c r="C58" t="n">
-        <v>0.76</v>
+        <v>-0.15</v>
       </c>
       <c r="D58" t="n">
-        <v>7.28</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="59">
@@ -1389,13 +1389,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>2.82</v>
+        <v>4.85</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4</v>
+        <v>0.73</v>
       </c>
       <c r="D59" t="n">
-        <v>7.28</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="60">
@@ -1403,13 +1403,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>3.18</v>
+        <v>3.89</v>
       </c>
       <c r="C60" t="n">
-        <v>0.45</v>
+        <v>0.74</v>
       </c>
       <c r="D60" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="61">
@@ -1417,13 +1417,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>3.39</v>
+        <v>2.83</v>
       </c>
       <c r="C61" t="n">
-        <v>0.86</v>
+        <v>-0.54</v>
       </c>
       <c r="D61" t="n">
-        <v>7.73</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="62">
@@ -1431,13 +1431,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>4.09</v>
+        <v>3.59</v>
       </c>
       <c r="C62" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="D62" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="63">
@@ -1445,13 +1445,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>2.04</v>
+        <v>4.74</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.69</v>
+        <v>0.59</v>
       </c>
       <c r="D63" t="n">
-        <v>8.26</v>
+        <v>8.07</v>
       </c>
     </row>
   </sheetData>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de julio 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de agosto 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - may 2021</t>
+    <t xml:space="preserve">dic 2020 - jun 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">abr 2021 - may 2021</t>
+    <t xml:space="preserve">may 2021 - jun 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">may 2020 - may 2021</t>
+    <t xml:space="preserve">jun 2020 - jun 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
@@ -78,70 +78,76 @@
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
@@ -150,91 +156,85 @@
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="3">
     <font>
@@ -259,7 +259,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -626,10 +625,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="true" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -722,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.28</v>
+        <v>3.85</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -739,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1.8</v>
+        <v>2.23</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4.32</v>
+        <v>4.06</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -756,13 +755,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.55</v>
+        <v>0.22</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.53</v>
+        <v>4.23</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -773,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.31</v>
+        <v>3.33</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -790,13 +789,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.83</v>
+        <v>3.13</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4.86</v>
+        <v>4.66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -807,13 +806,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.36</v>
+        <v>2.17</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.88</v>
+        <v>4.85</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -824,13 +823,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.91</v>
+        <v>4.19</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4.9</v>
+        <v>5.03</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -841,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.04</v>
+        <v>3.68</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>5.01</v>
+        <v>5.07</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -858,13 +857,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3.57</v>
+        <v>1.93</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.27</v>
+        <v>0.97</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>5.01</v>
+        <v>5.08</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -875,13 +874,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.94</v>
+        <v>2.17</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5.04</v>
+        <v>5.09</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -892,13 +891,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>4.48</v>
+        <v>2.14</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -909,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.77</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.37</v>
+        <v>5.31</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -926,13 +925,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.69</v>
+        <v>0.79</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.39</v>
+        <v>5.38</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -943,13 +942,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>4.56</v>
+        <v>3.82</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>5.55</v>
+        <v>5.53</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -960,13 +959,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.14</v>
+        <v>4.53</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5.57</v>
+        <v>5.53</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -977,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.51</v>
+        <v>3.91</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.24</v>
+        <v>0.62</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>5.57</v>
@@ -994,13 +993,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.57</v>
+        <v>-0.25</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>5.59</v>
+        <v>5.6</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1011,13 +1010,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.58</v>
+        <v>4.32</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.39</v>
+        <v>0.73</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>5.6</v>
+        <v>5.61</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1028,10 +1027,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.87</v>
+        <v>3.5</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>5.64</v>
@@ -1045,13 +1044,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.57</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>-2.44</v>
+        <v>0.4</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1062,13 +1061,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.97</v>
+        <v>2.99</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>5.75</v>
+        <v>5.73</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1079,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.23</v>
+        <v>4.48</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1096,13 +1095,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.26</v>
+        <v>3.64</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5.81</v>
+        <v>5.75</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1113,13 +1112,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.53</v>
+        <v>4.64</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.24</v>
+        <v>0.07</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>5.87</v>
+        <v>5.77</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1130,13 +1129,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.8</v>
+        <v>0.53</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1147,13 +1146,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.2</v>
+        <v>1.04</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>5.89</v>
+        <v>5.81</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1164,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>3.06</v>
+        <v>4.02</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.67</v>
+        <v>0.22</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>5.94</v>
+        <v>5.86</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1181,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.14</v>
+        <v>3.43</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>0.53</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>5.98</v>
+        <v>5.88</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1198,13 +1197,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.95</v>
+        <v>4.23</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.94</v>
+        <v>0.35</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>6.03</v>
+        <v>5.88</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1215,13 +1214,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.69</v>
+        <v>3.74</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>6.12</v>
+        <v>5.95</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1232,13 +1231,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.83</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6.25</v>
+        <v>6.02</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1249,13 +1248,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.79</v>
+        <v>4.01</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1266,13 +1265,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0.49</v>
+        <v>-0.77</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>-2.88</v>
+        <v>0.55</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.35</v>
+        <v>6.13</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1283,13 +1282,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-0.59</v>
+        <v>4.47</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>-3.5</v>
+        <v>0.5</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.35</v>
+        <v>6.15</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1300,13 +1299,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.71</v>
+        <v>2.06</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.82</v>
+        <v>0.09</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.35</v>
+        <v>6.18</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1317,13 +1316,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.87</v>
+        <v>4.46</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>-1.4</v>
+        <v>0.61</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.37</v>
+        <v>6.28</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1334,13 +1333,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.71</v>
+        <v>2.69</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>6.42</v>
+        <v>6.31</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1351,13 +1350,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.17</v>
+        <v>1.25</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>-2.14</v>
+        <v>0.76</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>6.45</v>
+        <v>6.42</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1368,13 +1367,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.97</v>
+        <v>4.24</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>-1.12</v>
+        <v>0.53</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6.51</v>
+        <v>6.45</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1385,13 +1384,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-1.31</v>
+        <v>-0.07</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>-3.95</v>
+        <v>0.79</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>6.53</v>
+        <v>6.5</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1402,13 +1401,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.08</v>
+        <v>4.31</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.56</v>
+        <v>0.58</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>6.56</v>
+        <v>6.51</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1419,13 +1418,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>3.82</v>
+        <v>3.45</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1436,13 +1435,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.92</v>
+        <v>4.07</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>-0.5</v>
+        <v>0.47</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>6.82</v>
+        <v>6.54</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1453,13 +1452,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6.87</v>
+        <v>6.68</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1470,13 +1469,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-0.86</v>
+        <v>4.99</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>-4</v>
+        <v>0.79</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>6.94</v>
+        <v>6.75</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1487,13 +1486,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.49</v>
+        <v>4.09</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1.04</v>
+        <v>0.84</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6.99</v>
+        <v>6.77</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1504,13 +1503,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.82</v>
+        <v>5.24</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>7.03</v>
+        <v>6.83</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1521,13 +1520,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>3.22</v>
+        <v>4.61</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>7.07</v>
+        <v>6.84</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1538,13 +1537,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.17</v>
+        <v>1.65</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7.09</v>
+        <v>6.85</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1555,13 +1554,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>4.18</v>
+        <v>5.57</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7.37</v>
+        <v>7.15</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1572,13 +1571,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.88</v>
+        <v>3.22</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.38</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7.38</v>
+        <v>7.19</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1589,13 +1588,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.85</v>
+        <v>4.74</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7.59</v>
+        <v>7.19</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1606,13 +1605,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>3.89</v>
+        <v>2.28</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7.6</v>
+        <v>7.26</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1623,13 +1622,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.83</v>
+        <v>4.4</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>-0.54</v>
+        <v>0.49</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7.69</v>
+        <v>7.3</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1640,13 +1639,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3.59</v>
+        <v>4.95</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.4</v>
+        <v>0.74</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>7.73</v>
+        <v>7.48</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1657,13 +1656,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>4.74</v>
+        <v>5.33</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.59</v>
+        <v>0.56</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>8.07</v>
+        <v>7.95</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de agosto 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de septiembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - jun 2021</t>
+    <t xml:space="preserve">dic 2020 - jul 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">may 2021 - jun 2021</t>
+    <t xml:space="preserve">jun 2021 - jul 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">jun 2020 - jun 2021</t>
+    <t xml:space="preserve">jul 2020 - jul 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
@@ -78,55 +78,25 @@
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
@@ -135,52 +105,100 @@
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
@@ -189,28 +207,19 @@
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla, Pue.</t>
@@ -219,22 +228,13 @@
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.39</v>
+        <v>2.07</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.02</v>
+        <v>0.67</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.85</v>
+        <v>3.61</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -738,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.23</v>
+        <v>2.81</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -755,13 +755,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.54</v>
+        <v>3.96</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.22</v>
+        <v>0.61</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.23</v>
+        <v>4.28</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -772,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>3.33</v>
+        <v>1.92</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -789,13 +789,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>3.13</v>
+        <v>2.08</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4.66</v>
+        <v>4.46</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -806,13 +806,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -823,13 +823,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>4.19</v>
+        <v>2.76</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.21</v>
+        <v>0.61</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>5.03</v>
+        <v>4.9</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -840,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.68</v>
+        <v>3.57</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>5.07</v>
+        <v>5.1</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -857,13 +857,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.93</v>
+        <v>2.84</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -874,13 +874,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.17</v>
+        <v>0.99</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.65</v>
+        <v>0.41</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5.09</v>
+        <v>5.22</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -891,13 +891,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.14</v>
+        <v>3.49</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.3</v>
+        <v>5.23</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -908,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3</v>
+        <v>4.15</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.84</v>
+        <v>0.31</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.31</v>
+        <v>5.27</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -925,13 +925,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.95</v>
+        <v>4.31</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.38</v>
+        <v>5.27</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -942,13 +942,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.82</v>
+        <v>0.4</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>5.53</v>
+        <v>5.28</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -959,13 +959,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4.53</v>
+        <v>4.73</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.73</v>
+        <v>0.52</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5.53</v>
+        <v>5.29</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -976,13 +976,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>3.91</v>
+        <v>3.89</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5.57</v>
+        <v>5.37</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -993,13 +993,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-0.25</v>
+        <v>4.79</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.34</v>
+        <v>0.86</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>5.6</v>
+        <v>5.41</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1010,13 +1010,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>4.32</v>
+        <v>3.46</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>5.61</v>
+        <v>5.41</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1027,13 +1027,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.5</v>
+        <v>4.23</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>5.64</v>
+        <v>5.48</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1044,13 +1044,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.57</v>
+        <v>2.55</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>5.66</v>
+        <v>5.54</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1061,13 +1061,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>2.99</v>
+        <v>-0.11</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>5.73</v>
+        <v>5.64</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1078,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>4.48</v>
+        <v>3.17</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.88</v>
+        <v>0.52</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5.73</v>
+        <v>5.64</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1095,13 +1095,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.64</v>
+        <v>5.12</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.28</v>
+        <v>0.77</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1112,13 +1112,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>4.64</v>
+        <v>5.11</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.07</v>
+        <v>0.56</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1129,13 +1129,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.53</v>
+        <v>4.04</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1146,13 +1146,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.63</v>
+        <v>4.77</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>1.04</v>
+        <v>0.29</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>5.81</v>
+        <v>5.87</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1163,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>4.02</v>
+        <v>4.32</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.22</v>
+        <v>0.56</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1180,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.43</v>
+        <v>4.47</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1197,13 +1197,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>4.23</v>
+        <v>1.17</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1214,13 +1214,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.74</v>
+        <v>3.29</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.24</v>
+        <v>0.58</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>5.95</v>
+        <v>6.06</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1231,13 +1231,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>5</v>
+        <v>5.06</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6.02</v>
+        <v>6.1</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1248,13 +1248,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4.01</v>
+        <v>5.29</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1265,13 +1265,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-0.77</v>
+        <v>0.57</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1282,13 +1282,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.15</v>
+        <v>6.11</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1299,13 +1299,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.06</v>
+        <v>4.26</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.18</v>
+        <v>6.28</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1316,13 +1316,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.46</v>
+        <v>5.38</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.28</v>
+        <v>6.37</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1333,13 +1333,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.69</v>
+        <v>5.06</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>0.8</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>6.31</v>
+        <v>6.41</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1350,13 +1350,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.25</v>
+        <v>5.64</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.76</v>
+        <v>1.1</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>6.42</v>
+        <v>6.44</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1367,13 +1367,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>4.24</v>
+        <v>4.65</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1384,13 +1384,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-0.07</v>
+        <v>5.59</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>6.5</v>
+        <v>6.49</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1401,13 +1401,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.31</v>
+        <v>6.18</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>0.58</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>6.51</v>
+        <v>6.56</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1418,13 +1418,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>3.45</v>
+        <v>5.15</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.51</v>
+        <v>1.08</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6.52</v>
+        <v>6.59</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1435,13 +1435,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>0.47</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>6.54</v>
+        <v>6.64</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1452,13 +1452,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.24</v>
+        <v>2.21</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.41</v>
+        <v>0.95</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6.68</v>
+        <v>6.64</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1469,13 +1469,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>4.99</v>
+        <v>5.23</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>6.75</v>
+        <v>6.66</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1486,13 +1486,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>4.09</v>
+        <v>5.77</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6.77</v>
+        <v>6.8</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1503,13 +1503,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>5.24</v>
+        <v>5.8</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>6.83</v>
+        <v>6.85</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1520,13 +1520,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>4.61</v>
+        <v>4.18</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.51</v>
+        <v>0.91</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>6.84</v>
+        <v>6.88</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1537,13 +1537,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.65</v>
+        <v>5.6</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>6.85</v>
+        <v>6.89</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1554,13 +1554,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>5.57</v>
+        <v>4.07</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7.15</v>
+        <v>7.02</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1571,13 +1571,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>3.22</v>
+        <v>5.52</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.38</v>
+        <v>0.87</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7.19</v>
+        <v>7.07</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1588,13 +1588,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.74</v>
+        <v>2.49</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7.19</v>
+        <v>7.11</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1605,13 +1605,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.28</v>
+        <v>2.89</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7.26</v>
+        <v>7.13</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1622,13 +1622,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>4.4</v>
+        <v>5.69</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1639,13 +1639,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>4.95</v>
+        <v>5.25</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>7.48</v>
+        <v>7.46</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1656,13 +1656,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>5.33</v>
+        <v>6.09</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.56</v>
+        <v>0.72</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>7.95</v>
+        <v>7.91</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de septiembre 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de octubre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,178 +63,178 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - jul 2021</t>
+    <t xml:space="preserve">dic 2020 - ago 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">jun 2021 - jul 2021</t>
+    <t xml:space="preserve">jul 2021 - ago 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">jul 2020 - jul 2021</t>
+    <t xml:space="preserve">ago 2020 - ago 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.07</v>
+        <v>2.93</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.67</v>
+        <v>0.11</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -738,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.81</v>
+        <v>2.34</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.57</v>
+        <v>0.26</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4.07</v>
+        <v>3.81</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -755,13 +755,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>3.96</v>
+        <v>2.05</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.61</v>
+        <v>-0.03</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.28</v>
+        <v>4.15</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -772,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.92</v>
+        <v>2.41</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.35</v>
+        <v>4.24</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -789,13 +789,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.08</v>
+        <v>2.72</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4.46</v>
+        <v>4.79</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -806,13 +806,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.41</v>
+        <v>4.03</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.24</v>
+        <v>-0.11</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.75</v>
+        <v>4.83</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -823,13 +823,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.76</v>
+        <v>1.15</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.61</v>
+        <v>0.16</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4.9</v>
+        <v>4.87</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -840,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.57</v>
+        <v>4.59</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>5.1</v>
+        <v>4.87</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -857,13 +857,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.84</v>
+        <v>4.31</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>5.18</v>
+        <v>4.94</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -874,13 +874,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.99</v>
+        <v>2.93</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5.22</v>
+        <v>4.98</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -891,13 +891,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.48</v>
+        <v>0.07</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.23</v>
+        <v>5.13</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -908,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>4.15</v>
+        <v>3.42</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.27</v>
+        <v>5.16</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -925,13 +925,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>4.31</v>
+        <v>3.61</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.61</v>
+        <v>0.14</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.27</v>
+        <v>5.21</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -942,13 +942,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>5.28</v>
+        <v>5.31</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -959,13 +959,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4.73</v>
+        <v>4.98</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5.29</v>
+        <v>5.37</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -976,13 +976,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>3.89</v>
+        <v>4.45</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.87</v>
+        <v>0.21</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5.37</v>
+        <v>5.39</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -993,10 +993,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>4.79</v>
+        <v>4.88</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.86</v>
+        <v>-0.22</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>5.41</v>
@@ -1010,13 +1010,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>3.46</v>
+        <v>5.11</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>5.41</v>
+        <v>5.46</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1027,13 +1027,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>4.23</v>
+        <v>1.5</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.71</v>
+        <v>0.32</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1044,13 +1044,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.55</v>
+        <v>4.24</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>5.54</v>
+        <v>5.59</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1061,13 +1061,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-0.11</v>
+        <v>5.18</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.66</v>
+        <v>-0.32</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1078,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.17</v>
+        <v>5.58</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1095,13 +1095,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>5.12</v>
+        <v>0.75</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.77</v>
+        <v>0.34</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5.78</v>
+        <v>5.65</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1112,13 +1112,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>5.11</v>
+        <v>5.03</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.56</v>
+        <v>-0.25</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>5.78</v>
+        <v>5.67</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1129,13 +1129,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>4.04</v>
+        <v>0.12</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.59</v>
+        <v>0.23</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>5.81</v>
+        <v>5.7</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1146,13 +1146,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>4.77</v>
+        <v>5.09</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.29</v>
+        <v>0.59</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>5.87</v>
+        <v>5.72</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1163,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>4.32</v>
+        <v>6.02</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.56</v>
+        <v>-0.15</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>5.87</v>
+        <v>5.72</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1180,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.47</v>
+        <v>4.09</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.44</v>
+        <v>1.22</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>5.94</v>
+        <v>5.75</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1197,13 +1197,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1.17</v>
+        <v>4.29</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5.99</v>
+        <v>5.86</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1214,13 +1214,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.29</v>
+        <v>3.52</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>6.06</v>
+        <v>5.87</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1231,13 +1231,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>5.06</v>
+        <v>4.84</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6.1</v>
+        <v>5.93</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1248,13 +1248,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>5.29</v>
+        <v>0.69</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.63</v>
+        <v>0.12</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>6.11</v>
+        <v>5.93</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1265,13 +1265,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0.57</v>
+        <v>4.56</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.64</v>
+        <v>0.23</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.11</v>
+        <v>6.05</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1282,13 +1282,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>4.54</v>
+        <v>5.57</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.87</v>
+        <v>-0.02</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.11</v>
+        <v>6.16</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1299,13 +1299,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.26</v>
+        <v>3.98</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.79</v>
+        <v>-0.08</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.28</v>
+        <v>6.18</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1316,13 +1316,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>5.38</v>
+        <v>5.65</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.88</v>
+        <v>0.26</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.37</v>
+        <v>6.18</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1333,13 +1333,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>5.06</v>
+        <v>3.68</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.8</v>
+        <v>0.37</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>6.41</v>
+        <v>6.18</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1350,13 +1350,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>5.64</v>
+        <v>4.79</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>1.1</v>
+        <v>0.21</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>6.44</v>
+        <v>6.23</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1367,13 +1367,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>4.65</v>
+        <v>5.83</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6.48</v>
+        <v>6.27</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1384,13 +1384,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>5.59</v>
+        <v>5.48</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.57</v>
+        <v>0.23</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>6.49</v>
+        <v>6.34</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1401,13 +1401,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>6.18</v>
+        <v>5.11</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>6.56</v>
+        <v>6.43</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1418,13 +1418,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>5.15</v>
+        <v>5.03</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>1.08</v>
+        <v>0.47</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6.59</v>
+        <v>6.45</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1435,13 +1435,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>4.58</v>
+        <v>5.41</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.47</v>
+        <v>-0.18</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1452,13 +1452,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>2.21</v>
+        <v>2.45</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.95</v>
+        <v>0.23</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6.64</v>
+        <v>6.5</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1469,13 +1469,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>5.23</v>
+        <v>5.92</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.95</v>
+        <v>0.22</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>6.66</v>
+        <v>6.56</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1486,13 +1486,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>5.77</v>
+        <v>4.9</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6.8</v>
+        <v>6.58</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1503,13 +1503,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>5.8</v>
+        <v>5.89</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>6.85</v>
+        <v>6.59</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1520,13 +1520,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>4.18</v>
+        <v>6.13</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>6.88</v>
+        <v>6.64</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1537,13 +1537,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>5.6</v>
+        <v>5.44</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.82</v>
+        <v>0.36</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>6.89</v>
+        <v>6.64</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1554,13 +1554,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>4.07</v>
+        <v>2.62</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.83</v>
+        <v>0.12</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7.02</v>
+        <v>6.65</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1571,13 +1571,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>5.52</v>
+        <v>5.72</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7.07</v>
+        <v>6.66</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1588,13 +1588,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.49</v>
+        <v>5.36</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.83</v>
+        <v>0.1</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7.11</v>
+        <v>6.81</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1605,13 +1605,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.89</v>
+        <v>4.62</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7.13</v>
+        <v>6.93</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1622,13 +1622,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>5.69</v>
+        <v>3.45</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7.2</v>
+        <v>6.97</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1639,13 +1639,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>5.25</v>
+        <v>5.71</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.81</v>
+        <v>0.53</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>7.46</v>
+        <v>7.11</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1656,13 +1656,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>6.09</v>
+        <v>6.93</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>7.91</v>
+        <v>8.29</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de octubre 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de noviembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,178 +63,178 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - ago 2021</t>
+    <t xml:space="preserve">dic 2020 - sep 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">jul 2021 - ago 2021</t>
+    <t xml:space="preserve">ago 2021 - sep 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">ago 2020 - ago 2021</t>
+    <t xml:space="preserve">sep 2020 - sep 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.93</v>
+        <v>3.22</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -738,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.81</v>
+        <v>4.03</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -755,13 +755,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.05</v>
+        <v>2.73</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.38</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.15</v>
+        <v>4.28</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -772,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.41</v>
+        <v>5.31</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.48</v>
+        <v>0.69</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.24</v>
+        <v>4.86</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -789,13 +789,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.72</v>
+        <v>4.61</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4.79</v>
+        <v>5.1</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -806,13 +806,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>4.03</v>
+        <v>3.26</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.11</v>
+        <v>0.83</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.83</v>
+        <v>5.1</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -823,13 +823,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4.87</v>
+        <v>5.17</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -840,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4.59</v>
+        <v>3.57</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>4.87</v>
+        <v>5.35</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -857,13 +857,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4.31</v>
+        <v>0.84</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.41</v>
+        <v>0.72</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4.94</v>
+        <v>5.63</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -874,13 +874,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.93</v>
+        <v>5.41</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.98</v>
+        <v>5.64</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -891,13 +891,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>3.56</v>
+        <v>4.21</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.07</v>
+        <v>0.57</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.13</v>
+        <v>5.65</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -908,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.16</v>
+        <v>5.74</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -925,13 +925,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.61</v>
+        <v>2.32</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.14</v>
+        <v>0.8</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.21</v>
+        <v>5.77</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -942,13 +942,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.35</v>
+        <v>0.99</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>5.31</v>
+        <v>5.79</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -959,13 +959,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4.98</v>
+        <v>5.34</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5.37</v>
+        <v>5.81</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -976,13 +976,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>4.45</v>
+        <v>6.03</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5.39</v>
+        <v>5.82</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -993,13 +993,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>4.88</v>
+        <v>5.84</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.22</v>
+        <v>0.71</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>5.41</v>
+        <v>5.84</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1010,13 +1010,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>5.11</v>
+        <v>5.58</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>5.46</v>
+        <v>5.85</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1027,13 +1027,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.5</v>
+        <v>5.62</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>5.5</v>
+        <v>5.89</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1044,13 +1044,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>4.24</v>
+        <v>5.67</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.19</v>
+        <v>0.55</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>5.59</v>
+        <v>5.92</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1061,13 +1061,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>5.18</v>
+        <v>5.37</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>-0.32</v>
+        <v>1.01</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>5.6</v>
+        <v>5.94</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1078,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5.58</v>
+        <v>4.34</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5.63</v>
+        <v>5.97</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1095,13 +1095,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.75</v>
+        <v>4.85</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5.65</v>
+        <v>5.97</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1112,13 +1112,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>5.03</v>
+        <v>4.88</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-0.25</v>
+        <v>0.62</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>5.67</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1129,13 +1129,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.12</v>
+        <v>5.18</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.23</v>
+        <v>0.69</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>5.7</v>
+        <v>6.01</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1146,13 +1146,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>5.09</v>
+        <v>1.59</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>5.72</v>
+        <v>6.03</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1163,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>6.02</v>
+        <v>5.64</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.73</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>5.72</v>
+        <v>6.05</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1180,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.09</v>
+        <v>4.67</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>1.22</v>
+        <v>0.56</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>5.75</v>
+        <v>6.09</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1197,13 +1197,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>4.29</v>
+        <v>5.27</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.69</v>
+        <v>0.46</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5.86</v>
+        <v>6.37</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1214,13 +1214,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.52</v>
+        <v>5.96</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>5.87</v>
+        <v>6.47</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1231,13 +1231,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.84</v>
+        <v>6.34</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>5.93</v>
+        <v>6.48</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1248,13 +1248,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.69</v>
+        <v>6.31</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.12</v>
+        <v>0.63</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>5.93</v>
+        <v>6.5</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1265,13 +1265,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>4.56</v>
+        <v>4.09</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.05</v>
+        <v>6.5</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1282,13 +1282,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>5.57</v>
+        <v>4.2</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>-0.02</v>
+        <v>0.66</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.16</v>
+        <v>6.5</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1299,13 +1299,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.98</v>
+        <v>6.24</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.79</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.18</v>
+        <v>6.55</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1316,13 +1316,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>5.65</v>
+        <v>1.46</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.26</v>
+        <v>0.76</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.18</v>
+        <v>6.61</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1333,13 +1333,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>3.68</v>
+        <v>5.79</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>6.18</v>
+        <v>6.61</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1350,13 +1350,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.79</v>
+        <v>4.73</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>6.23</v>
+        <v>6.62</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1367,13 +1367,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>5.83</v>
+        <v>3.25</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.02</v>
+        <v>0.62</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6.27</v>
+        <v>6.63</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1384,13 +1384,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>5.48</v>
+        <v>5.77</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.23</v>
+        <v>0.63</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>6.34</v>
+        <v>6.65</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1401,13 +1401,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>5.11</v>
+        <v>5.28</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.44</v>
+        <v>0.94</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>6.43</v>
+        <v>6.67</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1418,13 +1418,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>5.03</v>
+        <v>5.86</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.47</v>
+        <v>0.97</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6.45</v>
+        <v>6.72</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1435,13 +1435,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>5.41</v>
+        <v>7.19</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>-0.18</v>
+        <v>1.1</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>6.48</v>
+        <v>6.78</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1452,13 +1452,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>2.45</v>
+        <v>4.36</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.23</v>
+        <v>0.65</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6.5</v>
+        <v>6.81</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1469,13 +1469,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>5.92</v>
+        <v>3.09</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.22</v>
+        <v>0.62</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>6.56</v>
+        <v>6.86</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1486,13 +1486,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>4.9</v>
+        <v>6.04</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6.58</v>
+        <v>6.87</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1503,13 +1503,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>5.89</v>
+        <v>5.26</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.11</v>
+        <v>0.61</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>6.59</v>
+        <v>6.91</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1523,10 +1523,10 @@
         <v>6.13</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>6.64</v>
+        <v>7.03</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1537,13 +1537,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>5.44</v>
+        <v>6.24</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.36</v>
+        <v>0.76</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>6.64</v>
+        <v>7.16</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1554,13 +1554,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.62</v>
+        <v>5.76</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>6.65</v>
+        <v>7.23</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1571,13 +1571,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>5.72</v>
+        <v>6.73</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>6.66</v>
+        <v>7.33</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1588,13 +1588,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>5.36</v>
+        <v>6.54</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.1</v>
+        <v>0.67</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>6.81</v>
+        <v>7.34</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1605,13 +1605,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>4.62</v>
+        <v>6.17</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>6.93</v>
+        <v>7.36</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1622,13 +1622,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>3.45</v>
+        <v>6.81</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6.97</v>
+        <v>7.5</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1639,13 +1639,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>5.71</v>
+        <v>6.2</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.53</v>
+        <v>1.24</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>7.11</v>
+        <v>7.64</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1656,13 +1656,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>6.93</v>
+        <v>7.93</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.79</v>
+        <v>0.94</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>8.29</v>
+        <v>8.91</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - sep 2021</t>
+    <t xml:space="preserve">dic 2020 - oct 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">ago 2021 - sep 2021</t>
+    <t xml:space="preserve">sep 2021 - oct 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">sep 2020 - sep 2021</t>
+    <t xml:space="preserve">oct 2020 - oct 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
@@ -78,160 +78,160 @@
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>3.22</v>
+        <v>4.81</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.29</v>
+        <v>1.53</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.87</v>
+        <v>4.5</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -738,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.44</v>
+        <v>4.29</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.38</v>
+        <v>1.8</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4.03</v>
+        <v>4.59</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -755,13 +755,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.73</v>
+        <v>4.88</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.38</v>
+        <v>1.57</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.28</v>
+        <v>4.8</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -772,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.31</v>
+        <v>5.24</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.69</v>
+        <v>2.45</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.86</v>
+        <v>5.07</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -789,13 +789,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4.61</v>
+        <v>4.99</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -806,10 +806,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3.26</v>
+        <v>5.47</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.83</v>
+        <v>0.15</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>5.1</v>
@@ -823,13 +823,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.8</v>
+        <v>2.46</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>5.17</v>
+        <v>5.39</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -840,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.57</v>
+        <v>5.76</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>5.35</v>
+        <v>5.5</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -857,13 +857,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.84</v>
+        <v>5.31</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.72</v>
+        <v>1.68</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -874,13 +874,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.22</v>
+        <v>0.64</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5.64</v>
+        <v>5.75</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -891,13 +891,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>4.21</v>
+        <v>5.77</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.57</v>
+        <v>1.5</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.65</v>
+        <v>5.96</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -908,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>4.09</v>
+        <v>6.17</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.65</v>
+        <v>1.75</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.74</v>
+        <v>5.98</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -925,13 +925,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.32</v>
+        <v>6.03</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.77</v>
+        <v>6.07</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -942,13 +942,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.95</v>
+        <v>5.79</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.99</v>
+        <v>0.59</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>5.79</v>
+        <v>6.07</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -959,13 +959,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>5.34</v>
+        <v>1.65</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5.81</v>
+        <v>6.09</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -976,13 +976,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>6.03</v>
+        <v>6.1</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5.82</v>
+        <v>6.22</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -993,13 +993,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>5.84</v>
+        <v>6.24</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1010,13 +1010,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>5.58</v>
+        <v>6.18</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>5.85</v>
+        <v>6.27</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1027,13 +1027,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>5.62</v>
+        <v>2.48</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>5.89</v>
+        <v>6.34</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1044,13 +1044,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>5.67</v>
+        <v>6.23</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>5.92</v>
+        <v>6.34</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1061,13 +1061,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>5.37</v>
+        <v>4.72</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>1.01</v>
+        <v>0.75</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>5.94</v>
+        <v>6.35</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1078,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>4.34</v>
+        <v>6.52</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5.97</v>
+        <v>6.35</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1095,13 +1095,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>4.85</v>
+        <v>3.24</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.28</v>
+        <v>0.9</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5.97</v>
+        <v>6.36</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1112,13 +1112,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>4.88</v>
+        <v>6.44</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.62</v>
+        <v>2.26</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6</v>
+        <v>6.41</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1129,13 +1129,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>5.18</v>
+        <v>6.2</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.69</v>
+        <v>0.39</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>6.01</v>
+        <v>6.43</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1146,13 +1146,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.59</v>
+        <v>6.12</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>6.03</v>
+        <v>6.45</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1163,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>5.64</v>
+        <v>5.44</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>0.73</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>6.05</v>
+        <v>6.47</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1180,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.67</v>
+        <v>6.04</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.56</v>
+        <v>0.64</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>6.09</v>
+        <v>6.57</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1197,13 +1197,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>5.27</v>
+        <v>7.08</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>6.37</v>
+        <v>6.57</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1214,13 +1214,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>5.96</v>
+        <v>6.58</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.37</v>
+        <v>0.59</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>6.47</v>
+        <v>6.61</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1231,13 +1231,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>6.34</v>
+        <v>6.63</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1248,13 +1248,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>6.31</v>
+        <v>5.78</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>6.5</v>
+        <v>6.73</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1265,13 +1265,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>4.09</v>
+        <v>6.39</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1282,13 +1282,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>4.2</v>
+        <v>6.92</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.66</v>
+        <v>1.01</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1299,13 +1299,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>6.24</v>
+        <v>6.32</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.79</v>
+        <v>2.04</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.55</v>
+        <v>6.86</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1316,13 +1316,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.46</v>
+        <v>6.51</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.76</v>
+        <v>2.32</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.61</v>
+        <v>6.99</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1333,13 +1333,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>6.61</v>
+        <v>7</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1350,13 +1350,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.73</v>
+        <v>6.87</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>6.62</v>
+        <v>7.04</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1367,13 +1367,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.25</v>
+        <v>7.33</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6.63</v>
+        <v>7.04</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1384,13 +1384,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>5.77</v>
+        <v>6.79</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>6.65</v>
+        <v>7.05</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1401,13 +1401,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>5.28</v>
+        <v>7.14</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.94</v>
+        <v>0.85</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>6.67</v>
+        <v>7.05</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1418,13 +1418,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>5.86</v>
+        <v>7.38</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.97</v>
+        <v>3.99</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6.72</v>
+        <v>7.1</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1435,13 +1435,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>7.19</v>
+        <v>2.13</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>6.78</v>
+        <v>7.15</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1452,13 +1452,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>4.36</v>
+        <v>7.21</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6.81</v>
+        <v>7.16</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1469,13 +1469,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.09</v>
+        <v>6.62</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.62</v>
+        <v>0.82</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>6.86</v>
+        <v>7.18</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1486,13 +1486,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>6.04</v>
+        <v>7.37</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6.87</v>
+        <v>7.19</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1503,13 +1503,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>5.26</v>
+        <v>5.04</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>6.91</v>
+        <v>7.23</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1520,13 +1520,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>6.13</v>
+        <v>7.53</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>7.03</v>
+        <v>7.24</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1537,13 +1537,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>6.24</v>
+        <v>7.2</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7.16</v>
+        <v>7.28</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1554,13 +1554,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>5.76</v>
+        <v>3.55</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7.23</v>
+        <v>7.3</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1571,13 +1571,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>6.73</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.76</v>
+        <v>1.64</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7.33</v>
+        <v>7.58</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1588,13 +1588,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.54</v>
+        <v>8.15</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7.34</v>
+        <v>7.65</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1605,13 +1605,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>6.17</v>
+        <v>7.54</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7.36</v>
+        <v>7.65</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1622,13 +1622,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>6.81</v>
+        <v>7.45</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.64</v>
+        <v>2.07</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7.5</v>
+        <v>7.82</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1639,13 +1639,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>6.2</v>
+        <v>7.28</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>7.64</v>
+        <v>8.27</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1656,10 +1656,10 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>7.93</v>
+        <v>8.91</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="D69" s="3" t="n">
         <v>8.91</v>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -21,9 +21,6 @@
     <t>Periodicidad Mensual</t>
   </si>
   <si>
-    <t>Proxima fecha de actualización 9 de julio 2021</t>
-  </si>
-  <si>
     <t>Fuente: INEGI, INPC</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
     <t>Inflación por ciudades</t>
   </si>
   <si>
+    <t>Próxima fecha de actualización 9 de julio 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inflación por ciudades</t>
   </si>
   <si>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de noviembre 2021</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - oct 2021</t>
+    <t xml:space="preserve">dic 2020 - nov 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">sep 2021 - oct 2021</t>
+    <t xml:space="preserve">oct 2021 - nov 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">oct 2020 - oct 2021</t>
+    <t xml:space="preserve">nov 2020 - nov 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
@@ -84,157 +84,157 @@
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
@@ -629,7 +629,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="true" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>4.81</v>
+        <v>5.32</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1.53</v>
+        <v>0.49</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.5</v>
+        <v>4.96</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -738,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.29</v>
+        <v>4.64</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1.8</v>
+        <v>0.34</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4.59</v>
+        <v>5.29</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -755,13 +755,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>4.88</v>
+        <v>5.7</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1.57</v>
+        <v>0.78</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.8</v>
+        <v>6.21</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -772,13 +772,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.24</v>
+        <v>5.98</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>2.45</v>
+        <v>0.71</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>5.07</v>
+        <v>6.3</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -789,13 +789,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4.99</v>
+        <v>5.87</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.36</v>
+        <v>3.33</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>5.09</v>
+        <v>6.42</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -806,13 +806,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>5.47</v>
+        <v>6.04</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>5.1</v>
+        <v>6.47</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -823,13 +823,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.46</v>
+        <v>6.15</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.65</v>
+        <v>0.36</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>5.39</v>
+        <v>6.47</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -840,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>5.76</v>
+        <v>6.07</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>5.5</v>
+        <v>6.68</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -857,13 +857,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>5.31</v>
+        <v>6.85</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>1.68</v>
+        <v>4.27</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>5.58</v>
+        <v>6.77</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -874,13 +874,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>5.52</v>
+        <v>6.26</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5.75</v>
+        <v>6.78</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -891,13 +891,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>5.77</v>
+        <v>6.34</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>1.5</v>
+        <v>4.61</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.96</v>
+        <v>6.91</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -908,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>6.17</v>
+        <v>7.04</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1.75</v>
+        <v>3.69</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.98</v>
+        <v>7.01</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -925,13 +925,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>6.03</v>
+        <v>6.6</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>6.07</v>
+        <v>7.08</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -942,13 +942,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.79</v>
+        <v>6.86</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.59</v>
+        <v>1.27</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>6.07</v>
+        <v>7.11</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -959,13 +959,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.65</v>
+        <v>6.9</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.8</v>
+        <v>0.69</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>6.09</v>
+        <v>7.12</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -976,13 +976,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>6.1</v>
+        <v>6.54</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>6.22</v>
+        <v>7.17</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -993,13 +993,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>5.76</v>
+        <v>7.1</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.84</v>
+        <v>2.27</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>6.24</v>
+        <v>7.21</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1010,13 +1010,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>6.18</v>
+        <v>6.82</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.54</v>
+        <v>0.99</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>6.27</v>
+        <v>7.26</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1027,13 +1027,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.48</v>
+        <v>7.23</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.87</v>
+        <v>1.67</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>6.34</v>
+        <v>7.3</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1044,13 +1044,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.23</v>
+        <v>6.69</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>6.34</v>
+        <v>7.35</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1061,13 +1061,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>4.72</v>
+        <v>6.97</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.75</v>
+        <v>1.14</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>6.35</v>
+        <v>7.37</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1078,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>6.52</v>
+        <v>6.46</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>6.35</v>
+        <v>7.39</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1095,13 +1095,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.24</v>
+        <v>7.14</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>6.36</v>
+        <v>7.39</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1112,13 +1112,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>6.44</v>
+        <v>6.91</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>2.26</v>
+        <v>0.49</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6.41</v>
+        <v>7.41</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1129,13 +1129,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>6.2</v>
+        <v>6.79</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>6.43</v>
+        <v>7.42</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1146,13 +1146,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>6.12</v>
+        <v>6.77</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>6.45</v>
+        <v>7.45</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1163,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>5.44</v>
+        <v>7.03</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>6.47</v>
+        <v>7.5</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1180,13 +1180,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>6.04</v>
+        <v>7.16</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>6.57</v>
+        <v>7.51</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1197,13 +1197,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>7.08</v>
+        <v>7.14</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>6.57</v>
+        <v>7.52</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1214,13 +1214,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>6.58</v>
+        <v>7.21</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.59</v>
+        <v>1.37</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>6.61</v>
+        <v>7.53</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1231,13 +1231,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>6.63</v>
+        <v>7.14</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6.72</v>
+        <v>7.54</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1248,13 +1248,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>5.78</v>
+        <v>7.36</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.48</v>
+        <v>1.53</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>6.73</v>
+        <v>7.58</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1265,13 +1265,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>6.39</v>
+        <v>7.74</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.59</v>
+        <v>0.56</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.8</v>
+        <v>7.77</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1282,13 +1282,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>6.92</v>
+        <v>7.51</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1.01</v>
+        <v>5.27</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.8</v>
+        <v>7.81</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1299,13 +1299,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>6.32</v>
+        <v>7.76</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>2.04</v>
+        <v>0.64</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.86</v>
+        <v>7.86</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1316,13 +1316,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>6.51</v>
+        <v>7.82</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>2.32</v>
+        <v>0.84</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.99</v>
+        <v>7.93</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1333,13 +1333,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>5.75</v>
+        <v>7.99</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>7</v>
+        <v>7.95</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1350,13 +1350,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>6.87</v>
+        <v>7.93</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.79</v>
+        <v>2.75</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>7.04</v>
+        <v>7.96</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1367,13 +1367,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>7.33</v>
+        <v>7.74</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.75</v>
+        <v>1.04</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>7.04</v>
+        <v>8.06</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1384,13 +1384,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>6.79</v>
+        <v>7.89</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.88</v>
+        <v>0.47</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>7.05</v>
+        <v>8.13</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1401,13 +1401,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>7.14</v>
+        <v>7.94</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.85</v>
+        <v>1.81</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>7.05</v>
+        <v>8.18</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1418,13 +1418,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>3.99</v>
+        <v>0.82</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>7.1</v>
+        <v>8.24</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1435,13 +1435,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.13</v>
+        <v>7.57</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>7.15</v>
+        <v>8.37</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1452,13 +1452,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>7.21</v>
+        <v>8.07</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.98</v>
+        <v>0.81</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>7.16</v>
+        <v>8.38</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1469,13 +1469,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.62</v>
+        <v>8.29</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.82</v>
+        <v>1.33</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>7.18</v>
+        <v>8.39</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1486,13 +1486,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.37</v>
+        <v>7.75</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1</v>
+        <v>4.05</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>7.19</v>
+        <v>8.45</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1503,13 +1503,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>5.04</v>
+        <v>7.8</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>7.23</v>
+        <v>8.46</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1520,13 +1520,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>7.53</v>
+        <v>7.85</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.68</v>
+        <v>1.19</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>7.24</v>
+        <v>8.51</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1537,13 +1537,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>7.2</v>
+        <v>7.89</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.9</v>
+        <v>0.42</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7.28</v>
+        <v>8.52</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1554,13 +1554,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>3.55</v>
+        <v>8.25</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.45</v>
+        <v>0.82</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7.3</v>
+        <v>8.56</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1571,13 +1571,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>7</v>
+        <v>8.05</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.64</v>
+        <v>0.8</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7.58</v>
+        <v>8.62</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1588,13 +1588,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>8.15</v>
+        <v>8.84</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.89</v>
+        <v>1.41</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7.65</v>
+        <v>8.92</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1605,13 +1605,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>7.54</v>
+        <v>8.74</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.76</v>
+        <v>1.12</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7.65</v>
+        <v>9.08</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1622,13 +1622,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>7.45</v>
+        <v>8.68</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>2.07</v>
+        <v>1.3</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7.82</v>
+        <v>9.25</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1639,13 +1639,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>7.28</v>
+        <v>9.02</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.02</v>
+        <v>0.81</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>8.27</v>
+        <v>9.37</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1656,13 +1656,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>8.91</v>
+        <v>9.99</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>8.91</v>
+        <v>10.03</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -245,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +264,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,12 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +636,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="true" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -647,39 +654,51 @@
       <c r="E3" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
@@ -693,28 +712,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 2021</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,70 +63,73 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - nov 2021</t>
+    <t xml:space="preserve">dic 2020 - dic 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">oct 2021 - nov 2021</t>
+    <t xml:space="preserve">nov 2021 - dic 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">nov 2020 - nov 2021</t>
+    <t xml:space="preserve">dic 2020 - dic 2021.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
@@ -138,100 +141,97 @@
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">León, Gto.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
@@ -698,7 +698,7 @@
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
@@ -716,7 +716,6 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
@@ -733,20 +732,20 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.32</v>
+        <v>5.08</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.96</v>
+        <v>5.08</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -757,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.64</v>
+        <v>5.78</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>5.29</v>
+        <v>5.78</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -774,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.78</v>
+        <v>0.38</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -791,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.98</v>
+        <v>6.48</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.71</v>
+        <v>-0.61</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.3</v>
+        <v>6.48</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -808,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>5.87</v>
+        <v>6.49</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>3.33</v>
+        <v>0.42</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.42</v>
+        <v>6.49</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -825,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.04</v>
+        <v>6.5</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.47</v>
+        <v>6.5</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -842,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.15</v>
+        <v>6.51</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.47</v>
+        <v>6.51</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -859,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>6.07</v>
+        <v>6.69</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.6</v>
+        <v>-0.51</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.68</v>
+        <v>6.69</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -876,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6.85</v>
+        <v>6.8</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>4.27</v>
+        <v>0.44</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.77</v>
+        <v>6.8</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -893,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>6.26</v>
+        <v>6.96</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.78</v>
+        <v>6.96</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -910,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>6.34</v>
+        <v>7.03</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>4.61</v>
+        <v>-0.17</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>6.91</v>
+        <v>7.03</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -927,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>3.69</v>
+        <v>0.22</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.01</v>
+        <v>7.03</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -944,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>6.6</v>
+        <v>7.04</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.38</v>
+        <v>0.83</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.08</v>
+        <v>7.04</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -961,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>6.86</v>
+        <v>7.04</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>1.27</v>
+        <v>0.41</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.11</v>
+        <v>7.04</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -978,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>6.9</v>
+        <v>7.14</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.12</v>
+        <v>7.14</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -995,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>6.54</v>
+        <v>7.23</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.47</v>
+        <v>-0.66</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.17</v>
+        <v>7.23</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1012,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>7.1</v>
+        <v>7.23</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>2.27</v>
+        <v>0.65</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1029,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>6.82</v>
+        <v>7.25</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.26</v>
+        <v>7.25</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1046,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>7.23</v>
+        <v>7.26</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.3</v>
+        <v>7.26</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1063,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.69</v>
+        <v>7.28</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.85</v>
+        <v>1.14</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.35</v>
+        <v>7.28</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1080,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>6.97</v>
+        <v>7.35</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>1.14</v>
+        <v>0.62</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>7.37</v>
+        <v>7.35</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1097,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>6.46</v>
+        <v>7.36</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.39</v>
+        <v>7.36</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1114,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>7.14</v>
+        <v>7.37</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.39</v>
+        <v>7.37</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1131,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>6.91</v>
+        <v>7.39</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7.41</v>
+        <v>7.39</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1148,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>6.79</v>
+        <v>7.4</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7.42</v>
+        <v>7.4</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1165,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>6.77</v>
+        <v>7.41</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7.45</v>
+        <v>7.41</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1182,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>7.03</v>
+        <v>7.44</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7.5</v>
+        <v>7.44</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1199,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>7.16</v>
+        <v>7.44</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.61</v>
+        <v>-0.27</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>7.51</v>
+        <v>7.44</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1216,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>7.14</v>
+        <v>7.55</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.98</v>
+        <v>-0.28</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>7.52</v>
+        <v>7.55</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1233,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>7.21</v>
+        <v>7.65</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.37</v>
+        <v>0.47</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7.53</v>
+        <v>7.65</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1250,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>7.14</v>
+        <v>7.67</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.66</v>
+        <v>-0.08</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>7.54</v>
+        <v>7.67</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1267,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>7.36</v>
+        <v>7.69</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>1.53</v>
+        <v>-0.05</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7.58</v>
+        <v>7.69</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1284,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>7.74</v>
+        <v>7.69</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.56</v>
+        <v>0.5</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>7.77</v>
+        <v>7.69</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1301,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>7.51</v>
+        <v>7.77</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>5.27</v>
+        <v>0.59</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7.81</v>
+        <v>7.77</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1318,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>7.76</v>
+        <v>7.84</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>7.86</v>
+        <v>7.84</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1335,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>7.82</v>
+        <v>7.94</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.84</v>
+        <v>0.53</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7.93</v>
+        <v>7.94</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1352,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>7.99</v>
+        <v>7.96</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.43</v>
+        <v>0.99</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1369,10 +1368,10 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>7.93</v>
+        <v>7.96</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>2.75</v>
+        <v>0.13</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>7.96</v>
@@ -1386,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>7.74</v>
+        <v>8.04</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.04</v>
+        <v>0.44</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.06</v>
+        <v>8.04</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1403,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>7.89</v>
+        <v>8.11</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.13</v>
+        <v>8.11</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1420,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>7.94</v>
+        <v>8.15</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>1.81</v>
+        <v>0.24</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>8.18</v>
+        <v>8.15</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1437,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>7.5</v>
+        <v>8.19</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.82</v>
+        <v>1.02</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8.24</v>
+        <v>8.19</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1454,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>7.57</v>
+        <v>8.26</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.53</v>
+        <v>-0.02</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.37</v>
+        <v>8.26</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1471,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>8.07</v>
+        <v>8.34</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>8.38</v>
+        <v>8.34</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1488,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>8.29</v>
+        <v>8.36</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.33</v>
+        <v>0.4</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.39</v>
+        <v>8.36</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1505,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.75</v>
+        <v>8.42</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>4.05</v>
+        <v>0.32</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.45</v>
+        <v>8.42</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1522,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>7.8</v>
+        <v>8.44</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>8.46</v>
+        <v>8.44</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1539,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>7.85</v>
+        <v>8.44</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>1.19</v>
+        <v>0.64</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>8.51</v>
+        <v>8.44</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1556,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>7.89</v>
+        <v>8.54</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>8.52</v>
+        <v>8.54</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1573,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.25</v>
+        <v>8.54</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.82</v>
+        <v>0.45</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>8.56</v>
+        <v>8.54</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1590,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>8.05</v>
+        <v>8.57</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>8.62</v>
+        <v>8.57</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1607,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>8.84</v>
+        <v>8.68</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>8.92</v>
+        <v>8.68</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1624,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>8.74</v>
+        <v>8.89</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.12</v>
+        <v>0.05</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>9.08</v>
+        <v>8.89</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1641,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>8.68</v>
+        <v>8.96</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>9.25</v>
+        <v>8.96</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1658,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>9.02</v>
+        <v>9.71</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.81</v>
+        <v>0.64</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>9.37</v>
+        <v>9.71</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1675,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>9.99</v>
+        <v>9.82</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.99</v>
+        <v>-0.15</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>10.03</v>
+        <v>9.82</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 2021</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,16 +63,19 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - dic 2021</t>
+    <t xml:space="preserve">dic 2021 - ene 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">nov 2021 - dic 2021</t>
+    <t xml:space="preserve">dic 2021 - ene 2022.1</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2020 - dic 2021.1</t>
+    <t xml:space="preserve">ene 2021 - ene 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
@@ -81,127 +84,112 @@
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
@@ -210,31 +198,43 @@
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.08</v>
+        <v>0.53</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>5.08</v>
+        <v>5.05</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>5.78</v>
+        <v>0.26</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>5.78</v>
+        <v>5.47</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>6.1</v>
+        <v>0.28</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.1</v>
+        <v>5.68</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>6.48</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.61</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.48</v>
+        <v>6.26</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>6.49</v>
+        <v>0.55</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.49</v>
+        <v>6.27</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.5</v>
+        <v>0.49</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.5</v>
+        <v>6.34</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.51</v>
+        <v>1.05</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.49</v>
+        <v>1.05</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.51</v>
+        <v>6.36</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>6.69</v>
+        <v>0.4</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.51</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.69</v>
+        <v>6.37</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6.8</v>
+        <v>0.37</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.8</v>
+        <v>6.42</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>6.96</v>
+        <v>0.57</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.96</v>
+        <v>6.48</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>7.03</v>
+        <v>0.74</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-0.17</v>
+        <v>0.74</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.03</v>
+        <v>6.54</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7.03</v>
+        <v>0.68</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.22</v>
+        <v>0.68</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.03</v>
+        <v>6.62</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>7.04</v>
+        <v>0.47</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.04</v>
+        <v>6.73</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>7.04</v>
+        <v>0.86</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.41</v>
+        <v>0.86</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.04</v>
+        <v>6.73</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>7.14</v>
+        <v>0.53</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.14</v>
+        <v>6.77</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>7.23</v>
+        <v>0.94</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-0.66</v>
+        <v>0.94</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.23</v>
+        <v>6.78</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>7.23</v>
+        <v>0.5</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.23</v>
+        <v>6.86</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>7.25</v>
+        <v>0.43</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.25</v>
+        <v>6.86</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>7.26</v>
+        <v>0.54</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.26</v>
+        <v>6.87</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>7.28</v>
+        <v>0.49</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>1.14</v>
+        <v>0.49</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.28</v>
+        <v>6.89</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>7.35</v>
+        <v>0.67</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>7.35</v>
+        <v>6.99</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>7.36</v>
+        <v>0.85</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.36</v>
+        <v>0.85</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.36</v>
+        <v>7.02</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>7.37</v>
+        <v>0.25</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.37</v>
+        <v>7.06</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>7.39</v>
+        <v>0.59</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.32</v>
+        <v>0.59</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7.39</v>
+        <v>7.07</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>7.4</v>
+        <v>0.48</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>7.41</v>
+        <v>0.58</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7.41</v>
+        <v>7.1</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>7.44</v>
+        <v>0.45</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.58</v>
+        <v>0.45</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7.44</v>
+        <v>7.14</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>7.44</v>
+        <v>0.57</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>-0.27</v>
+        <v>0.57</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>7.44</v>
+        <v>7.22</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>7.55</v>
+        <v>0.71</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>-0.28</v>
+        <v>0.71</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>7.55</v>
+        <v>7.31</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>7.65</v>
+        <v>0.71</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7.65</v>
+        <v>7.35</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>7.67</v>
+        <v>0.6</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.6</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>7.67</v>
+        <v>7.37</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>7.69</v>
+        <v>0.46</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.46</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7.69</v>
+        <v>7.38</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>7.69</v>
+        <v>0.65</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>7.69</v>
+        <v>7.42</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>7.77</v>
+        <v>0.58</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7.77</v>
+        <v>7.48</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>7.84</v>
+        <v>0.85</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.03</v>
+        <v>0.85</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>7.84</v>
+        <v>7.53</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>7.94</v>
+        <v>0.54</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7.94</v>
+        <v>7.69</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>7.96</v>
+        <v>0.5</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>7.96</v>
+        <v>7.7</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>7.96</v>
+        <v>0.43</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.13</v>
+        <v>0.43</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>7.96</v>
+        <v>7.72</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>8.04</v>
+        <v>1.48</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.44</v>
+        <v>1.48</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.04</v>
+        <v>7.75</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>8.11</v>
+        <v>0.69</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.55</v>
+        <v>0.69</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.11</v>
+        <v>7.84</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>8.15</v>
+        <v>0.64</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>8.15</v>
+        <v>7.84</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>8.19</v>
+        <v>0.54</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>1.02</v>
+        <v>0.54</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8.19</v>
+        <v>7.99</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>8.26</v>
+        <v>1.01</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>-0.02</v>
+        <v>1.01</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.26</v>
+        <v>8.07</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>8.34</v>
+        <v>0.23</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.78</v>
+        <v>0.23</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>8.34</v>
+        <v>8.11</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>8.36</v>
+        <v>0.43</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.36</v>
+        <v>8.23</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>8.42</v>
+        <v>0.59</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.32</v>
+        <v>0.59</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.42</v>
+        <v>8.3</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.44</v>
+        <v>0.79</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.52</v>
+        <v>0.79</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>8.44</v>
+        <v>8.33</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>8.44</v>
+        <v>0.57</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>8.44</v>
+        <v>8.41</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>8.54</v>
+        <v>0.66</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>8.54</v>
+        <v>8.42</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.54</v>
+        <v>0.34</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>8.54</v>
+        <v>8.5</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>8.57</v>
+        <v>0.98</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.3</v>
+        <v>0.98</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>8.57</v>
+        <v>8.54</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>8.68</v>
+        <v>0.75</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>8.68</v>
+        <v>8.58</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>8.89</v>
+        <v>0.55</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>8.89</v>
+        <v>8.63</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>8.96</v>
+        <v>0.4</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>8.96</v>
+        <v>8.65</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>9.71</v>
+        <v>0.91</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.64</v>
+        <v>0.91</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>9.71</v>
+        <v>8.68</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>9.82</v>
+        <v>0.73</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.73</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>9.82</v>
+        <v>9.93</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,40 +63,34 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - ene 2022</t>
+    <t xml:space="preserve">dic 2021 - feb 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - ene 2022.1</t>
+    <t xml:space="preserve">ene 2021 - feb 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">ene 2021 - ene 2022</t>
+    <t xml:space="preserve">feb 2021 - feb 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
-  </si>
-  <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
@@ -105,61 +99,16 @@
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
@@ -168,73 +117,124 @@
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>5.05</v>
+        <v>4.8</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.26</v>
+        <v>1.2</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.26</v>
+        <v>0.83</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.28</v>
+        <v>1.24</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.28</v>
+        <v>0.69</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>5.68</v>
+        <v>5.53</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.26</v>
+        <v>5.6</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.55</v>
+        <v>2.08</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.55</v>
+        <v>1.54</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.27</v>
+        <v>5.73</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.49</v>
+        <v>1.72</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.49</v>
+        <v>1.43</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.34</v>
+        <v>5.77</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1.05</v>
+        <v>0.71</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.36</v>
+        <v>5.8</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.4</v>
+        <v>1.22</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.37</v>
+        <v>5.8</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.37</v>
+        <v>1.81</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.37</v>
+        <v>1.06</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.42</v>
+        <v>5.83</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.57</v>
+        <v>1.26</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.48</v>
+        <v>5.86</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.74</v>
+        <v>0.51</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>6.54</v>
+        <v>5.94</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.68</v>
+        <v>1.1</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>6.62</v>
+        <v>5.98</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.47</v>
+        <v>2.06</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>6.73</v>
+        <v>6.01</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.86</v>
+        <v>1.24</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>6.73</v>
+        <v>6.06</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.53</v>
+        <v>1.2</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>6.77</v>
+        <v>6.07</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0.94</v>
+        <v>1.6</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.94</v>
+        <v>0.73</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>6.78</v>
+        <v>6.11</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>6.86</v>
+        <v>6.35</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.43</v>
+        <v>1.4</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.43</v>
+        <v>0.73</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>6.86</v>
+        <v>6.35</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.54</v>
+        <v>1.43</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>6.87</v>
+        <v>6.38</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.49</v>
+        <v>1.43</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.49</v>
+        <v>0.83</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>6.89</v>
+        <v>6.4</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.67</v>
+        <v>1.59</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>6.99</v>
+        <v>6.4</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.85</v>
+        <v>1.64</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.02</v>
+        <v>6.46</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.25</v>
+        <v>1.82</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.25</v>
+        <v>1.11</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.59</v>
+        <v>1.56</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.59</v>
+        <v>1.06</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7.07</v>
+        <v>6.52</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.48</v>
+        <v>1.18</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.48</v>
+        <v>0.93</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7.1</v>
+        <v>6.53</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.58</v>
+        <v>1.63</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7.1</v>
+        <v>6.57</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.45</v>
+        <v>1.32</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7.14</v>
+        <v>6.69</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.57</v>
+        <v>1.73</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>7.22</v>
+        <v>6.74</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.71</v>
+        <v>1.48</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>7.31</v>
+        <v>6.78</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.71</v>
+        <v>2.53</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.71</v>
+        <v>1.58</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7.35</v>
+        <v>6.78</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>7.37</v>
+        <v>6.79</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.46</v>
+        <v>0.01</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7.38</v>
+        <v>6.79</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0.65</v>
+        <v>1.76</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.65</v>
+        <v>1.04</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>7.42</v>
+        <v>6.8</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.58</v>
+        <v>1.52</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7.48</v>
+        <v>6.86</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.85</v>
+        <v>1.35</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>7.53</v>
+        <v>6.86</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.54</v>
+        <v>1.06</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7.69</v>
+        <v>6.86</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.5</v>
+        <v>1.51</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>7.7</v>
+        <v>6.89</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.43</v>
+        <v>1.46</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>7.72</v>
+        <v>6.91</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.48</v>
+        <v>1.07</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.48</v>
+        <v>0.84</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>7.75</v>
+        <v>6.93</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0.69</v>
+        <v>1.42</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>7.84</v>
+        <v>6.94</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.64</v>
+        <v>1.38</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>7.84</v>
+        <v>6.95</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.54</v>
+        <v>2.26</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.54</v>
+        <v>1.39</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>7.99</v>
+        <v>6.95</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>1.01</v>
+        <v>0.57</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.07</v>
+        <v>6.96</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.23</v>
+        <v>1.19</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.23</v>
+        <v>0.76</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>8.11</v>
+        <v>6.98</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.43</v>
+        <v>1.74</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.43</v>
+        <v>0.73</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.23</v>
+        <v>7.12</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.59</v>
+        <v>1.12</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.3</v>
+        <v>7.23</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.79</v>
+        <v>1.21</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>8.33</v>
+        <v>7.28</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>8.41</v>
+        <v>7.32</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.66</v>
+        <v>1.61</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.66</v>
+        <v>1.11</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>8.42</v>
+        <v>7.47</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0.34</v>
+        <v>1.28</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>8.5</v>
+        <v>7.61</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.98</v>
+        <v>1.63</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>8.54</v>
+        <v>7.63</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0.75</v>
+        <v>1.58</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>8.58</v>
+        <v>7.7</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0.55</v>
+        <v>2.7</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>8.63</v>
+        <v>7.75</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.4</v>
+        <v>2.07</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.4</v>
+        <v>1.41</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>8.65</v>
+        <v>8.08</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0.91</v>
+        <v>2.43</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.91</v>
+        <v>1.43</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>8.68</v>
+        <v>8.24</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.73</v>
+        <v>1.91</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.73</v>
+        <v>1.17</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>9.93</v>
+        <v>8.6</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -75,19 +75,10 @@
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
@@ -96,19 +87,40 @@
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
@@ -117,43 +129,52 @@
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
@@ -162,76 +183,55 @@
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche, Camp.</t>
@@ -745,7 +745,7 @@
         <v>0.67</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1.2</v>
+        <v>2.08</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.83</v>
+        <v>1.54</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>5.42</v>
+        <v>6.15</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>5.53</v>
+        <v>6.27</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>5.6</v>
+        <v>6.35</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.08</v>
+        <v>1.22</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>1.54</v>
+        <v>0.65</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>5.73</v>
+        <v>6.41</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>1.43</v>
+        <v>0.69</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>5.77</v>
+        <v>6.48</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.21</v>
+        <v>0.92</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>5.8</v>
+        <v>6.53</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.22</v>
+        <v>1.72</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.65</v>
+        <v>1.43</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>5.8</v>
+        <v>6.67</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.81</v>
+        <v>1.37</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>1.06</v>
+        <v>0.68</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>5.83</v>
+        <v>6.71</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5.86</v>
+        <v>6.76</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.94</v>
+        <v>6.77</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.98</v>
+        <v>6.78</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>6.01</v>
+        <v>6.79</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>6.06</v>
+        <v>6.89</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.2</v>
+        <v>1.81</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.74</v>
+        <v>1.06</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>6.07</v>
+        <v>6.9</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>6.11</v>
+        <v>6.92</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>6.35</v>
+        <v>7.02</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>6.35</v>
+        <v>7.04</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>6.38</v>
+        <v>7.18</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0.83</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>6.4</v>
+        <v>7.23</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>6.4</v>
+        <v>7.26</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>1.06</v>
+        <v>0.83</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>6.46</v>
+        <v>7.28</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>6.51</v>
+        <v>7.34</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6.52</v>
+        <v>7.38</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.93</v>
+        <v>0.77</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>6.53</v>
+        <v>7.4</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>6.57</v>
+        <v>7.41</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>6.69</v>
+        <v>7.41</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>6.74</v>
+        <v>7.45</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>6.78</v>
+        <v>7.48</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.53</v>
+        <v>1.51</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.58</v>
+        <v>0.93</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>6.78</v>
+        <v>7.57</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.21</v>
+        <v>0.76</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6.79</v>
+        <v>7.58</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.58</v>
+        <v>1.76</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.01</v>
+        <v>1.04</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>6.79</v>
+        <v>7.62</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.8</v>
+        <v>7.62</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.86</v>
+        <v>7.72</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.86</v>
+        <v>7.75</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.06</v>
+        <v>1.48</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.86</v>
+        <v>7.82</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.51</v>
+        <v>2.53</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.93</v>
+        <v>1.58</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>6.89</v>
+        <v>7.82</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>6.91</v>
+        <v>7.83</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6.93</v>
+        <v>7.87</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.77</v>
+        <v>0.57</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>6.94</v>
+        <v>7.95</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>6.95</v>
+        <v>7.96</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.26</v>
+        <v>1.42</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>1.39</v>
+        <v>0.77</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6.95</v>
+        <v>7.97</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>6.96</v>
+        <v>8.02</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6.98</v>
+        <v>8.11</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.74</v>
+        <v>0.58</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.73</v>
+        <v>0.01</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>7.12</v>
+        <v>8.18</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.12</v>
+        <v>1.61</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.68</v>
+        <v>1.11</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>7.23</v>
+        <v>8.19</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.21</v>
+        <v>2.7</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.66</v>
+        <v>1.2</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>7.28</v>
+        <v>8.27</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>7.32</v>
+        <v>8.29</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>1.11</v>
+        <v>0.66</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7.47</v>
+        <v>8.37</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7.61</v>
+        <v>8.41</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1595,7 +1595,7 @@
         <v>1.23</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7.63</v>
+        <v>8.66</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7.7</v>
+        <v>8.68</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.7</v>
+        <v>2.07</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7.75</v>
+        <v>8.76</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.07</v>
+        <v>1.58</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.41</v>
+        <v>0.66</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>8.08</v>
+        <v>8.85</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1663,7 +1663,7 @@
         <v>1.43</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>8.24</v>
+        <v>9.29</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1680,7 +1680,7 @@
         <v>1.17</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>8.6</v>
+        <v>9.89</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -66,7 +66,7 @@
     <t xml:space="preserve">dic 2021 - feb 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">ene 2021 - feb 2022</t>
+    <t xml:space="preserve">ene 2022 - feb 2022</t>
   </si>
   <si>
     <t xml:space="preserve">feb 2021 - feb 2022</t>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,19 +63,19 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - feb 2022</t>
+    <t xml:space="preserve">dic 2021 - mar 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">ene 2022 - feb 2022</t>
+    <t xml:space="preserve">feb 2022 - mar 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">feb 2021 - feb 2022</t>
+    <t xml:space="preserve">mar 2021 - mar 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
+    <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
@@ -84,55 +84,46 @@
     <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
@@ -141,73 +132,79 @@
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
@@ -216,22 +213,25 @@
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche, Camp.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.93</v>
+        <v>2.11</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>5.7</v>
+        <v>6.03</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1.54</v>
+        <v>0.77</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.15</v>
+        <v>6.34</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.2</v>
+        <v>2.28</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.83</v>
+        <v>1.07</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.27</v>
+        <v>6.55</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.21</v>
+        <v>1.95</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.35</v>
+        <v>6.58</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.22</v>
+        <v>1.99</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.41</v>
+        <v>6.61</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.24</v>
+        <v>2.65</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.69</v>
+        <v>0.91</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.48</v>
+        <v>6.73</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.92</v>
+        <v>2.22</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.53</v>
+        <v>6.76</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.72</v>
+        <v>3.13</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.67</v>
+        <v>6.82</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.37</v>
+        <v>2.8</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.71</v>
+        <v>6.86</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.1</v>
+        <v>2.08</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.76</v>
+        <v>6.93</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.32</v>
+        <v>0.56</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>6.77</v>
+        <v>6.95</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>6.78</v>
+        <v>6.97</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.6</v>
+        <v>2.73</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.73</v>
+        <v>1.34</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>6.79</v>
+        <v>7.01</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>6.89</v>
+        <v>7.03</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>1.06</v>
+        <v>0.61</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>6.9</v>
+        <v>7.04</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.26</v>
+        <v>2.14</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.79</v>
+        <v>1.04</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>6.92</v>
+        <v>7.07</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.75</v>
+        <v>2.54</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.21</v>
+        <v>1.31</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.02</v>
+        <v>7.18</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.24</v>
+        <v>2.48</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.04</v>
+        <v>7.33</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.2</v>
+        <v>2.43</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.74</v>
+        <v>0.99</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.18</v>
+        <v>7.45</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.32</v>
+        <v>2.63</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.83</v>
+        <v>1.06</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.23</v>
+        <v>7.64</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.4</v>
+        <v>2.28</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>7.26</v>
+        <v>7.69</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.43</v>
+        <v>3.76</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.83</v>
+        <v>1.66</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.28</v>
+        <v>7.77</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.56</v>
+        <v>2.41</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.34</v>
+        <v>7.77</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.35</v>
+        <v>2.21</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7.38</v>
+        <v>7.77</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7.4</v>
+        <v>7.78</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.18</v>
+        <v>2.18</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7.41</v>
+        <v>7.79</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.52</v>
+        <v>2.36</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7.41</v>
+        <v>7.79</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>7.45</v>
+        <v>7.82</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1.43</v>
+        <v>2.31</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>7.48</v>
+        <v>7.87</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.51</v>
+        <v>3.12</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.93</v>
+        <v>1.28</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7.57</v>
+        <v>7.87</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.19</v>
+        <v>2.48</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.76</v>
+        <v>1.29</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>7.58</v>
+        <v>7.9</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7.62</v>
+        <v>7.9</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.46</v>
+        <v>2.84</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>7.62</v>
+        <v>7.91</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.82</v>
+        <v>2.97</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7.72</v>
+        <v>7.98</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.73</v>
+        <v>1.07</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.78</v>
+        <v>1.1</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7.82</v>
+        <v>8.04</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.53</v>
+        <v>2.66</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>1.58</v>
+        <v>0.9</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>7.82</v>
+        <v>8.09</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.26</v>
+        <v>3.83</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>7.83</v>
+        <v>8.13</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.38</v>
+        <v>3.29</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.79</v>
+        <v>1.62</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>7.87</v>
+        <v>8.18</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.11</v>
+        <v>2.67</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.57</v>
+        <v>1.19</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>7.95</v>
+        <v>8.18</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>7.96</v>
+        <v>8.22</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.42</v>
+        <v>1.89</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>7.97</v>
+        <v>8.25</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.28</v>
+        <v>3.52</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.63</v>
+        <v>1.24</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.02</v>
+        <v>8.27</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.06</v>
+        <v>2.18</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>8.11</v>
+        <v>8.31</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.58</v>
+        <v>2.2</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.01</v>
+        <v>1.07</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.18</v>
+        <v>8.38</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.61</v>
+        <v>3.3</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1.11</v>
+        <v>0.58</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.19</v>
+        <v>8.38</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>8.27</v>
+        <v>8.44</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.07</v>
+        <v>3.33</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.84</v>
+        <v>1.55</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>8.29</v>
+        <v>8.45</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.21</v>
+        <v>2.18</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.66</v>
+        <v>1.6</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>8.37</v>
+        <v>8.49</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.12</v>
+        <v>2.63</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.68</v>
+        <v>1.51</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.63</v>
+        <v>2.83</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>8.66</v>
+        <v>8.77</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.46</v>
+        <v>2.94</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.7</v>
+        <v>1.29</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>8.68</v>
+        <v>9.02</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.07</v>
+        <v>2.89</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>8.76</v>
+        <v>9.09</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1.58</v>
+        <v>3.17</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.66</v>
+        <v>1.07</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>8.85</v>
+        <v>9.24</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>2.43</v>
+        <v>3.8</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>9.29</v>
+        <v>9.69</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1.91</v>
+        <v>3.17</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>9.89</v>
+        <v>9.94</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,22 +63,28 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - mar 2022</t>
+    <t xml:space="preserve">dic 2021 - abr 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">feb 2022 - mar 2022</t>
+    <t xml:space="preserve">mar 2022 - abr 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">mar 2021 - mar 2022</t>
+    <t xml:space="preserve">abr 2021 - abr 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
@@ -87,31 +93,28 @@
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
@@ -120,58 +123,43 @@
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
@@ -183,46 +171,49 @@
     <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
@@ -234,10 +225,19 @@
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
 </sst>
 </file>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.11</v>
+        <v>2.61</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1.17</v>
+        <v>0.58</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>6.03</v>
+        <v>6.41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.02</v>
+        <v>3.13</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.34</v>
+        <v>6.48</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.28</v>
+        <v>2.85</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1.07</v>
+        <v>0.55</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.55</v>
+        <v>6.58</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.74</v>
+        <v>-0.92</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.99</v>
+        <v>1.31</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.71</v>
+        <v>-1.45</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.61</v>
+        <v>6.67</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.91</v>
+        <v>0.63</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.73</v>
+        <v>6.74</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.22</v>
+        <v>2.43</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.76</v>
+        <v>6.8</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.13</v>
+        <v>1.65</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1.03</v>
+        <v>-0.04</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.82</v>
+        <v>6.8</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.8</v>
+        <v>1.21</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.97</v>
+        <v>-0.83</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.86</v>
+        <v>6.82</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.08</v>
+        <v>2.63</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.93</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.36</v>
+        <v>2.33</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.56</v>
+        <v>-0.31</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>6.95</v>
+        <v>7.12</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>6.97</v>
+        <v>7.17</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1.34</v>
+        <v>0.66</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.01</v>
+        <v>7.18</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.03</v>
+        <v>7.19</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.05</v>
+        <v>3.71</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.61</v>
+        <v>0.96</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.04</v>
+        <v>7.25</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.14</v>
+        <v>1.3</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>1.04</v>
+        <v>-0.73</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.07</v>
+        <v>7.37</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.54</v>
+        <v>3.03</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1.31</v>
+        <v>0.86</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.18</v>
+        <v>7.56</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.48</v>
+        <v>2.98</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.88</v>
+        <v>0.54</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.33</v>
+        <v>7.68</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.43</v>
+        <v>3.83</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.45</v>
+        <v>7.71</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.63</v>
+        <v>3.48</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.64</v>
+        <v>7.73</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>2.28</v>
+        <v>3.22</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>7.69</v>
+        <v>7.76</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.76</v>
+        <v>2.22</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>1.66</v>
+        <v>-0.26</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.41</v>
+        <v>3.36</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.92</v>
+        <v>0.71</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.21</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7.77</v>
+        <v>8.07</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.69</v>
+        <v>3.62</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7.78</v>
+        <v>8.08</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.18</v>
+        <v>3.81</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7.79</v>
+        <v>8.1</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.36</v>
+        <v>4.91</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7.79</v>
+        <v>8.17</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.99</v>
+        <v>3.35</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>7.82</v>
+        <v>8.2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.31</v>
+        <v>3.24</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>7.87</v>
+        <v>8.21</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.12</v>
+        <v>1.61</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.28</v>
+        <v>-0.58</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7.87</v>
+        <v>8.21</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.48</v>
+        <v>3.21</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>1.29</v>
+        <v>0.59</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>7.9</v>
+        <v>8.23</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>1.46</v>
+        <v>0.72</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7.9</v>
+        <v>8.27</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>2.84</v>
+        <v>3.49</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>1.1</v>
+        <v>0.81</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>7.91</v>
+        <v>8.34</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.97</v>
+        <v>3.95</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1.32</v>
+        <v>0.63</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7.98</v>
+        <v>8.37</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>1.07</v>
+        <v>-0.41</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8</v>
+        <v>8.38</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2.18</v>
+        <v>3.54</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8.04</v>
+        <v>8.39</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>8.09</v>
+        <v>8.42</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>3.83</v>
+        <v>1.71</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>1.26</v>
+        <v>-0.6</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8.13</v>
+        <v>8.47</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.29</v>
+        <v>3.55</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.62</v>
+        <v>0.71</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.18</v>
+        <v>8.5</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.67</v>
+        <v>2.98</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>1.19</v>
+        <v>0.13</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.18</v>
+        <v>8.51</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.32</v>
+        <v>0.42</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.7</v>
+        <v>-1.72</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>8.22</v>
+        <v>8.52</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.89</v>
+        <v>4.41</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.59</v>
+        <v>0.86</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8.25</v>
+        <v>8.61</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.27</v>
+        <v>8.66</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>2.18</v>
+        <v>3.31</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>8.31</v>
+        <v>8.67</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>2.2</v>
+        <v>2.87</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.38</v>
+        <v>8.73</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.58</v>
+        <v>0.41</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.38</v>
+        <v>8.87</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>2.5</v>
+        <v>3.83</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>8.44</v>
+        <v>8.89</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>3.33</v>
+        <v>4.73</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>1.55</v>
+        <v>0.86</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>8.45</v>
+        <v>8.95</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.18</v>
+        <v>3.52</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>1.6</v>
+        <v>0.56</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>8.49</v>
+        <v>9.1</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.63</v>
+        <v>3.94</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>8.57</v>
+        <v>9.22</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>2.83</v>
+        <v>3.96</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.35</v>
+        <v>0.77</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>8.77</v>
+        <v>9.23</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>1.29</v>
+        <v>0.42</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>9.02</v>
+        <v>9.26</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.89</v>
+        <v>4.65</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>9.09</v>
+        <v>9.36</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>9.24</v>
+        <v>9.39</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3.8</v>
+        <v>4.35</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>9.69</v>
+        <v>9.62</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1.23</v>
+        <v>-0.56</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>9.94</v>
+        <v>9.86</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,67 +63,73 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - abr 2022</t>
+    <t xml:space="preserve">dic 2021 - may 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">mar 2022 - abr 2022</t>
+    <t xml:space="preserve">abr 2022 - may 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">abr 2021 - abr 2022</t>
+    <t xml:space="preserve">may 2021 - may 2022</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
@@ -132,55 +138,49 @@
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N. L.</t>
@@ -189,16 +189,16 @@
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
@@ -207,22 +207,16 @@
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
@@ -231,13 +225,19 @@
     <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
 </sst>
 </file>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.61</v>
+        <v>2.96</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>6.41</v>
+        <v>6.03</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>3.13</v>
+        <v>2.94</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.48</v>
+        <v>6.41</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.85</v>
+        <v>3.9</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.58</v>
+        <v>6.62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.17</v>
+        <v>0.36</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.92</v>
+        <v>-2.17</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.31</v>
+        <v>2.79</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-1.45</v>
+        <v>0.45</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.67</v>
+        <v>6.8</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.59</v>
+        <v>2.24</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.74</v>
+        <v>6.8</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,10 +841,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.43</v>
+        <v>1.64</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>6.8</v>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.65</v>
+        <v>3.49</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.83</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.8</v>
+        <v>6.96</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.21</v>
+        <v>2.76</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.83</v>
+        <v>0.57</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.82</v>
+        <v>6.97</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.63</v>
+        <v>-1</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.54</v>
+        <v>-3.35</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.33</v>
+        <v>-0.43</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-0.31</v>
+        <v>-2.61</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.12</v>
+        <v>7.01</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.1</v>
+        <v>3.29</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.17</v>
+        <v>7.25</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.63</v>
+        <v>4.32</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.18</v>
+        <v>7.28</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.23</v>
+        <v>3.76</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.86</v>
+        <v>0.39</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.19</v>
+        <v>7.31</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>3.71</v>
+        <v>2.53</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.96</v>
+        <v>0.3</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.25</v>
+        <v>7.36</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-0.73</v>
+        <v>0.49</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.37</v>
+        <v>7.48</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.03</v>
+        <v>-0.59</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.86</v>
+        <v>-3.58</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.56</v>
+        <v>7.59</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.98</v>
+        <v>3.17</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.68</v>
+        <v>7.65</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.83</v>
+        <v>3.5</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.71</v>
+        <v>7.65</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.22</v>
+        <v>4.49</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.92</v>
+        <v>0.64</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>7.76</v>
+        <v>7.68</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>-0.26</v>
+        <v>0.51</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.36</v>
+        <v>5.05</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.71</v>
+        <v>0.13</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.78</v>
+        <v>7.74</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>1</v>
+        <v>-0.49</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8.07</v>
+        <v>7.81</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1.11</v>
+        <v>0.42</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8.08</v>
+        <v>7.96</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.81</v>
+        <v>4.61</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>8.1</v>
+        <v>8.05</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>4.91</v>
+        <v>2.28</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8.17</v>
+        <v>8.11</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.96</v>
+        <v>0.44</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8.2</v>
+        <v>8.11</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.24</v>
+        <v>2.28</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.81</v>
+        <v>0.66</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8.21</v>
+        <v>8.11</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.61</v>
+        <v>0.23</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>-0.58</v>
+        <v>-2.91</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8.21</v>
+        <v>8.17</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3.21</v>
+        <v>-0.71</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.59</v>
+        <v>-4.06</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8.23</v>
+        <v>8.26</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>2.92</v>
+        <v>4.9</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8.27</v>
+        <v>8.3</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.49</v>
+        <v>4.2</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.81</v>
+        <v>0.63</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8.34</v>
+        <v>8.36</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.95</v>
+        <v>2.15</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.63</v>
+        <v>-0.83</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8.37</v>
+        <v>8.39</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.87</v>
+        <v>4.55</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>-0.41</v>
+        <v>0.71</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8.38</v>
+        <v>8.45</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.54</v>
+        <v>0.82</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>1.02</v>
+        <v>0.39</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8.39</v>
+        <v>8.47</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.96</v>
+        <v>3.73</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>8.42</v>
+        <v>8.49</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.71</v>
+        <v>2.36</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>-0.6</v>
+        <v>0.64</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8.47</v>
+        <v>8.57</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.55</v>
+        <v>4.23</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.5</v>
+        <v>8.64</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.98</v>
+        <v>4.66</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.51</v>
+        <v>8.7</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.42</v>
+        <v>3.77</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>-1.72</v>
+        <v>0.87</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>8.52</v>
+        <v>8.74</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>4.41</v>
+        <v>2.27</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.86</v>
+        <v>-1.5</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8.61</v>
+        <v>8.78</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>1.03</v>
+        <v>0.62</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.66</v>
+        <v>8.98</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.31</v>
+        <v>4.29</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>1.08</v>
+        <v>0.94</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>8.67</v>
+        <v>9.06</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>2.87</v>
+        <v>3.93</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.73</v>
+        <v>9.11</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.4</v>
+        <v>4.64</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.87</v>
+        <v>9.11</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.83</v>
+        <v>4.29</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>1.48</v>
+        <v>0.75</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>8.89</v>
+        <v>9.12</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>4.73</v>
+        <v>4.36</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>8.95</v>
+        <v>9.22</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>3.52</v>
+        <v>5.48</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.56</v>
+        <v>0.72</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>9.1</v>
+        <v>9.44</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>3.94</v>
+        <v>4.42</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>9.22</v>
+        <v>9.49</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>3.96</v>
+        <v>5.24</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.77</v>
+        <v>0.56</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>9.23</v>
+        <v>9.51</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.42</v>
+        <v>0.56</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>9.26</v>
+        <v>9.62</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>4.65</v>
+        <v>3.86</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.27</v>
+        <v>-0.1</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>9.36</v>
+        <v>9.68</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>3.27</v>
+        <v>4.51</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>9.39</v>
+        <v>9.72</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.64</v>
+        <v>0.56</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>9.62</v>
+        <v>9.75</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>3.22</v>
+        <v>4.9</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>-0.56</v>
+        <v>0.92</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>9.86</v>
+        <v>9.93</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,25 +63,40 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - may 2022</t>
+    <t xml:space="preserve">dic 2021 - jun 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">abr 2022 - may 2022</t>
+    <t xml:space="preserve">may 2022 - jun 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">may 2021 - may 2022</t>
+    <t xml:space="preserve">jun 2021 - jun 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
@@ -90,19 +105,7 @@
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
@@ -111,49 +114,22 @@
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
@@ -162,52 +138,70 @@
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
@@ -216,28 +210,34 @@
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
 </sst>
 </file>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.96</v>
+        <v>4.45</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>6.03</v>
+        <v>6.41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.94</v>
+        <v>3.68</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.08</v>
+        <v>0.72</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.41</v>
+        <v>6.69</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>3.9</v>
+        <v>4.03</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.75</v>
+        <v>1.04</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.62</v>
+        <v>6.7</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>-2.17</v>
-      </c>
       <c r="D17" s="3" t="n">
-        <v>6.7</v>
+        <v>6.76</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.79</v>
+        <v>0.84</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.24</v>
+        <v>3.6</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.64</v>
+        <v>0.19</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.8</v>
+        <v>7.03</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.49</v>
+        <v>-0.42</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.96</v>
+        <v>7.23</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.76</v>
+        <v>2.28</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.97</v>
+        <v>7.45</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-1</v>
+        <v>3.86</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-3.35</v>
+        <v>1.04</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.97</v>
+        <v>7.47</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-0.43</v>
+        <v>3.15</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-2.61</v>
+        <v>0.89</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.01</v>
+        <v>7.51</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.29</v>
+        <v>4.17</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.25</v>
+        <v>7.52</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>4.32</v>
+        <v>3.78</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.28</v>
+        <v>7.53</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.76</v>
+        <v>5.09</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.31</v>
+        <v>7.53</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.53</v>
+        <v>4.1</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.36</v>
+        <v>7.6</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.8</v>
+        <v>0.01</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.48</v>
+        <v>7.64</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-0.59</v>
+        <v>4.69</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-3.58</v>
+        <v>0.9</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.59</v>
+        <v>7.65</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,10 +1028,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>3.17</v>
+        <v>4.98</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>7.65</v>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.5</v>
+        <v>4.45</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.46</v>
+        <v>0.93</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.44</v>
+        <v>4.04</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.09</v>
+        <v>0.84</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.66</v>
+        <v>7.99</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>4.49</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>7.68</v>
+        <v>8</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>4</v>
+        <v>0.85</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.71</v>
+        <v>8.01</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>5.05</v>
+        <v>4.27</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.13</v>
+        <v>0.6</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.74</v>
+        <v>8.15</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.71</v>
+        <v>3.47</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-0.49</v>
+        <v>0.74</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7.81</v>
+        <v>8.2</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7.96</v>
+        <v>8.2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>4.61</v>
+        <v>4.41</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.64</v>
+        <v>0.97</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>8.05</v>
+        <v>8.2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.28</v>
+        <v>5.33</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>1.06</v>
+        <v>0.69</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8.11</v>
+        <v>8.25</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.41</v>
+        <v>0.11</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.44</v>
+        <v>0.82</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8.11</v>
+        <v>8.29</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.28</v>
+        <v>5.75</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8.11</v>
+        <v>8.33</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.23</v>
+        <v>4.25</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>-2.91</v>
+        <v>0.47</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8.17</v>
+        <v>8.39</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-0.71</v>
+        <v>4.76</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>-4.06</v>
+        <v>0.54</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8.26</v>
+        <v>8.4</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4.9</v>
+        <v>1.66</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.47</v>
+        <v>0.83</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8.3</v>
+        <v>8.45</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>4.2</v>
+        <v>5.02</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.63</v>
+        <v>0.98</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8.36</v>
+        <v>8.47</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.15</v>
+        <v>4.49</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>-0.83</v>
+        <v>0.73</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8.39</v>
+        <v>8.48</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.55</v>
+        <v>2.87</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8.45</v>
+        <v>8.55</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.82</v>
+        <v>3.19</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8.47</v>
+        <v>8.65</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>3.73</v>
+        <v>6.06</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>8.49</v>
+        <v>8.69</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.36</v>
+        <v>3.24</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8.57</v>
+        <v>8.81</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>4.23</v>
+        <v>5.41</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.64</v>
+        <v>8.9</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>4.66</v>
+        <v>5.55</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.7</v>
+        <v>8.97</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>3.77</v>
+        <v>4.74</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>8.74</v>
+        <v>9.05</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.27</v>
+        <v>5.06</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>-1.5</v>
+        <v>0.74</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8.78</v>
+        <v>9.2</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>3.61</v>
+        <v>5.16</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.98</v>
+        <v>9.23</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>4.29</v>
+        <v>3.09</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>9.06</v>
+        <v>9.29</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.93</v>
+        <v>5.34</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>9.11</v>
+        <v>9.48</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>4.64</v>
+        <v>5.31</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.27</v>
+        <v>0.91</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>9.11</v>
+        <v>9.53</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>9.12</v>
+        <v>9.55</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>4.36</v>
+        <v>6.1</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>9.22</v>
+        <v>9.55</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>5.48</v>
+        <v>4.63</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.72</v>
+        <v>0.98</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>9.44</v>
+        <v>9.6</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>4.42</v>
+        <v>6.29</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>9.49</v>
+        <v>9.81</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>5.24</v>
+        <v>5.79</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.56</v>
+        <v>0.85</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>9.51</v>
+        <v>9.9</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>3.8</v>
+        <v>4.78</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.56</v>
+        <v>0.89</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>9.62</v>
+        <v>10.02</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>3.86</v>
+        <v>6.08</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>-0.1</v>
+        <v>1.38</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>9.68</v>
+        <v>10.08</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>4.51</v>
+        <v>5.71</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>9.72</v>
+        <v>10.22</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3.85</v>
+        <v>4.93</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.56</v>
+        <v>1.03</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>9.75</v>
+        <v>10.24</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>4.9</v>
+        <v>5.93</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.92</v>
+        <v>1.36</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>9.93</v>
+        <v>10.97</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - jun 2022</t>
+    <t xml:space="preserve">dic 2021 - jul 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">may 2022 - jun 2022</t>
+    <t xml:space="preserve">jun 2022 - jul 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">jun 2021 - jun 2022</t>
+    <t xml:space="preserve">jul 2021 - jul 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
@@ -78,85 +78,88 @@
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
@@ -165,55 +168,55 @@
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Torreón, Coah.</t>
@@ -222,16 +225,13 @@
     <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>4.45</v>
+        <v>5.21</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>6.41</v>
+        <v>6.59</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>3.68</v>
+        <v>4.42</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.69</v>
+        <v>6.97</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>4.03</v>
+        <v>2.93</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1.04</v>
+        <v>0.74</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.7</v>
+        <v>6.99</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.17</v>
+        <v>4.67</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.76</v>
+        <v>7.02</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.84</v>
+        <v>5.6</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.48</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.79</v>
+        <v>7.11</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.81</v>
+        <v>7.15</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.19</v>
+        <v>4.75</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0.62</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>7.03</v>
+        <v>7.35</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.42</v>
+        <v>1.78</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.59</v>
+        <v>0.93</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>7.23</v>
+        <v>7.35</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.28</v>
+        <v>2.92</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>7.45</v>
+        <v>7.39</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>3.86</v>
+        <v>4.48</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>7.47</v>
+        <v>7.55</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>3.15</v>
+        <v>4.92</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.89</v>
+        <v>0.46</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.51</v>
+        <v>7.59</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>4.17</v>
+        <v>0.63</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.52</v>
+        <v>7.65</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.78</v>
+        <v>1.48</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.47</v>
+        <v>1.29</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.53</v>
+        <v>7.71</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.09</v>
+        <v>4.95</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.53</v>
+        <v>7.82</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4.1</v>
+        <v>5.24</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.6</v>
+        <v>7.86</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0.01</v>
+        <v>4.84</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.6</v>
+        <v>0.94</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.64</v>
+        <v>7.87</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>4.69</v>
+        <v>6.03</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.65</v>
+        <v>7.94</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>4.98</v>
+        <v>1.03</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.47</v>
+        <v>1.02</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.65</v>
+        <v>8.02</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>4.45</v>
+        <v>4.82</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.69</v>
+        <v>8.05</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>4.04</v>
+        <v>4.24</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.99</v>
+        <v>8.11</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3</v>
+        <v>4.81</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>8</v>
+        <v>8.15</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.85</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>8.01</v>
+        <v>8.15</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>4.27</v>
+        <v>1.99</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.6</v>
+        <v>1.13</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8.15</v>
+        <v>8.2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.47</v>
+        <v>5.33</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8.2</v>
+        <v>8.26</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.55</v>
+        <v>5.75</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8.2</v>
+        <v>8.28</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>4.41</v>
+        <v>5.88</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.97</v>
+        <v>0.45</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>8.2</v>
+        <v>8.35</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>5.33</v>
+        <v>6.37</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.69</v>
+        <v>0.58</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.11</v>
+        <v>3.59</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.82</v>
+        <v>0.58</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8.29</v>
+        <v>8.36</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>5.75</v>
+        <v>4.19</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8.33</v>
+        <v>8.46</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>4.25</v>
+        <v>2.56</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.47</v>
+        <v>0.89</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8.39</v>
+        <v>8.51</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.76</v>
+        <v>4.93</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8.4</v>
+        <v>8.55</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.66</v>
+        <v>5.48</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8.45</v>
+        <v>8.57</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>5.02</v>
+        <v>1.02</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8.47</v>
+        <v>8.59</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>4.49</v>
+        <v>6.81</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8.48</v>
+        <v>8.78</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.87</v>
+        <v>6.4</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.59</v>
+        <v>0.81</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8.55</v>
+        <v>8.81</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.19</v>
+        <v>5.56</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8.65</v>
+        <v>8.82</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>6.06</v>
+        <v>4.02</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>8.69</v>
+        <v>8.97</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>3.24</v>
+        <v>4.17</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8.81</v>
+        <v>9.03</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>5.41</v>
+        <v>3.95</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.72</v>
+        <v>1.05</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.9</v>
+        <v>9.05</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>5.55</v>
+        <v>5.83</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.97</v>
+        <v>9.06</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.74</v>
+        <v>5.87</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>9.05</v>
+        <v>9.07</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>5.06</v>
+        <v>5.92</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.74</v>
+        <v>1.13</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>9.2</v>
+        <v>9.33</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>5.16</v>
+        <v>6.69</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.9</v>
+        <v>1.29</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>9.23</v>
+        <v>9.33</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.09</v>
+        <v>6.54</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.92</v>
+        <v>0.41</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>9.29</v>
+        <v>9.33</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>5.34</v>
+        <v>5.78</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.01</v>
+        <v>0.45</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>9.48</v>
+        <v>9.36</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>5.31</v>
+        <v>3.84</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>9.53</v>
+        <v>9.55</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>4.5</v>
+        <v>6.63</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>9.55</v>
+        <v>9.56</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>9.55</v>
+        <v>9.61</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.63</v>
+        <v>5.14</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>9.6</v>
+        <v>9.68</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6.29</v>
+        <v>5.99</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>9.81</v>
+        <v>10.03</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>5.79</v>
+        <v>7.43</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.85</v>
+        <v>1.07</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>9.9</v>
+        <v>10.14</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.78</v>
+        <v>6.47</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>10.02</v>
+        <v>10.21</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>6.08</v>
+        <v>7.1</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.38</v>
+        <v>0.96</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>10.08</v>
+        <v>10.24</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.23</v>
+        <v>0.88</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>10.22</v>
+        <v>10.26</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>4.93</v>
+        <v>5.79</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.03</v>
+        <v>0.81</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>10.24</v>
+        <v>10.27</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>5.93</v>
+        <v>6.65</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1.36</v>
+        <v>0.68</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>10.97</v>
+        <v>11.25</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,37 +63,31 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - jul 2022</t>
+    <t xml:space="preserve">dic 2021 - ago 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">jun 2022 - jul 2022</t>
+    <t xml:space="preserve">jul 2022 - ago 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">jul 2021 - jul 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">ago 2021 - ago 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
@@ -102,76 +96,79 @@
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
-    <t xml:space="preserve">León, Gto.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
@@ -180,61 +177,64 @@
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.21</v>
+        <v>5.26</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>6.59</v>
+        <v>7.2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.42</v>
+        <v>4.7</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.97</v>
+        <v>7.39</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.93</v>
+        <v>3.85</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.99</v>
+        <v>7.59</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>4.67</v>
+        <v>5.34</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>7.02</v>
+        <v>7.63</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>5.6</v>
+        <v>5.16</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>7.11</v>
+        <v>7.64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3.92</v>
+        <v>6.04</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>7.15</v>
+        <v>7.66</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>4.75</v>
+        <v>3.71</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>7.35</v>
+        <v>7.93</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.78</v>
+        <v>4.96</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.93</v>
+        <v>0.46</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>7.35</v>
+        <v>8.07</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.92</v>
+        <v>5.91</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>7.39</v>
+        <v>8.07</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>4.48</v>
+        <v>5.31</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.85</v>
+        <v>0.47</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>7.55</v>
+        <v>8.17</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>4.92</v>
+        <v>2.74</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.46</v>
+        <v>0.94</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.59</v>
+        <v>8.18</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.63</v>
+        <v>5.82</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.65</v>
+        <v>8.25</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.48</v>
+        <v>5.34</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1.29</v>
+        <v>0.48</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.71</v>
+        <v>8.26</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>4.95</v>
+        <v>6.41</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.82</v>
+        <v>8.28</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>5.24</v>
+        <v>1.65</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.52</v>
+        <v>1.02</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.86</v>
+        <v>8.37</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>4.84</v>
+        <v>5.74</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.94</v>
+        <v>0.76</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.87</v>
+        <v>8.41</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>6.03</v>
+        <v>2.58</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.94</v>
+        <v>8.53</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.03</v>
+        <v>4.18</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>1.02</v>
+        <v>0.57</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>8.02</v>
+        <v>8.66</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>4.82</v>
+        <v>5.54</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>8.05</v>
+        <v>8.7</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>4.24</v>
+        <v>6.53</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>8.11</v>
+        <v>8.77</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>4.81</v>
+        <v>1.97</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>8.15</v>
+        <v>8.78</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5</v>
+        <v>5.92</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>8.15</v>
+        <v>8.86</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.99</v>
+        <v>5.1</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>1.13</v>
+        <v>0.87</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8.2</v>
+        <v>8.88</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>5.33</v>
+        <v>7.11</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8.26</v>
+        <v>8.91</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>5.75</v>
+        <v>6.86</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.69</v>
+        <v>1.05</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8.28</v>
+        <v>8.91</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>5.88</v>
+        <v>3.14</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.45</v>
+        <v>0.56</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>8.35</v>
+        <v>9</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>6.37</v>
+        <v>5.97</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8.35</v>
+        <v>9.04</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.59</v>
+        <v>5.09</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8.36</v>
+        <v>9.09</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>4.19</v>
+        <v>4.88</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8.46</v>
+        <v>9.18</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.56</v>
+        <v>6.64</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8.51</v>
+        <v>9.21</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.93</v>
+        <v>3.19</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.65</v>
+        <v>1.18</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8.55</v>
+        <v>9.23</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>5.48</v>
+        <v>4.94</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.69</v>
+        <v>0.89</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8.57</v>
+        <v>9.24</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.02</v>
+        <v>7.25</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8.59</v>
+        <v>9.26</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>6.81</v>
+        <v>7.26</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8.78</v>
+        <v>9.29</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>6.4</v>
+        <v>6.33</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.81</v>
+        <v>0.72</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8.81</v>
+        <v>9.37</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>5.56</v>
+        <v>6.24</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>1.02</v>
+        <v>0.86</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8.82</v>
+        <v>9.39</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.02</v>
+        <v>5.92</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.76</v>
+        <v>0.94</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>8.97</v>
+        <v>9.42</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.17</v>
+        <v>7.33</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>9.03</v>
+        <v>9.48</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.95</v>
+        <v>2.04</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>9.05</v>
+        <v>9.55</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>5.83</v>
+        <v>6.55</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>9.06</v>
+        <v>9.59</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>5.87</v>
+        <v>6.65</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>9.07</v>
+        <v>9.6</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>5.92</v>
+        <v>4.91</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>1.13</v>
+        <v>0.92</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>9.33</v>
+        <v>9.64</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>6.69</v>
+        <v>6.71</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>1.29</v>
+        <v>0.74</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>9.33</v>
+        <v>9.69</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>6.54</v>
+        <v>7.32</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>9.33</v>
+        <v>9.76</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>5.78</v>
+        <v>6.86</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.45</v>
+        <v>-0.23</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>9.36</v>
+        <v>9.88</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.84</v>
+        <v>7.75</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>9.55</v>
+        <v>10.01</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>6.63</v>
+        <v>7.78</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>9.56</v>
+        <v>10.02</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>6.09</v>
+        <v>7.64</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>9.61</v>
+        <v>10.09</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>5.14</v>
+        <v>4.82</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>9.68</v>
+        <v>10.18</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>5.99</v>
+        <v>7.31</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.3</v>
+        <v>0.78</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>10.03</v>
+        <v>10.21</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>7.43</v>
+        <v>6.95</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>10.14</v>
+        <v>10.22</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.47</v>
+        <v>6.41</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>10.21</v>
+        <v>10.25</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>7.1</v>
+        <v>6.75</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>10.24</v>
+        <v>10.35</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>5.7</v>
+        <v>5.87</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>10.26</v>
+        <v>10.37</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>5.79</v>
+        <v>6.71</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.81</v>
+        <v>0.59</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>10.27</v>
+        <v>10.43</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>6.65</v>
+        <v>7.64</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>11.25</v>
+        <v>11.51</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,31 +63,40 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - ago 2022</t>
+    <t xml:space="preserve">dic 2021 - sep 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">jul 2022 - ago 2022</t>
+    <t xml:space="preserve">ago 2022 - sep 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">ago 2021 - ago 2022</t>
+    <t xml:space="preserve">sep 2021 - sep 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
@@ -96,16 +105,10 @@
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
@@ -114,100 +117,115 @@
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich</t>
@@ -216,25 +234,7 @@
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.26</v>
+        <v>5.79</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.8</v>
+        <v>0.51</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>7.2</v>
+        <v>7.16</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.7</v>
+        <v>6.55</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.75</v>
+        <v>0.48</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>3.85</v>
+        <v>5.29</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.9</v>
+        <v>0.57</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>7.59</v>
+        <v>7.53</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.34</v>
+        <v>5.8</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>7.63</v>
+        <v>7.7</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>5.16</v>
+        <v>4.68</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.46</v>
+        <v>0.79</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>7.64</v>
+        <v>7.74</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.04</v>
+        <v>6.42</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>7.66</v>
+        <v>7.92</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3.71</v>
+        <v>5.8</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>7.93</v>
+        <v>7.92</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4.96</v>
+        <v>6.17</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.46</v>
+        <v>0.79</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>8.07</v>
+        <v>7.96</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>5.91</v>
+        <v>2.11</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>8.07</v>
+        <v>7.96</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>5.31</v>
+        <v>4.22</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>8.17</v>
+        <v>8.06</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.74</v>
+        <v>5.43</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.94</v>
+        <v>0.45</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>8.18</v>
+        <v>8.15</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>5.82</v>
+        <v>3.44</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.85</v>
+        <v>0.69</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>8.25</v>
+        <v>8.22</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>5.34</v>
+        <v>2.29</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>8.26</v>
+        <v>8.34</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>6.41</v>
+        <v>5.86</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>8.28</v>
+        <v>8.48</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.65</v>
+        <v>6.9</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>1.02</v>
+        <v>0.46</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>8.37</v>
+        <v>8.55</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>5.74</v>
+        <v>6.42</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>8.41</v>
+        <v>8.6</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.58</v>
+        <v>5.78</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1.08</v>
+        <v>0.65</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>8.53</v>
+        <v>8.68</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>4.18</v>
+        <v>6.19</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>8.66</v>
+        <v>8.7</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>5.54</v>
+        <v>3.64</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.7</v>
+        <v>1.03</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>8.7</v>
+        <v>8.77</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.53</v>
+        <v>6.42</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>8.77</v>
+        <v>8.78</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.97</v>
+        <v>5.2</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.93</v>
+        <v>0.3</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>8.78</v>
+        <v>8.83</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5.92</v>
+        <v>5.63</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.87</v>
+        <v>0.51</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>8.86</v>
+        <v>8.87</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>5.1</v>
+        <v>7.59</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8.88</v>
+        <v>8.87</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>7.11</v>
+        <v>6.74</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8.91</v>
+        <v>8.89</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>6.86</v>
+        <v>5.27</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8.91</v>
+        <v>8.89</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,10 +1164,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.14</v>
+        <v>7.11</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.56</v>
+        <v>0.37</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>9</v>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>5.97</v>
+        <v>3.79</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>9.04</v>
+        <v>9.01</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>5.09</v>
+        <v>7.68</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>9.09</v>
+        <v>9.03</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>4.88</v>
+        <v>7.81</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>9.18</v>
+        <v>9.03</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>6.64</v>
+        <v>7.05</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>9.21</v>
+        <v>9.05</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3.19</v>
+        <v>5.54</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>1.18</v>
+        <v>0.57</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>9.23</v>
+        <v>9.15</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4.94</v>
+        <v>7.59</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>9.24</v>
+        <v>9.16</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>7.25</v>
+        <v>3.85</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>9.26</v>
+        <v>9.24</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>7.26</v>
+        <v>7.02</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>9.29</v>
+        <v>9.25</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>6.33</v>
+        <v>7.06</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>9.37</v>
+        <v>9.27</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>6.24</v>
+        <v>7.89</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>9.39</v>
+        <v>9.3</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>5.92</v>
+        <v>6.83</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.94</v>
+        <v>0.39</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>9.42</v>
+        <v>9.32</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>7.33</v>
+        <v>5.08</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.74</v>
+        <v>0.25</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>9.48</v>
+        <v>9.37</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.04</v>
+        <v>6.54</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.01</v>
+        <v>0.59</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>9.55</v>
+        <v>9.43</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>6.55</v>
+        <v>2.77</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>0.72</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>9.59</v>
+        <v>9.51</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>6.65</v>
+        <v>7.21</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>9.6</v>
+        <v>9.53</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>4.91</v>
+        <v>5.64</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>9.64</v>
+        <v>9.7</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>6.71</v>
+        <v>8.08</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>9.69</v>
+        <v>9.7</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>7.32</v>
+        <v>8.06</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.65</v>
+        <v>0.29</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>9.76</v>
+        <v>9.75</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.86</v>
+        <v>7.6</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>-0.23</v>
+        <v>0.9</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>9.88</v>
+        <v>9.86</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.75</v>
+        <v>7.44</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.87</v>
+        <v>0.69</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>10.01</v>
+        <v>9.97</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>7.78</v>
+        <v>8.23</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>10.02</v>
+        <v>9.99</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>7.64</v>
+        <v>8.1</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>10.09</v>
+        <v>10</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.82</v>
+        <v>7.54</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>10.18</v>
+        <v>10.16</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>7.31</v>
+        <v>7.87</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.78</v>
+        <v>1.15</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>10.21</v>
+        <v>10.17</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>6.95</v>
+        <v>7.26</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.18</v>
+        <v>0.48</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>10.22</v>
+        <v>10.2</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.41</v>
+        <v>6.66</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>10.25</v>
+        <v>10.36</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>6.75</v>
+        <v>8.6</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>10.35</v>
+        <v>10.38</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>5.87</v>
+        <v>8.46</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>10.37</v>
+        <v>10.55</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>6.71</v>
+        <v>8.03</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.59</v>
+        <v>1.01</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>10.43</v>
+        <v>10.72</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>7.64</v>
+        <v>7.95</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.93</v>
+        <v>0.28</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>11.51</v>
+        <v>10.78</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de noviembre 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -66,70 +66,43 @@
     <t xml:space="preserve">dic 2021 - sep 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">ago 2022 - sep 2022</t>
+    <t xml:space="preserve">sep 2022 - oct 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">sep 2021 - sep 2022</t>
+    <t xml:space="preserve">oct 2021 - oct 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
@@ -138,16 +111,13 @@
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
@@ -156,79 +126,109 @@
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
 </sst>
 </file>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.79</v>
+        <v>5.16</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.51</v>
+        <v>-0.13</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>7.16</v>
+        <v>6.35</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.48</v>
+        <v>-0.09</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>7.4</v>
+        <v>6.84</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>5.29</v>
+        <v>6.05</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>7.53</v>
+        <v>6.85</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.8</v>
+        <v>6.22</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.61</v>
+        <v>1.47</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>7.7</v>
+        <v>7.14</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4.68</v>
+        <v>2.37</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>7.74</v>
+        <v>7.3</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.42</v>
+        <v>6.26</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>7.92</v>
+        <v>7.3</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.47</v>
+        <v>1.99</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>7.92</v>
+        <v>7.58</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>6.17</v>
+        <v>6.09</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.79</v>
+        <v>0.27</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>7.96</v>
+        <v>7.6</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.11</v>
+        <v>2.45</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>7.96</v>
+        <v>7.64</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>4.22</v>
+        <v>3.66</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.49</v>
+        <v>0.21</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>8.06</v>
+        <v>7.75</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>5.43</v>
+        <v>7.06</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.44</v>
+        <v>6.8</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.69</v>
+        <v>1.53</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>8.22</v>
+        <v>7.99</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.29</v>
+        <v>5.82</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>8.34</v>
+        <v>8.01</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.86</v>
+        <v>7.73</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.49</v>
+        <v>-0.07</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>8.48</v>
+        <v>8.03</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>6.9</v>
+        <v>3.89</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>8.55</v>
+        <v>8.07</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>6.42</v>
+        <v>6.86</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>8.6</v>
+        <v>8.08</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>5.78</v>
+        <v>7.16</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.65</v>
+        <v>3.24</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>8.68</v>
+        <v>8.22</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>6.19</v>
+        <v>7.65</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.62</v>
+        <v>-0.04</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>8.7</v>
+        <v>8.24</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.64</v>
+        <v>7.28</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>1.03</v>
+        <v>0.22</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>8.77</v>
+        <v>8.33</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.42</v>
+        <v>7.53</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.43</v>
+        <v>1.99</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>8.78</v>
+        <v>8.34</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>5.2</v>
+        <v>6.96</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>8.83</v>
+        <v>8.35</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5.63</v>
+        <v>6.82</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>8.87</v>
+        <v>8.38</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>7.59</v>
+        <v>6.79</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.69</v>
+        <v>0.57</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8.87</v>
+        <v>8.41</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>6.74</v>
+        <v>7.22</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.87</v>
+        <v>1.36</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8.89</v>
+        <v>8.46</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>5.27</v>
+        <v>7.5</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8.89</v>
+        <v>8.49</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>7.11</v>
+        <v>6.69</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.37</v>
+        <v>1.35</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>9</v>
+        <v>8.53</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>3.79</v>
+        <v>6.9</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>9.01</v>
+        <v>8.57</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>7.68</v>
+        <v>7.3</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>9.03</v>
+        <v>8.59</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>7.81</v>
+        <v>5.19</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>9.03</v>
+        <v>8.67</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>7.05</v>
+        <v>7.5</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.47</v>
+        <v>1.85</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>9.05</v>
+        <v>8.72</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>5.54</v>
+        <v>7.89</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>9.15</v>
+        <v>8.74</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1269,10 +1269,10 @@
         <v>7.59</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>9.16</v>
+        <v>8.79</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.85</v>
+        <v>7.42</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.64</v>
+        <v>0.38</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>9.24</v>
+        <v>8.84</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>7.02</v>
+        <v>7.65</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.65</v>
+        <v>0.41</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>9.25</v>
+        <v>8.99</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>7.06</v>
+        <v>7.93</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>1.08</v>
+        <v>0.32</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>9.27</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>7.89</v>
+        <v>8.05</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.52</v>
+        <v>-0.03</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>9.3</v>
+        <v>9.03</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>6.83</v>
+        <v>7.63</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.39</v>
+        <v>0.83</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>9.32</v>
+        <v>9.1</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>5.08</v>
+        <v>8.21</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>9.37</v>
+        <v>9.12</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>6.54</v>
+        <v>7.92</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.59</v>
+        <v>0.03</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>9.43</v>
+        <v>9.17</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.77</v>
+        <v>4.26</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.72</v>
+        <v>0.39</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>9.51</v>
+        <v>9.18</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>7.21</v>
+        <v>3.25</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>9.53</v>
+        <v>9.29</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>5.64</v>
+        <v>8.58</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.7</v>
+        <v>1.23</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>9.7</v>
+        <v>9.29</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1456,10 +1456,10 @@
         <v>8.08</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.78</v>
+        <v>0.02</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>9.7</v>
+        <v>9.31</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>8.06</v>
+        <v>7.75</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>9.75</v>
+        <v>9.33</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.9</v>
+        <v>0.37</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>9.86</v>
+        <v>9.41</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.44</v>
+        <v>6.06</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.69</v>
+        <v>0.39</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>9.97</v>
+        <v>9.41</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.23</v>
+        <v>8.26</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.85</v>
+        <v>0.36</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>9.99</v>
+        <v>9.47</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>8.1</v>
+        <v>8.31</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.74</v>
+        <v>-0.26</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>10</v>
+        <v>9.58</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>7.54</v>
+        <v>8.07</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>10.16</v>
+        <v>9.64</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>7.87</v>
+        <v>8.38</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.15</v>
+        <v>1.72</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>10.17</v>
+        <v>9.67</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>7.26</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>10.2</v>
+        <v>9.73</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.66</v>
+        <v>9.03</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>0.74</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>10.36</v>
+        <v>10.06</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>8.6</v>
+        <v>9.2</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.76</v>
+        <v>1.15</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>10.38</v>
+        <v>10.25</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>8.46</v>
+        <v>9.04</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>10.55</v>
+        <v>10.32</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>8.03</v>
+        <v>8.55</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.01</v>
+        <v>0.49</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>10.72</v>
+        <v>10.45</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>7.95</v>
+        <v>8.74</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.28</v>
+        <v>1.95</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>10.78</v>
+        <v>10.57</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - sep 2022</t>
+    <t xml:space="preserve">dic 2021 - nov 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">sep 2022 - oct 2022</t>
+    <t xml:space="preserve">oct 2022 - nov 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">oct 2021 - oct 2022</t>
+    <t xml:space="preserve">nov 2021 - nov 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
@@ -78,13 +78,16 @@
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
@@ -93,28 +96,16 @@
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
@@ -123,121 +114,130 @@
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
 </sst>
 </file>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.16</v>
+        <v>5.82</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.13</v>
+        <v>0.63</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>6.35</v>
+        <v>6.16</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6.45</v>
+        <v>6.97</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.09</v>
+        <v>0.49</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.84</v>
+        <v>6.32</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>6.05</v>
+        <v>6.26</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.85</v>
+        <v>6.7</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>6.22</v>
+        <v>6.49</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>1.47</v>
+        <v>0.41</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>7.14</v>
+        <v>6.72</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.37</v>
+        <v>6.71</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.26</v>
+        <v>-0.11</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>7.3</v>
+        <v>6.76</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.26</v>
+        <v>6.43</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1.99</v>
+        <v>0.5</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>7.58</v>
+        <v>6.94</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>6.09</v>
+        <v>6.46</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>7.6</v>
+        <v>6.98</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.45</v>
+        <v>6.57</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.15</v>
+        <v>4.1</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>7.64</v>
+        <v>7.12</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>3.66</v>
+        <v>6.78</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.21</v>
+        <v>4.23</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>7.75</v>
+        <v>7.24</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>7.06</v>
+        <v>6.74</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.6</v>
+        <v>-0.06</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.93</v>
+        <v>7.27</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>6.8</v>
+        <v>7.49</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1.53</v>
+        <v>0.18</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.99</v>
+        <v>7.31</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>5.82</v>
+        <v>6.97</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>8.01</v>
+        <v>7.34</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>7.73</v>
+        <v>6.89</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-0.07</v>
+        <v>-0.25</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>8.03</v>
+        <v>7.45</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>3.89</v>
+        <v>6.9</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.25</v>
+        <v>1.02</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>8.07</v>
+        <v>7.47</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>6.86</v>
+        <v>6.84</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.65</v>
+        <v>3.06</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>8.08</v>
+        <v>7.48</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>7.16</v>
+        <v>7.5</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>3.24</v>
+        <v>0.51</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>8.22</v>
+        <v>7.51</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>7.65</v>
+        <v>7.81</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.07</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>8.24</v>
+        <v>7.51</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>7.28</v>
+        <v>8.3</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>8.33</v>
+        <v>7.59</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>7.53</v>
+        <v>6.74</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>1.99</v>
+        <v>0.05</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>8.34</v>
+        <v>7.62</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>6.96</v>
+        <v>7.23</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>8.35</v>
+        <v>7.63</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>6.82</v>
+        <v>7.28</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.38</v>
+        <v>3.26</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>8.38</v>
+        <v>7.63</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>6.79</v>
+        <v>7.48</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.57</v>
+        <v>0.05</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8.41</v>
+        <v>7.69</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>7.22</v>
+        <v>7.68</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>1.36</v>
+        <v>0.38</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8.46</v>
+        <v>7.72</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>7.5</v>
+        <v>7.38</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1.54</v>
+        <v>0.3</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8.49</v>
+        <v>7.73</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>6.69</v>
+        <v>8.05</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>1.35</v>
+        <v>0.01</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>8.53</v>
+        <v>7.75</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>6.9</v>
+        <v>8.32</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8.57</v>
+        <v>7.77</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>7.3</v>
+        <v>7.88</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8.59</v>
+        <v>7.79</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>5.19</v>
+        <v>7.41</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8.67</v>
+        <v>7.8</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>7.5</v>
+        <v>6.82</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8.72</v>
+        <v>7.91</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>7.89</v>
+        <v>7.59</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8.74</v>
+        <v>8.05</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>7.59</v>
+        <v>8.02</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8.79</v>
+        <v>8.13</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>7.42</v>
+        <v>7.65</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8.84</v>
+        <v>8.17</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>7.65</v>
+        <v>8.24</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.41</v>
+        <v>0.29</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8.99</v>
+        <v>8.19</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>7.93</v>
+        <v>7.58</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>9</v>
+        <v>8.2</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>8.05</v>
+        <v>7.71</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>9.03</v>
+        <v>8.2</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>7.63</v>
+        <v>7.83</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.83</v>
+        <v>-0.05</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>9.1</v>
+        <v>8.27</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>8.21</v>
+        <v>7.89</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>9.12</v>
+        <v>8.35</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>7.92</v>
+        <v>7.74</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>9.17</v>
+        <v>8.44</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>4.26</v>
+        <v>8.63</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>0.39</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>9.18</v>
+        <v>8.47</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>3.25</v>
+        <v>8.51</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>9.29</v>
+        <v>8.48</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>8.58</v>
+        <v>7.91</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>1.23</v>
+        <v>0.15</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>9.29</v>
+        <v>8.58</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>8.08</v>
+        <v>7.99</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.02</v>
+        <v>3.57</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>9.31</v>
+        <v>8.68</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>7.75</v>
+        <v>8.52</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.65</v>
+        <v>-0.05</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>9.33</v>
+        <v>8.78</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>8</v>
+        <v>8.49</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>9.41</v>
+        <v>8.81</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>6.06</v>
+        <v>8.4</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.39</v>
+        <v>2.21</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>9.41</v>
+        <v>8.83</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.26</v>
+        <v>8.2</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>9.47</v>
+        <v>9.04</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>8.31</v>
+        <v>8.57</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>-0.26</v>
+        <v>0.46</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>9.58</v>
+        <v>9.26</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>8.07</v>
+        <v>8.85</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>9.64</v>
+        <v>9.49</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.38</v>
+        <v>8.94</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.72</v>
+        <v>5.52</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>9.67</v>
+        <v>9.54</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>8</v>
+        <v>8.59</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>9.73</v>
+        <v>9.82</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>9.03</v>
+        <v>9.38</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>10.06</v>
+        <v>9.94</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>9.2</v>
+        <v>8.89</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.15</v>
+        <v>0.14</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>10.25</v>
+        <v>9.97</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>9.04</v>
+        <v>9.06</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>10.32</v>
+        <v>9.97</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>8.55</v>
+        <v>9.58</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>10.45</v>
+        <v>10.06</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>8.74</v>
+        <v>9.26</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>10.57</v>
+        <v>10.19</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,19 +63,25 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - nov 2022</t>
+    <t xml:space="preserve">dic 2021 - dic 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">oct 2022 - nov 2022</t>
+    <t xml:space="preserve">nov 2022 - dic 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">nov 2021 - nov 2022</t>
+    <t xml:space="preserve">dic 2021 - dic 2022.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
@@ -84,103 +90,79 @@
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
@@ -189,22 +171,19 @@
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
@@ -216,28 +195,49 @@
     <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
 </sst>
 </file>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.82</v>
+        <v>6.41</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.63</v>
+        <v>-0.34</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>6.16</v>
+        <v>6.41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6.97</v>
+        <v>6.49</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.49</v>
+        <v>-0.07</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.32</v>
+        <v>6.49</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>6.26</v>
+        <v>6.52</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.16</v>
+        <v>0.66</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.7</v>
+        <v>6.52</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>6.49</v>
+        <v>6.55</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.41</v>
+        <v>-0.18</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.72</v>
+        <v>6.55</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.11</v>
+        <v>0.41</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.76</v>
+        <v>6.69</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.43</v>
+        <v>6.72</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.9</v>
+        <v>6.72</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.94</v>
+        <v>6.79</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>6.46</v>
+        <v>6.82</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.15</v>
+        <v>-0.08</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.98</v>
+        <v>6.82</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6.57</v>
+        <v>6.91</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>4.1</v>
+        <v>0.45</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>7.12</v>
+        <v>6.91</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>6.78</v>
+        <v>6.93</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>4.23</v>
+        <v>0.09</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>7.24</v>
+        <v>6.93</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>6.74</v>
+        <v>7.05</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-0.06</v>
+        <v>0.23</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.27</v>
+        <v>7.05</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7.49</v>
+        <v>7.13</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.31</v>
+        <v>7.13</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>6.97</v>
+        <v>7.17</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.34</v>
+        <v>7.17</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>6.89</v>
+        <v>7.19</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.45</v>
+        <v>7.19</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>6.9</v>
+        <v>7.22</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>1.02</v>
+        <v>0.23</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.47</v>
+        <v>7.22</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>6.84</v>
+        <v>7.49</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>3.06</v>
+        <v>0.73</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.48</v>
+        <v>7.49</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,10 +1011,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>7.5</v>
+        <v>7.51</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>7.51</v>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>7.81</v>
+        <v>7.58</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.07</v>
+        <v>0.78</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.51</v>
+        <v>7.58</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>8.3</v>
+        <v>7.72</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.59</v>
+        <v>7.72</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.74</v>
+        <v>7.82</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.62</v>
+        <v>7.82</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>7.23</v>
+        <v>7.84</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.01</v>
+        <v>0.57</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>7.63</v>
+        <v>7.84</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>7.28</v>
+        <v>7.91</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>3.26</v>
+        <v>0.88</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.63</v>
+        <v>7.91</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>7.48</v>
+        <v>7.91</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.69</v>
+        <v>7.91</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>7.68</v>
+        <v>7.92</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7.72</v>
+        <v>7.92</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>7.38</v>
+        <v>7.94</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7.73</v>
+        <v>7.94</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>8.05</v>
+        <v>7.96</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7.75</v>
+        <v>7.96</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>8.32</v>
+        <v>7.98</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7.77</v>
+        <v>7.98</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>7.88</v>
+        <v>8.04</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>7.79</v>
+        <v>8.04</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>7.41</v>
+        <v>8.09</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>7.8</v>
+        <v>8.09</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>6.82</v>
+        <v>8.16</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.55</v>
+        <v>0.64</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7.91</v>
+        <v>8.16</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>7.59</v>
+        <v>8.29</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.09</v>
+        <v>0.35</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8.05</v>
+        <v>8.29</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>8.02</v>
+        <v>8.3</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8.13</v>
+        <v>8.3</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>7.65</v>
+        <v>8.32</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8.17</v>
+        <v>8.32</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>8.24</v>
+        <v>8.34</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.29</v>
+        <v>0.79</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8.19</v>
+        <v>8.34</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>7.58</v>
+        <v>8.34</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8.2</v>
+        <v>8.34</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>7.71</v>
+        <v>8.36</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8.2</v>
+        <v>8.36</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>7.83</v>
+        <v>8.48</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>8.27</v>
+        <v>8.48</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>7.89</v>
+        <v>8.59</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8.35</v>
+        <v>8.59</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>7.74</v>
+        <v>8.6</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.44</v>
+        <v>8.6</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>8.63</v>
+        <v>8.6</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.47</v>
+        <v>8.6</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>8.51</v>
+        <v>8.61</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>8.48</v>
+        <v>8.61</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>7.91</v>
+        <v>8.65</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8.58</v>
+        <v>8.65</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>7.99</v>
+        <v>8.69</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>3.57</v>
+        <v>0.18</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.68</v>
+        <v>8.69</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>8.52</v>
+        <v>8.77</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.82</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>8.78</v>
+        <v>8.77</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>8.49</v>
+        <v>8.85</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.21</v>
+        <v>-0.09</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.81</v>
+        <v>8.85</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>8.4</v>
+        <v>8.98</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>2.21</v>
+        <v>0.68</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.83</v>
+        <v>8.98</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.2</v>
+        <v>9.01</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.19</v>
+        <v>0.66</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>9.04</v>
+        <v>9.01</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>8.57</v>
+        <v>9.01</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>9.26</v>
+        <v>9.01</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>8.85</v>
+        <v>9.24</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>9.49</v>
+        <v>9.24</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.94</v>
+        <v>9.32</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>5.52</v>
+        <v>0.44</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>9.54</v>
+        <v>9.32</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>8.59</v>
+        <v>9.43</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.03</v>
+        <v>0.84</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>9.82</v>
+        <v>9.43</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>9.38</v>
+        <v>9.77</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>9.94</v>
+        <v>9.77</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>8.89</v>
+        <v>10.02</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.14</v>
+        <v>0.69</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>9.97</v>
+        <v>10.02</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>9.06</v>
+        <v>10.08</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.63</v>
+        <v>1.09</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>9.97</v>
+        <v>10.08</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>9.58</v>
+        <v>10.08</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>10.06</v>
+        <v>10.08</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>9.26</v>
+        <v>10.26</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>10.19</v>
+        <v>10.26</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,25 +63,25 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - dic 2022</t>
+    <t xml:space="preserve">dic 2022 - ene 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">nov 2022 - dic 2022</t>
+    <t xml:space="preserve">dic 2022 - ene 2023.1</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2021 - dic 2022.1</t>
+    <t xml:space="preserve">ene 2022 - ene 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
@@ -90,19 +90,28 @@
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
@@ -111,121 +120,112 @@
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
+    <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>6.41</v>
+        <v>0.28</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.34</v>
+        <v>0.28</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>6.41</v>
+        <v>5.8</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6.49</v>
+        <v>0.32</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.07</v>
+        <v>0.32</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.49</v>
+        <v>6.4</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>6.52</v>
+        <v>0.59</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.52</v>
+        <v>6.62</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>6.55</v>
+        <v>0.35</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.18</v>
+        <v>0.35</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.55</v>
+        <v>6.72</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>6.69</v>
+        <v>0.65</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.69</v>
+        <v>6.8</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.72</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.72</v>
+        <v>6.85</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.79</v>
+        <v>0.43</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.79</v>
+        <v>6.87</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>6.82</v>
+        <v>0.63</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.63</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.82</v>
+        <v>6.88</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6.91</v>
+        <v>0.23</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>6.93</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.93</v>
+        <v>7.06</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>7.05</v>
+        <v>0.64</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.23</v>
+        <v>0.64</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7.13</v>
+        <v>1.14</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.22</v>
+        <v>1.14</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.13</v>
+        <v>7.16</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>7.17</v>
+        <v>0.41</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>-0.11</v>
+        <v>0.41</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.17</v>
+        <v>7.25</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>7.19</v>
+        <v>0.53</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.19</v>
+        <v>7.35</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>7.22</v>
+        <v>0.8</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.22</v>
+        <v>7.36</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>7.49</v>
+        <v>0.81</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.49</v>
+        <v>7.52</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>7.51</v>
+        <v>0.56</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.01</v>
+        <v>0.56</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.51</v>
+        <v>7.54</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>7.58</v>
+        <v>0.41</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.78</v>
+        <v>0.41</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.58</v>
+        <v>7.62</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>7.72</v>
+        <v>0.61</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.72</v>
+        <v>7.63</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>7.82</v>
+        <v>0.24</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.82</v>
+        <v>7.75</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,10 +1079,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>7.84</v>
+        <v>0.51</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>7.84</v>
@@ -1096,10 +1096,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>7.91</v>
+        <v>0.68</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>7.91</v>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>7.91</v>
+        <v>0.37</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>7.91</v>
+        <v>8.01</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>7.92</v>
+        <v>0.66</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>7.92</v>
+        <v>8.12</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>7.94</v>
+        <v>0.36</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>7.94</v>
+        <v>8.18</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>7.96</v>
+        <v>0.78</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.35</v>
+        <v>0.78</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7.96</v>
+        <v>8.22</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>7.98</v>
+        <v>0.66</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.14</v>
+        <v>0.66</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>7.98</v>
+        <v>8.29</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>8.04</v>
+        <v>0.92</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.05</v>
+        <v>0.92</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8.04</v>
+        <v>8.32</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>8.09</v>
+        <v>0.61</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8.09</v>
+        <v>8.32</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>8.16</v>
+        <v>1.08</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.64</v>
+        <v>1.08</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8.16</v>
+        <v>8.32</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>8.29</v>
+        <v>0.53</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8.29</v>
+        <v>8.34</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>8.3</v>
+        <v>0.55</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8.3</v>
+        <v>8.37</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>8.32</v>
+        <v>1.12</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.54</v>
+        <v>1.12</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8.32</v>
+        <v>8.45</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>8.34</v>
+        <v>0.27</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.79</v>
+        <v>0.27</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8.34</v>
+        <v>8.46</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>8.34</v>
+        <v>0.52</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8.34</v>
+        <v>8.47</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>8.36</v>
+        <v>0.84</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8.36</v>
+        <v>8.47</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,10 +1351,10 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>8.48</v>
+        <v>1.03</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.4</v>
+        <v>1.03</v>
       </c>
       <c r="D50" s="3" t="n">
         <v>8.48</v>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>8.59</v>
+        <v>0.74</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.24</v>
+        <v>0.74</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8.59</v>
+        <v>8.52</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>8.6</v>
+        <v>0.39</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.6</v>
+        <v>8.64</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>8.6</v>
+        <v>0.96</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.36</v>
+        <v>0.96</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.6</v>
+        <v>8.64</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>8.61</v>
+        <v>0.93</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>8.61</v>
+        <v>8.82</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>8.65</v>
+        <v>0.71</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.06</v>
+        <v>0.71</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8.65</v>
+        <v>8.87</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>8.69</v>
+        <v>0.62</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.69</v>
+        <v>8.88</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>8.77</v>
+        <v>1.03</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>8.77</v>
+        <v>9.02</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>8.85</v>
+        <v>0.91</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>-0.09</v>
+        <v>0.91</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>8.85</v>
+        <v>9.03</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>8.98</v>
+        <v>1.14</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.68</v>
+        <v>1.14</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>8.98</v>
+        <v>9.26</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>9.01</v>
+        <v>0.69</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>9.01</v>
+        <v>9.33</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>9.01</v>
+        <v>0.73</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.34</v>
+        <v>0.73</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>9.01</v>
+        <v>9.34</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>9.24</v>
+        <v>0.6</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>9.24</v>
+        <v>9.36</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>9.32</v>
+        <v>0.96</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.44</v>
+        <v>0.96</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>9.32</v>
+        <v>9.46</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>9.43</v>
+        <v>0.43</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.84</v>
+        <v>0.43</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>9.43</v>
+        <v>9.55</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>9.77</v>
+        <v>1.72</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.65</v>
+        <v>1.72</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>9.77</v>
+        <v>9.73</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>10.02</v>
+        <v>1.33</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.69</v>
+        <v>1.33</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>10.02</v>
+        <v>9.85</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>10.08</v>
+        <v>1.02</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>10.08</v>
+        <v>10.13</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>10.08</v>
+        <v>0.99</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.64</v>
+        <v>0.99</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>10.08</v>
+        <v>10.22</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>10.26</v>
+        <v>1</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>10.26</v>
+        <v>10.43</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,34 +63,37 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2022 - ene 2023</t>
+    <t xml:space="preserve">dic 2022 - feb 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2022 - ene 2023.1</t>
+    <t xml:space="preserve">ene 2023 - feb 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">ene 2022 - ene 2023</t>
+    <t xml:space="preserve">feb 2022 - feb 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
@@ -99,106 +102,109 @@
     <t xml:space="preserve">Cd. Juárez, Chih</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
@@ -207,22 +213,13 @@
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
@@ -231,13 +228,16 @@
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
 </sst>
 </file>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.32</v>
+        <v>1.31</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.32</v>
+        <v>1.02</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6.4</v>
+        <v>6.11</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6.62</v>
+        <v>6.2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.35</v>
+        <v>1.15</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.35</v>
+        <v>0.56</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>6.72</v>
+        <v>6.37</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.65</v>
+        <v>1.08</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6.8</v>
+        <v>6.47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>6.85</v>
+        <v>6.62</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.43</v>
+        <v>1.65</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>6.87</v>
+        <v>6.62</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.63</v>
+        <v>1.12</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0.63</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6.88</v>
+        <v>6.64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.23</v>
+        <v>1.44</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.98</v>
+        <v>6.74</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1</v>
+        <v>0.56</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>7.06</v>
+        <v>6.76</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.64</v>
+        <v>1.16</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.1</v>
+        <v>6.89</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1.14</v>
+        <v>0.02</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>7.16</v>
+        <v>6.95</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.41</v>
+        <v>1.04</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.41</v>
+        <v>0.63</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>7.25</v>
+        <v>7.12</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.53</v>
+        <v>1.19</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.53</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.35</v>
+        <v>7.17</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>7.36</v>
+        <v>7.2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0.81</v>
+        <v>1.42</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>7.52</v>
+        <v>7.23</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.56</v>
+        <v>1.05</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.56</v>
+        <v>0.49</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>7.54</v>
+        <v>7.35</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>7.62</v>
+        <v>7.51</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.61</v>
+        <v>1.31</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>7.63</v>
+        <v>7.54</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.24</v>
+        <v>1.37</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.75</v>
+        <v>7.55</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.51</v>
+        <v>1.24</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.51</v>
+        <v>0.56</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>7.84</v>
+        <v>7.62</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.68</v>
+        <v>1.41</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7.91</v>
+        <v>7.64</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8.01</v>
+        <v>7.66</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8.12</v>
+        <v>7.74</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.36</v>
+        <v>1.77</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8.18</v>
+        <v>7.86</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.78</v>
+        <v>1.52</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>8.22</v>
+        <v>7.88</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.66</v>
+        <v>1.65</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.66</v>
+        <v>1.03</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8.29</v>
+        <v>7.89</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8.32</v>
+        <v>7.89</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.61</v>
+        <v>1.35</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8.32</v>
+        <v>7.9</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.08</v>
+        <v>0.9</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8.32</v>
+        <v>7.95</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.53</v>
+        <v>1.17</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8.34</v>
+        <v>7.99</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.55</v>
+        <v>0.94</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8.37</v>
+        <v>8.03</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>1.12</v>
+        <v>0.46</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8.45</v>
+        <v>8.04</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.27</v>
+        <v>1.66</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.27</v>
+        <v>0.84</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8.46</v>
+        <v>8.08</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.52</v>
+        <v>1.17</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8.47</v>
+        <v>8.22</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.84</v>
+        <v>1.19</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.84</v>
+        <v>0.48</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8.47</v>
+        <v>8.32</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.03</v>
+        <v>1.56</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>1.03</v>
+        <v>0.52</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>8.48</v>
+        <v>8.34</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.74</v>
+        <v>0.06</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8.52</v>
+        <v>8.38</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0.39</v>
+        <v>1.26</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.39</v>
+        <v>0.73</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8.64</v>
+        <v>8.42</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0.96</v>
+        <v>1.94</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>8.64</v>
+        <v>8.42</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.93</v>
+        <v>1.71</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.93</v>
+        <v>0.77</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>8.82</v>
+        <v>8.49</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.71</v>
+        <v>1.52</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8.87</v>
+        <v>8.5</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0.62</v>
+        <v>1.3</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>8.88</v>
+        <v>8.57</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>1.03</v>
+        <v>0.66</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>9.02</v>
+        <v>8.62</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.91</v>
+        <v>0.25</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>9.03</v>
+        <v>8.63</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1.14</v>
+        <v>0.22</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>9.26</v>
+        <v>8.7</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.69</v>
+        <v>1.53</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>9.33</v>
+        <v>8.91</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0.73</v>
+        <v>1.5</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>9.34</v>
+        <v>9.08</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>9.36</v>
+        <v>9.12</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0.96</v>
+        <v>1.58</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>9.46</v>
+        <v>9.13</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.43</v>
+        <v>2.23</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>9.55</v>
+        <v>9.19</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>1.72</v>
+        <v>0.63</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>9.73</v>
+        <v>9.23</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.33</v>
+        <v>-0.01</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>9.85</v>
+        <v>9.24</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1.02</v>
+        <v>1.51</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.02</v>
+        <v>0.55</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>10.13</v>
+        <v>9.3</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.99</v>
+        <v>-0.07</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>10.22</v>
+        <v>9.5</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>10.43</v>
+        <v>9.8</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,181 +63,181 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2022 - feb 2023</t>
+    <t xml:space="preserve">dic 2022 - mar 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">ene 2023 - feb 2023</t>
+    <t xml:space="preserve">feb 2023 - mar 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">feb 2022 - feb 2023</t>
+    <t xml:space="preserve">mar 2022 - mar 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
 </sst>
 </file>
@@ -738,15 +738,9 @@
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -755,15 +749,9 @@
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>6.11</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -772,15 +760,9 @@
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>6.2</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -789,15 +771,9 @@
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>6.37</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -806,15 +782,9 @@
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>6.47</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -823,15 +793,9 @@
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>6.62</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -840,15 +804,9 @@
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>6.62</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -857,15 +815,9 @@
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>6.64</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -874,15 +826,9 @@
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>6.74</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -891,15 +837,9 @@
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>6.76</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -908,15 +848,9 @@
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>6.89</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -925,15 +859,9 @@
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -942,15 +870,9 @@
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>7.12</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -959,15 +881,9 @@
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>7.17</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -976,15 +892,9 @@
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -993,15 +903,9 @@
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>7.23</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1010,15 +914,9 @@
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>7.35</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1027,15 +925,9 @@
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>7.51</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1044,15 +936,9 @@
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>7.54</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1061,15 +947,9 @@
       <c r="A33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>7.55</v>
-      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1078,15 +958,9 @@
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>7.62</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1095,15 +969,9 @@
       <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>7.64</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1112,15 +980,9 @@
       <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>7.66</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1129,15 +991,9 @@
       <c r="A37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>7.74</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1146,15 +1002,9 @@
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>7.86</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1163,15 +1013,9 @@
       <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>7.88</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1180,15 +1024,9 @@
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>7.89</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1197,15 +1035,9 @@
       <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>7.89</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1214,15 +1046,9 @@
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>7.9</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1231,15 +1057,9 @@
       <c r="A43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D43" s="3" t="n">
-        <v>7.95</v>
-      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1248,15 +1068,9 @@
       <c r="A44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D44" s="3" t="n">
-        <v>7.99</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1265,15 +1079,9 @@
       <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="3" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>8.03</v>
-      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1282,15 +1090,9 @@
       <c r="A46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>8.04</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1299,15 +1101,9 @@
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>8.08</v>
-      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -1316,15 +1112,9 @@
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="C48" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>8.22</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1333,15 +1123,9 @@
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>8.32</v>
-      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1350,15 +1134,9 @@
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>8.34</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1367,15 +1145,9 @@
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>8.38</v>
-      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -1384,15 +1156,9 @@
       <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D52" s="3" t="n">
-        <v>8.42</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -1401,15 +1167,9 @@
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C53" s="3" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D53" s="3" t="n">
-        <v>8.42</v>
-      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1418,15 +1178,9 @@
       <c r="A54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C54" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>8.49</v>
-      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -1435,15 +1189,9 @@
       <c r="A55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="C55" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D55" s="3" t="n">
-        <v>8.5</v>
-      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -1452,15 +1200,9 @@
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D56" s="3" t="n">
-        <v>8.57</v>
-      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -1469,15 +1211,9 @@
       <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C57" s="3" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D57" s="3" t="n">
-        <v>8.62</v>
-      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -1486,15 +1222,9 @@
       <c r="A58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="3" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C58" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D58" s="3" t="n">
-        <v>8.63</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -1503,15 +1233,9 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C59" s="3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D59" s="3" t="n">
-        <v>8.7</v>
-      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -1520,15 +1244,9 @@
       <c r="A60" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="C60" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D60" s="3" t="n">
-        <v>8.91</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -1537,15 +1255,9 @@
       <c r="A61" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C61" s="3" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="D61" s="3" t="n">
-        <v>9.08</v>
-      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -1554,15 +1266,9 @@
       <c r="A62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C62" s="3" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>9.12</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -1571,15 +1277,9 @@
       <c r="A63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="C63" s="3" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D63" s="3" t="n">
-        <v>9.13</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -1588,15 +1288,9 @@
       <c r="A64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="3" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C64" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D64" s="3" t="n">
-        <v>9.19</v>
-      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -1605,15 +1299,9 @@
       <c r="A65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="C65" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D65" s="3" t="n">
-        <v>9.23</v>
-      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -1622,15 +1310,9 @@
       <c r="A66" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="C66" s="3" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="D66" s="3" t="n">
-        <v>9.24</v>
-      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -1639,15 +1321,9 @@
       <c r="A67" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="C67" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D67" s="3" t="n">
-        <v>9.3</v>
-      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -1656,15 +1332,9 @@
       <c r="A68" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="3" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C68" s="3" t="n">
-        <v>-0.07</v>
-      </c>
-      <c r="D68" s="3" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -1673,15 +1343,9 @@
       <c r="A69" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="C69" s="3" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D69" s="3" t="n">
-        <v>9.8</v>
-      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -72,49 +72,112 @@
     <t xml:space="preserve">mar 2022 - mar 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
     <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
@@ -123,121 +186,58 @@
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
 </sst>
 </file>
@@ -738,9 +738,15 @@
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>5.27</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -749,9 +755,15 @@
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>5.46</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -760,9 +772,15 @@
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>5.72</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -771,9 +789,15 @@
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>5.81</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -782,9 +806,15 @@
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>5.84</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -793,9 +823,15 @@
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>5.85</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -804,9 +840,15 @@
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>5.89</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -815,9 +857,15 @@
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>6</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -826,9 +874,15 @@
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>6.12</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -837,9 +891,15 @@
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>6.24</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -848,9 +908,15 @@
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>6.35</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -859,9 +925,15 @@
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>6.38</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -870,9 +942,15 @@
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>6.58</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -881,9 +959,15 @@
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -892,9 +976,15 @@
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>6.62</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -903,9 +993,15 @@
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>6.63</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -914,9 +1010,15 @@
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>6.69</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -925,9 +1027,15 @@
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>6.7</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -936,9 +1044,15 @@
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>6.72</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -947,9 +1061,15 @@
       <c r="A33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>6.81</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -958,9 +1078,15 @@
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>6.85</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -969,9 +1095,15 @@
       <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>6.88</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -980,9 +1112,15 @@
       <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>6.89</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -991,9 +1129,15 @@
       <c r="A37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>6.93</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1002,9 +1146,15 @@
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>6.97</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1013,9 +1163,15 @@
       <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>6.97</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1024,9 +1180,15 @@
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>6.98</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1035,9 +1197,15 @@
       <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="B41" s="3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>7.01</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1046,9 +1214,15 @@
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="B42" s="3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>7.02</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1057,9 +1231,15 @@
       <c r="A43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="B43" s="3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>7.12</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1068,9 +1248,15 @@
       <c r="A44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="B44" s="3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>7.17</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1079,9 +1265,15 @@
       <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>7.19</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1090,9 +1282,15 @@
       <c r="A46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>7.2</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1101,9 +1299,15 @@
       <c r="A47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>7.24</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -1112,9 +1316,15 @@
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="B48" s="3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>7.25</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1123,9 +1333,15 @@
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>7.28</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1134,9 +1350,15 @@
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="B50" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>7.3</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1145,9 +1367,15 @@
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="B51" s="3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>7.3</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -1156,9 +1384,15 @@
       <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="B52" s="3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>7.51</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -1167,9 +1401,15 @@
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="B53" s="3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>7.55</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1178,9 +1418,15 @@
       <c r="A54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>7.58</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -1189,9 +1435,15 @@
       <c r="A55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>7.59</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -1200,9 +1452,15 @@
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="B56" s="3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>7.61</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -1211,9 +1469,15 @@
       <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>7.65</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -1222,9 +1486,15 @@
       <c r="A58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="B58" s="3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>7.66</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -1233,9 +1503,15 @@
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="B59" s="3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>7.76</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -1244,9 +1520,15 @@
       <c r="A60" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="B60" s="3" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>7.85</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -1255,9 +1537,15 @@
       <c r="A61" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="B61" s="3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>7.91</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -1266,9 +1554,15 @@
       <c r="A62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="B62" s="3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>7.98</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -1277,9 +1571,15 @@
       <c r="A63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="B63" s="3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>8.01</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -1288,9 +1588,15 @@
       <c r="A64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="B64" s="3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>8.01</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -1299,9 +1605,15 @@
       <c r="A65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="3" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>8.02</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -1310,9 +1622,15 @@
       <c r="A66" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="B66" s="3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>8.25</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -1321,9 +1639,15 @@
       <c r="A67" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>8.59</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -1332,9 +1656,15 @@
       <c r="A68" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="B68" s="3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>8.8</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -1343,9 +1673,15 @@
       <c r="A69" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="B69" s="3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>8.95</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,175 +63,175 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic 2022 - mar 2023</t>
+    <t xml:space="preserve">dic.2022 - abr. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">feb 2023 - mar 2023</t>
+    <t xml:space="preserve">mar. 2023 - abr. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">mar 2022 - mar 2023</t>
+    <t xml:space="preserve">mar. 2022 - abr. 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B. C. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">León, Gto.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.83</v>
+        <v>-0.58</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.29</v>
+        <v>-1.4</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>5.27</v>
+        <v>4.66</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>5.46</v>
+        <v>4.8</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>5.72</v>
+        <v>5.08</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>5.81</v>
+        <v>5.18</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.02</v>
+        <v>1.31</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>5.84</v>
+        <v>5.33</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.21</v>
+        <v>1.6</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>5.85</v>
+        <v>5.42</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.42</v>
+        <v>-0.05</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.26</v>
+        <v>-1.06</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>5.89</v>
+        <v>5.49</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>6</v>
+        <v>5.68</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.97</v>
+        <v>1.57</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>6.12</v>
+        <v>5.71</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.18</v>
+        <v>2.15</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>6.24</v>
+        <v>5.71</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.37</v>
+        <v>1.75</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>6.35</v>
+        <v>5.79</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.86</v>
+        <v>1.28</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.41</v>
+        <v>-0.07</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>6.38</v>
+        <v>5.8</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>6.58</v>
+        <v>5.88</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1.04</v>
+        <v>0.02</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.3</v>
+        <v>-1.32</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>6.6</v>
+        <v>5.93</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.67</v>
+        <v>0.97</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-0.27</v>
+        <v>-0.08</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>6.62</v>
+        <v>5.93</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.54</v>
+        <v>-0.26</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.16</v>
+        <v>-0.83</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>6.63</v>
+        <v>5.99</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>6.69</v>
+        <v>6.03</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.35</v>
+        <v>0.2</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.31</v>
+        <v>-1.18</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>6.7</v>
+        <v>6.08</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.39</v>
+        <v>-0.53</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-0.01</v>
+        <v>-2.5</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>6.72</v>
+        <v>6.12</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.93</v>
+        <v>0.8</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>6.81</v>
+        <v>6.13</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.51</v>
+        <v>2.12</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.27</v>
+        <v>-0.14</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>6.85</v>
+        <v>6.15</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.57</v>
+        <v>0.66</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.26</v>
+        <v>-0.9</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>6.88</v>
+        <v>6.19</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>-0.16</v>
+        <v>0.26</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>6.89</v>
+        <v>6.19</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.91</v>
+        <v>0.28</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6.93</v>
+        <v>6.24</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.02</v>
+        <v>1.49</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.57</v>
+        <v>-0.02</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>6.97</v>
+        <v>6.25</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>6.97</v>
+        <v>6.25</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>6.98</v>
+        <v>6.26</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.26</v>
+        <v>0.85</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.48</v>
+        <v>-1.49</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>7.01</v>
+        <v>6.32</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.57</v>
+        <v>2.18</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>-0.17</v>
+        <v>0.44</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>7.02</v>
+        <v>6.33</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>-0.26</v>
+        <v>0.15</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>7.12</v>
+        <v>6.39</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.27</v>
+        <v>-0.07</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>7.17</v>
+        <v>6.46</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.33</v>
+        <v>0.46</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.44</v>
+        <v>-1.06</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7.19</v>
+        <v>6.48</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>0.24</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>7.2</v>
+        <v>6.51</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.43</v>
+        <v>2.1</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>-0.1</v>
+        <v>0.29</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7.24</v>
+        <v>6.54</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>7.25</v>
+        <v>6.55</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7.28</v>
+        <v>6.55</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.93</v>
+        <v>1.84</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>7.3</v>
+        <v>6.57</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>7.3</v>
+        <v>6.58</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>7.51</v>
+        <v>6.6</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.66</v>
+        <v>0.2</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>7.55</v>
+        <v>6.65</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.29</v>
+        <v>1.47</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>7.58</v>
+        <v>6.71</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.18</v>
+        <v>1.86</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.12</v>
+        <v>-0.22</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>7.59</v>
+        <v>6.74</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.53</v>
+        <v>-0.83</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>7.61</v>
+        <v>7.02</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>7.65</v>
+        <v>7.05</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.24</v>
+        <v>0.43</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.38</v>
+        <v>-1.17</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>7.66</v>
+        <v>7.1</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.61</v>
+        <v>2.18</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>7.76</v>
+        <v>7.12</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.81</v>
+        <v>1.86</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>7.85</v>
+        <v>7.13</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.66</v>
+        <v>2.43</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>7.91</v>
+        <v>7.14</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.61</v>
+        <v>1.16</v>
       </c>
       <c r="C62" s="3" t="n">
         <v>0.36</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7.98</v>
+        <v>7.15</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>8.01</v>
+        <v>7.34</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>2.34</v>
+        <v>0.66</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.62</v>
+        <v>-0.74</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>8.01</v>
+        <v>7.34</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>8.02</v>
+        <v>7.38</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1626,10 +1626,10 @@
         <v>1.89</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>8.25</v>
+        <v>7.49</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1.42</v>
+        <v>2.49</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>8.59</v>
+        <v>7.53</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.7</v>
+        <v>-0.78</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>8.8</v>
+        <v>8.39</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>8.95</v>
+        <v>8.47</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,16 +63,19 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2022 - abr. 2023</t>
+    <t xml:space="preserve">dic.2022 - may. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">mar. 2023 - abr. 2023</t>
+    <t xml:space="preserve">abr. 2023 - may. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">mar. 2022 - abr. 2023</t>
+    <t xml:space="preserve">may. 2022 - may. 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
@@ -81,112 +84,88 @@
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelia, Mich</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
@@ -195,43 +174,64 @@
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q. R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.58</v>
+        <v>-0.65</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-1.4</v>
+        <v>-0.07</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.66</v>
+        <v>3.49</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1.54</v>
+        <v>0.9</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.11</v>
+        <v>-0.78</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4.8</v>
+        <v>4.45</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.35</v>
+        <v>-2.33</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.13</v>
+        <v>-3.81</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>5.08</v>
+        <v>4.54</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>5.18</v>
+        <v>4.66</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>5.33</v>
+        <v>4.69</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.6</v>
+        <v>-0.01</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.27</v>
+        <v>-1.56</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>5.42</v>
+        <v>4.92</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-0.05</v>
+        <v>1.81</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-1.06</v>
+        <v>0.01</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>5.49</v>
+        <v>5.02</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.8</v>
+        <v>-0.4</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>5.68</v>
+        <v>5.19</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.57</v>
+        <v>0.07</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>5.71</v>
+        <v>5.31</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5.71</v>
+        <v>5.32</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.79</v>
+        <v>5.33</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.28</v>
+        <v>0.29</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-0.07</v>
+        <v>0.34</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.8</v>
+        <v>5.33</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.85</v>
+        <v>1.16</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.88</v>
+        <v>5.35</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.02</v>
+        <v>2.08</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-1.32</v>
+        <v>-0.04</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>5.93</v>
+        <v>5.36</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.97</v>
+        <v>-1.99</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-0.08</v>
+        <v>-3.77</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5.93</v>
+        <v>5.42</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-0.26</v>
+        <v>1.85</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-0.83</v>
+        <v>0.1</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5.99</v>
+        <v>5.54</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>6.03</v>
+        <v>5.59</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.2</v>
+        <v>-0.57</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-1.18</v>
+        <v>-0.04</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>6.08</v>
+        <v>5.66</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-0.53</v>
+        <v>1.63</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-2.5</v>
+        <v>-0.52</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>6.12</v>
+        <v>5.69</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.8</v>
+        <v>1.53</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>-0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>6.13</v>
+        <v>5.69</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>-0.14</v>
+        <v>-0.17</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>6.15</v>
+        <v>5.7</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>-0.9</v>
+        <v>0.33</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>6.19</v>
+        <v>5.73</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>6.19</v>
+        <v>5.75</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.24</v>
+        <v>0.66</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.28</v>
+        <v>-0.19</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6.24</v>
+        <v>5.76</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>-0.02</v>
+        <v>-0.22</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>6.25</v>
+        <v>5.84</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.43</v>
+        <v>0.69</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>6.25</v>
+        <v>5.9</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>6.26</v>
+        <v>5.9</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.85</v>
+        <v>-0.58</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>-1.49</v>
+        <v>-2.41</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>6.32</v>
+        <v>5.93</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1215,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.44</v>
+        <v>-0.11</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>6.33</v>
+        <v>5.97</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>6.39</v>
+        <v>5.99</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.17</v>
+        <v>2.29</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>-0.07</v>
+        <v>0.41</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6.46</v>
+        <v>6.01</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.46</v>
+        <v>2.15</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>-1.06</v>
+        <v>-0.03</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>6.48</v>
+        <v>6.01</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.51</v>
+        <v>6.05</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.54</v>
+        <v>6.06</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.55</v>
+        <v>6.11</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.49</v>
+        <v>1.88</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.55</v>
+        <v>6.14</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>6.57</v>
+        <v>6.16</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>6.58</v>
+        <v>6.19</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.32</v>
+        <v>-0.27</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6.6</v>
+        <v>6.21</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.38</v>
+        <v>2.37</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>6.65</v>
+        <v>6.29</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>6.71</v>
+        <v>6.34</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>-0.22</v>
+        <v>-0.08</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6.74</v>
+        <v>6.37</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>-0.83</v>
+        <v>-0.37</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>7.02</v>
+        <v>6.38</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.86</v>
+        <v>-1.29</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.25</v>
+        <v>-3.08</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>7.05</v>
+        <v>6.4</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.43</v>
+        <v>1.09</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>-1.17</v>
+        <v>0.63</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>7.1</v>
+        <v>6.54</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.18</v>
+        <v>0.98</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>7.12</v>
+        <v>6.54</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>7.13</v>
+        <v>6.57</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.43</v>
+        <v>-2.7</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.76</v>
+        <v>-4.48</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>7.14</v>
+        <v>6.67</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.16</v>
+        <v>1.8</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.36</v>
+        <v>-0.09</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7.15</v>
+        <v>6.7</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.68</v>
+        <v>0.7</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.06</v>
+        <v>0.28</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7.34</v>
+        <v>6.8</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.66</v>
+        <v>1.7</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>-0.74</v>
+        <v>0.26</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7.34</v>
+        <v>6.82</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.06</v>
+        <v>0.93</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.47</v>
+        <v>-1.46</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7.38</v>
+        <v>7.18</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7.49</v>
+        <v>7.22</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.49</v>
+        <v>-0.22</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.15</v>
+        <v>-2.36</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7.53</v>
+        <v>7.39</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>-0.78</v>
+        <v>0.09</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>8.39</v>
+        <v>7.55</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>8.47</v>
+        <v>8.18</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2022 - may. 2023</t>
+    <t xml:space="preserve">dic.2022 - jun. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">abr. 2023 - may. 2023</t>
+    <t xml:space="preserve">may. 2023 - jun. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">may. 2022 - may. 2023</t>
+    <t xml:space="preserve">ago. 2022 - jun. 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
@@ -78,16 +78,16 @@
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
@@ -96,139 +96,139 @@
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tijuana, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">A. M.Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N. L.</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B. C. S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Mexicali, B. C.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q. R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
@@ -739,13 +739,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.65</v>
+        <v>-0.17</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.07</v>
+        <v>0.49</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.49</v>
+        <v>3.08</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.78</v>
+        <v>-0.2</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4.45</v>
+        <v>3.18</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-2.33</v>
+        <v>-0.23</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-3.81</v>
+        <v>-0.21</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.54</v>
+        <v>3.74</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +790,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.31</v>
+        <v>-0.24</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.66</v>
+        <v>3.89</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.14</v>
+        <v>-0.14</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4.69</v>
+        <v>3.9</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +824,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-0.01</v>
+        <v>-2.25</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-1.56</v>
+        <v>0.09</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.92</v>
+        <v>4.01</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.01</v>
+        <v>-0.28</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>5.02</v>
+        <v>4.17</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.14</v>
+        <v>0.1</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>5.19</v>
+        <v>4.28</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +875,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.07</v>
+        <v>1.29</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>5.31</v>
+        <v>4.42</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +892,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.05</v>
+        <v>2.17</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>5.32</v>
+        <v>4.45</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +909,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>0.13</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>5.33</v>
+        <v>4.59</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.29</v>
+        <v>1.47</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>5.33</v>
+        <v>4.6</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +943,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.19</v>
+        <v>-0.08</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.35</v>
+        <v>4.62</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.08</v>
+        <v>0.29</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.22</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>5.36</v>
+        <v>4.64</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +977,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-1.99</v>
+        <v>1.73</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-3.77</v>
+        <v>-0.11</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5.42</v>
+        <v>4.72</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5.54</v>
+        <v>4.74</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1011,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>1.84</v>
+        <v>0.09</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.24</v>
+        <v>-0.2</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>5.59</v>
+        <v>4.74</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1028,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-0.57</v>
+        <v>1.95</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.04</v>
+        <v>-0.29</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>5.66</v>
+        <v>4.79</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1045,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.63</v>
+        <v>0.64</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-0.52</v>
+        <v>-0.05</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>5.69</v>
+        <v>4.8</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1062,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.53</v>
+        <v>0.37</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.1</v>
+        <v>-0.29</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>5.69</v>
+        <v>4.8</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>-0.17</v>
+        <v>0.09</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>5.7</v>
+        <v>4.85</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1096,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.53</v>
+        <v>2.21</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.33</v>
+        <v>-0.04</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5.73</v>
+        <v>4.85</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.25</v>
+        <v>1.58</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.2</v>
+        <v>-0.05</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5.75</v>
+        <v>4.86</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1130,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.66</v>
+        <v>2.43</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-0.19</v>
+        <v>0.28</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>5.76</v>
+        <v>4.86</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.27</v>
+        <v>0.42</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>-0.22</v>
+        <v>-0.1</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>5.84</v>
+        <v>4.89</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1164,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.69</v>
+        <v>-0.41</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>5.9</v>
+        <v>4.96</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1181,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>-0.05</v>
+        <v>-0.17</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>5.9</v>
+        <v>5.02</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1198,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-0.58</v>
+        <v>2.13</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>-2.41</v>
+        <v>0.19</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>5.93</v>
+        <v>5.04</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1218,10 +1218,10 @@
         <v>1.37</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>-0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5.97</v>
+        <v>5.06</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.53</v>
+        <v>-1.67</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>5.99</v>
+        <v>5.15</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1249,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.29</v>
+        <v>1.09</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>6.01</v>
+        <v>5.23</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>2.15</v>
+        <v>1.76</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>6.01</v>
+        <v>5.28</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1283,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>6.05</v>
+        <v>5.32</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.38</v>
+        <v>-0.01</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6.06</v>
+        <v>5.38</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>6.11</v>
+        <v>5.4</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1334,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.88</v>
+        <v>2.52</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6.14</v>
+        <v>5.41</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1351,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>6.16</v>
+        <v>5.53</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1368,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>6.19</v>
+        <v>5.53</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.78</v>
+        <v>-0.47</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>-0.27</v>
+        <v>0.11</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>6.21</v>
+        <v>5.54</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1402,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.37</v>
+        <v>1.89</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>6.29</v>
+        <v>5.58</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>6.34</v>
+        <v>5.58</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1436,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.6</v>
+        <v>2.04</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.06</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>6.37</v>
+        <v>5.63</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1453,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>-0.37</v>
+        <v>-0.08</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>6.38</v>
+        <v>5.67</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1470,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-1.29</v>
+        <v>1.95</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>-3.08</v>
+        <v>0.1</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6.4</v>
+        <v>5.68</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1487,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.63</v>
+        <v>-0.02</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>6.54</v>
+        <v>5.69</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1504,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.98</v>
+        <v>2.58</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6.54</v>
+        <v>5.81</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1521,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.55</v>
+        <v>-1.17</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>6.57</v>
+        <v>5.88</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1538,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-2.7</v>
+        <v>-2.62</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>-4.48</v>
+        <v>0.09</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>6.67</v>
+        <v>5.89</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1555,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>-0.09</v>
+        <v>0.31</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>6.7</v>
+        <v>6.01</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1572,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0.7</v>
+        <v>2.32</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.28</v>
+        <v>0.63</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1589,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.7</v>
+        <v>0.74</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.26</v>
+        <v>-0.18</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>6.82</v>
+        <v>6.36</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1606,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0.93</v>
+        <v>2.69</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>-1.46</v>
+        <v>0.06</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7.18</v>
+        <v>6.65</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1623,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.62</v>
+        <v>1.26</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.13</v>
+        <v>0.55</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7.22</v>
+        <v>6.66</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1640,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-0.22</v>
+        <v>-0.27</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>-2.36</v>
+        <v>-0.05</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7.39</v>
+        <v>6.67</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1657,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.67</v>
+        <v>2.09</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>7.55</v>
+        <v>7.49</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1674,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>8.18</v>
+        <v>7.53</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 12668</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2022 - jun. 2023</t>
+    <t xml:space="preserve">dic.2022 - jul. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">may. 2023 - jun. 2023</t>
+    <t xml:space="preserve">jun. 2023 - jul. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">ago. 2022 - jun. 2023</t>
+    <t xml:space="preserve">jul. 2022 - jul. 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
@@ -78,166 +78,166 @@
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih</t>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B. C.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">A. M.Cd. de México</t>
+    <t xml:space="preserve">Tijuana, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N. L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz, Ver.</t>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich</t>
+    <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S. L. P.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B. C. S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q. R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
 </sst>
 </file>
@@ -259,6 +259,7 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -304,6 +305,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -739,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.17</v>
+        <v>0.22</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.08</v>
+        <v>2.51</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -756,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.7</v>
+        <v>1.43</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.2</v>
+        <v>0.72</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -773,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.23</v>
+        <v>-0.01</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.74</v>
+        <v>3.22</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -790,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.21</v>
+        <v>1.66</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.24</v>
+        <v>0.44</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.89</v>
+        <v>3.59</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -807,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.52</v>
+        <v>-1.59</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.14</v>
+        <v>0.68</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -824,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-2.25</v>
+        <v>0.41</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.09</v>
+        <v>0.71</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.01</v>
+        <v>3.67</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-0.28</v>
+        <v>0.43</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4.17</v>
+        <v>3.9</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -858,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.3</v>
+        <v>2.46</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>4.28</v>
+        <v>3.92</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -875,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4.42</v>
+        <v>3.95</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -892,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.45</v>
+        <v>3.97</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -909,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.98</v>
+        <v>0.35</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.59</v>
+        <v>4.24</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -926,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -943,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.42</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.62</v>
+        <v>4.31</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -960,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.29</v>
+        <v>0.78</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.22</v>
+        <v>0.49</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.64</v>
+        <v>4.36</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -977,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.73</v>
+        <v>2.98</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-0.11</v>
+        <v>0.54</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.72</v>
+        <v>4.42</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -994,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.29</v>
+        <v>2.49</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.74</v>
+        <v>4.46</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1011,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.09</v>
+        <v>1.87</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.2</v>
+        <v>0.51</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.74</v>
+        <v>4.51</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1028,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.29</v>
+        <v>0.56</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.79</v>
+        <v>4.51</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1045,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.64</v>
+        <v>2.01</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.42</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.8</v>
+        <v>4.53</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1062,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.37</v>
+        <v>2.3</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>-0.29</v>
+        <v>0.56</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.8</v>
+        <v>4.56</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1079,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.85</v>
+        <v>4.58</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1096,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.21</v>
+        <v>0.79</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.42</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.85</v>
+        <v>4.58</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1113,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.48</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.86</v>
+        <v>4.66</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1130,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.43</v>
+        <v>2.01</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.86</v>
+        <v>4.67</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1147,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.42</v>
+        <v>2.21</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>-0.1</v>
+        <v>0.16</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.89</v>
+        <v>4.72</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1164,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-0.41</v>
+        <v>0.88</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.96</v>
+        <v>4.76</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1181,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.35</v>
+        <v>2.65</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>-0.17</v>
+        <v>0.68</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>5.02</v>
+        <v>4.77</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1198,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>5.04</v>
+        <v>4.79</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1215,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1.37</v>
+        <v>2.07</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5.06</v>
+        <v>4.79</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1232,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-1.67</v>
+        <v>-0.97</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>5.15</v>
+        <v>4.8</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1249,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.09</v>
+        <v>2.35</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>5.23</v>
+        <v>4.85</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1266,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>5.28</v>
+        <v>4.85</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1283,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.73</v>
+        <v>2.85</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>5.32</v>
+        <v>4.89</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1300,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.58</v>
+        <v>-0.13</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>-0.01</v>
+        <v>0.34</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>5.38</v>
+        <v>4.92</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1317,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.06</v>
+        <v>0.57</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.18</v>
+        <v>0.98</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>5.4</v>
+        <v>5.05</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1334,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>5.41</v>
+        <v>5.1</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1351,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>5.53</v>
+        <v>5.11</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1368,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>-0.13</v>
+        <v>0.43</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>5.53</v>
+        <v>5.16</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1385,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-0.47</v>
+        <v>-0.71</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5.54</v>
+        <v>5.18</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1402,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.89</v>
+        <v>2.34</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.58</v>
+        <v>5.19</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1419,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.58</v>
+        <v>5.22</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1436,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.63</v>
+        <v>5.24</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1453,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.72</v>
+        <v>2.69</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.61</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.67</v>
+        <v>5.25</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1470,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.68</v>
+        <v>5.26</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1487,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.68</v>
+        <v>-2.3</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>-0.02</v>
+        <v>0.33</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.69</v>
+        <v>5.27</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1504,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.81</v>
+        <v>5.37</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1521,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-1.17</v>
+        <v>-0.21</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.88</v>
+        <v>5.39</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1538,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-2.62</v>
+        <v>1.02</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.89</v>
+        <v>5.54</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1555,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.41</v>
+        <v>2.23</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.31</v>
+        <v>0.8</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>6.01</v>
+        <v>5.54</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1572,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>6.1</v>
+        <v>5.65</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1589,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.74</v>
+        <v>3.02</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>-0.18</v>
+        <v>0.63</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>6.36</v>
+        <v>5.65</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1606,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>6.65</v>
+        <v>5.73</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1623,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.55</v>
+        <v>0.26</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>6.66</v>
+        <v>6.3</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1640,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-0.27</v>
+        <v>3.16</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.46</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6.67</v>
+        <v>6.38</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1657,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>2.09</v>
+        <v>3.51</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>7.49</v>
+        <v>6.75</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1674,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>2.95</v>
+        <v>2.61</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>7.53</v>
+        <v>7.35</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 12668</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 10303</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,22 +63,22 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2022 - jul. 2023</t>
+    <t xml:space="preserve">dic.2022 - ago. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">jun. 2023 - jul. 2023</t>
+    <t xml:space="preserve">jul. 2023 - ago. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">jul. 2022 - jul. 2023</t>
+    <t xml:space="preserve">ago. 2022 - ago. 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
@@ -90,10 +90,13 @@
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
@@ -102,46 +105,70 @@
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
@@ -150,19 +177,13 @@
     <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
@@ -171,73 +192,52 @@
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.22</v>
+        <v>0.64</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.51</v>
+        <v>2.24</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1.43</v>
+        <v>0.35</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.08</v>
+        <v>2.63</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.01</v>
+        <v>2.09</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.66</v>
+        <v>2.19</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-1.59</v>
+        <v>-0.95</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.66</v>
+        <v>3.36</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.41</v>
+        <v>0.99</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.67</v>
+        <v>3.52</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.96</v>
+        <v>3.04</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.43</v>
+        <v>0.56</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.9</v>
+        <v>3.67</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.92</v>
+        <v>3.68</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.53</v>
+        <v>0.81</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.95</v>
+        <v>3.78</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.97</v>
+        <v>3.8</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.35</v>
+        <v>2.6</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.26</v>
+        <v>0.58</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.24</v>
+        <v>3.8</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2</v>
+        <v>-0.73</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.3</v>
+        <v>3.99</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.88</v>
+        <v>2.26</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.31</v>
+        <v>4.05</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.78</v>
+        <v>2.55</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.36</v>
+        <v>4.1</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.54</v>
+        <v>0.24</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.42</v>
+        <v>4.11</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.46</v>
+        <v>4.13</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>1.87</v>
+        <v>0.17</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.51</v>
+        <v>4.26</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.56</v>
+        <v>0.84</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.51</v>
+        <v>4.32</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.01</v>
+        <v>2.89</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.42</v>
+        <v>0.92</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.53</v>
+        <v>4.37</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.56</v>
+        <v>0.36</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.56</v>
+        <v>4.38</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.91</v>
+        <v>2.78</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.17</v>
+        <v>0.76</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.79</v>
+        <v>2.68</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.42</v>
+        <v>-0.01</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.12</v>
+        <v>2.98</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>0.48</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.66</v>
+        <v>4.48</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.01</v>
+        <v>-2.03</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.67</v>
+        <v>4.51</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.21</v>
+        <v>1.5</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.72</v>
+        <v>4.51</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.88</v>
+        <v>2.55</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.76</v>
+        <v>4.52</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.65</v>
+        <v>-0.1</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.77</v>
+        <v>4.6</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.79</v>
+        <v>4.61</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.07</v>
+        <v>2.42</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.79</v>
+        <v>4.64</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-0.97</v>
+        <v>2.03</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.8</v>
+        <v>4.69</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.35</v>
+        <v>0.84</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.85</v>
+        <v>4.74</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.41</v>
+        <v>3.01</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.85</v>
+        <v>4.76</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>2.85</v>
+        <v>3.32</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.62</v>
+        <v>0.99</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.89</v>
+        <v>4.76</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-0.13</v>
+        <v>3.09</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.92</v>
+        <v>4.87</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.57</v>
+        <v>1.6</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.98</v>
+        <v>0.72</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>5.05</v>
+        <v>4.91</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2.92</v>
+        <v>0.44</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>5.11</v>
+        <v>4.97</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.12</v>
+        <v>2.51</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.43</v>
+        <v>0.56</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>5.16</v>
+        <v>5</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-0.71</v>
+        <v>2.5</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.47</v>
+        <v>1.08</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5.18</v>
+        <v>5</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.34</v>
+        <v>3.83</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.19</v>
+        <v>5.03</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.94</v>
+        <v>3.56</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.21</v>
+        <v>0.84</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.22</v>
+        <v>5.05</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.24</v>
+        <v>5.11</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1458,10 +1458,10 @@
         <v>2.69</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.55</v>
+        <v>3.54</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-2.3</v>
+        <v>3.12</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.33</v>
+        <v>0.78</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.27</v>
+        <v>5.26</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.04</v>
+        <v>3.36</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-0.21</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.07</v>
+        <v>0.94</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.39</v>
+        <v>5.46</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.02</v>
+        <v>3.8</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.27</v>
+        <v>0.79</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.54</v>
+        <v>5.49</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.23</v>
+        <v>2.86</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.54</v>
+        <v>5.51</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.55</v>
+        <v>4.04</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.59</v>
+        <v>1.67</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>3.02</v>
+        <v>3.24</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.65</v>
+        <v>5.76</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.72</v>
+        <v>3.39</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.73</v>
+        <v>5.76</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.52</v>
+        <v>3.57</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>6.3</v>
+        <v>5.89</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>3.16</v>
+        <v>2.06</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6.38</v>
+        <v>6.12</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,10 +1659,10 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3.51</v>
+        <v>3</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
       <c r="D68" s="3" t="n">
         <v>6.75</v>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>2.61</v>
+        <v>4.52</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.51</v>
+        <v>0.97</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>7.35</v>
+        <v>6.83</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 10303</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 12668</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,37 +63,25 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2022 - ago. 2023</t>
+    <t xml:space="preserve">dic.2022 - sep. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">jul. 2023 - ago. 2023</t>
+    <t xml:space="preserve">ago. 2023 - sep. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">ago. 2022 - ago. 2023</t>
+    <t xml:space="preserve">sep. 2022 - sep. 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
@@ -102,94 +90,100 @@
     <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
+    <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich.</t>
@@ -198,34 +192,40 @@
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>0.64</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>0.41</v>
-      </c>
       <c r="D14" s="3" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.35</v>
+        <v>2.36</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.09</v>
+        <v>1.23</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.19</v>
+        <v>2.7</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.32</v>
+        <v>3.37</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-0.95</v>
+        <v>1.23</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.99</v>
+        <v>2.38</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.52</v>
+        <v>3.49</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3.04</v>
+        <v>-0.51</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.56</v>
+        <v>0.45</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.67</v>
+        <v>3.5</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.81</v>
+        <v>2.93</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.46</v>
+        <v>0.82</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.78</v>
+        <v>3.58</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.99</v>
+        <v>2.76</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.8</v>
+        <v>3.67</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-0.73</v>
+        <v>1.59</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.24</v>
+        <v>0.58</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.99</v>
+        <v>3.68</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.26</v>
+        <v>0.51</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.55</v>
+        <v>3.06</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.54</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.1</v>
+        <v>3.92</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -982,10 +982,10 @@
         <v>2.9</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.11</v>
+        <v>3.94</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.5</v>
+        <v>-0.21</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.17</v>
+        <v>3.23</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.26</v>
+        <v>4.15</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.73</v>
+        <v>2.99</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.84</v>
+        <v>0.42</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.32</v>
+        <v>4.15</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.89</v>
+        <v>2.21</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.92</v>
+        <v>0.18</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.37</v>
+        <v>4.2</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.3</v>
+        <v>-1.61</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.38</v>
+        <v>4.2</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>2.78</v>
+        <v>1.98</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.76</v>
+        <v>0.37</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.47</v>
+        <v>4.21</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.68</v>
+        <v>3.37</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>-0.01</v>
+        <v>0.38</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.47</v>
+        <v>4.24</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.48</v>
+        <v>4.25</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-2.03</v>
+        <v>3.3</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.51</v>
+        <v>4.34</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.5</v>
+        <v>3.58</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.51</v>
+        <v>4.36</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.55</v>
+        <v>1.87</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.52</v>
+        <v>4.38</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-0.1</v>
+        <v>2.84</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.74</v>
+        <v>3.29</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.61</v>
+        <v>4.44</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.03</v>
+        <v>4.08</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.69</v>
+        <v>4.45</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.84</v>
+        <v>4.12</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.74</v>
+        <v>4.51</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.01</v>
+        <v>1.26</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.76</v>
+        <v>4.52</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.32</v>
+        <v>3.14</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.99</v>
+        <v>0.39</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.76</v>
+        <v>4.54</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.09</v>
+        <v>1.1</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.87</v>
+        <v>4.55</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.6</v>
+        <v>3.64</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.91</v>
+        <v>4.55</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.94</v>
+        <v>4.57</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.73</v>
+        <v>3.49</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.97</v>
+        <v>4.59</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.51</v>
+        <v>3.37</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.56</v>
+        <v>0.35</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>5</v>
+        <v>4.64</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.5</v>
+        <v>3.96</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.08</v>
+        <v>0.38</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5</v>
+        <v>4.66</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>3.83</v>
+        <v>1.87</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.03</v>
+        <v>4.72</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>3.56</v>
+        <v>2.97</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.84</v>
+        <v>0.1</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.05</v>
+        <v>4.73</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.51</v>
+        <v>0.24</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.11</v>
+        <v>4.81</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.69</v>
+        <v>2.16</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.56</v>
+        <v>0.42</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.24</v>
+        <v>4.93</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.25</v>
+        <v>4.95</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.12</v>
+        <v>3.04</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.78</v>
+        <v>0.34</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.26</v>
+        <v>5.09</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.36</v>
+        <v>2.89</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.33</v>
+        <v>5.09</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3</v>
+        <v>4.14</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.94</v>
+        <v>0.34</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.46</v>
+        <v>5.17</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.49</v>
+        <v>5.37</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.86</v>
+        <v>4.16</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.51</v>
+        <v>5.38</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>4.04</v>
+        <v>3.7</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.67</v>
+        <v>0.44</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>3.24</v>
+        <v>4.85</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.76</v>
+        <v>5.45</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>3.39</v>
+        <v>4.05</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.76</v>
+        <v>5.51</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>3.57</v>
+        <v>4.49</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.41</v>
+        <v>0.89</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.89</v>
+        <v>5.7</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6.12</v>
+        <v>5.73</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3</v>
+        <v>3.49</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.75</v>
+        <v>6.63</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>4.52</v>
+        <v>5.21</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.83</v>
+        <v>6.73</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 12668</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 12668</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2022 - sep. 2023</t>
+    <t xml:space="preserve">dic.2022 - oct. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">ago. 2023 - sep. 2023</t>
+    <t xml:space="preserve">sep. 2023 - oct. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">sep. 2022 - sep. 2023</t>
+    <t xml:space="preserve">oct. 2022 - oct. 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
@@ -78,40 +78,40 @@
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tijuana, B.C.</t>
+    <t xml:space="preserve">Monterrey, N.L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
+    <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
@@ -120,100 +120,88 @@
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
@@ -222,16 +210,28 @@
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.28</v>
+        <v>3.18</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.64</v>
+        <v>1.88</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.58</v>
+        <v>2.94</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.17</v>
+        <v>-0.06</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.23</v>
+        <v>2.5</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.87</v>
+        <v>-0.2</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.1</v>
+        <v>0.87</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.23</v>
+        <v>-0.38</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.39</v>
+        <v>3.47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.38</v>
+        <v>2.99</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.39</v>
+        <v>0.59</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-0.51</v>
+        <v>3.12</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.35</v>
+        <v>1.62</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.93</v>
+        <v>3.35</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.82</v>
+        <v>1.73</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.76</v>
+        <v>1.65</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.62</v>
+        <v>3.21</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.62</v>
+        <v>0.27</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.67</v>
+        <v>3.74</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.59</v>
+        <v>3.25</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.58</v>
+        <v>-0.12</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.68</v>
+        <v>3.83</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.51</v>
+        <v>0.71</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,10 +962,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.06</v>
+        <v>-1.43</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>3.92</v>
@@ -979,10 +979,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.17</v>
+        <v>-0.04</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>3.94</v>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-0.21</v>
+        <v>-0.03</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.07</v>
+        <v>4</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.23</v>
+        <v>3.83</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.15</v>
+        <v>4.01</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.99</v>
+        <v>3.28</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.15</v>
+        <v>4.04</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.21</v>
+        <v>3.4</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.2</v>
+        <v>4.04</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-1.61</v>
+        <v>2.89</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.2</v>
+        <v>4.07</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.98</v>
+        <v>3.47</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.37</v>
+        <v>1.23</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.21</v>
+        <v>4.07</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.24</v>
+        <v>4.09</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.04</v>
+        <v>3.73</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.25</v>
+        <v>4.14</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.34</v>
+        <v>4.18</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.58</v>
+        <v>3.21</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.36</v>
+        <v>4.2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.87</v>
+        <v>3.71</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.36</v>
+        <v>1.81</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.38</v>
+        <v>4.2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.84</v>
+        <v>4.12</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.4</v>
+        <v>4.21</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.29</v>
+        <v>3.37</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.49</v>
+        <v>1.37</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.44</v>
+        <v>4.24</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.88</v>
+        <v>3.27</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.45</v>
+        <v>4.26</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>4.08</v>
+        <v>3.42</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.45</v>
+        <v>4.32</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.12</v>
+        <v>3.68</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.51</v>
+        <v>4.33</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.26</v>
+        <v>3.96</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.42</v>
+        <v>-0.15</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.52</v>
+        <v>4.38</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.14</v>
+        <v>3.75</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.54</v>
+        <v>4.44</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.1</v>
+        <v>0.82</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.66</v>
+        <v>0.3</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.64</v>
+        <v>3.76</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.31</v>
+        <v>1.57</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.52</v>
+        <v>3.53</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>3.37</v>
+        <v>1.32</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.64</v>
+        <v>4.51</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.96</v>
+        <v>3.89</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>0.38</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.66</v>
+        <v>4.6</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.72</v>
+        <v>4.63</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.97</v>
+        <v>4.73</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.1</v>
+        <v>3.42</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.73</v>
+        <v>4.7</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>3.25</v>
+        <v>3.74</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.81</v>
+        <v>4.75</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.16</v>
+        <v>3.74</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.42</v>
+        <v>0.83</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.93</v>
+        <v>4.75</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.61</v>
+        <v>4.34</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.21</v>
+        <v>1.27</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.95</v>
+        <v>4.8</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.34</v>
+        <v>-0.04</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.09</v>
+        <v>4.89</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.89</v>
+        <v>3.88</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.09</v>
+        <v>4.9</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.34</v>
+        <v>0.07</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.17</v>
+        <v>4.96</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>3.88</v>
+        <v>3.61</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.37</v>
+        <v>4.96</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.38</v>
+        <v>5</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>3.7</v>
+        <v>4.28</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.4</v>
+        <v>5.26</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>4.85</v>
+        <v>4.06</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.78</v>
+        <v>1.59</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.05</v>
+        <v>4.84</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.51</v>
+        <v>5.37</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>4.49</v>
+        <v>5.41</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.7</v>
+        <v>5.51</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.44</v>
+        <v>5.12</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.37</v>
+        <v>0.94</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3.49</v>
+        <v>4.89</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.48</v>
+        <v>1.35</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.63</v>
+        <v>6.24</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>5.21</v>
+        <v>5.33</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.66</v>
+        <v>0.11</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.73</v>
+        <v>6.27</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 12668</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 26862</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 26862</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 10303</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,19 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2022 - oct. 2023</t>
+    <t xml:space="preserve">dic.2022 - nov. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">sep. 2023 - oct. 2023</t>
+    <t xml:space="preserve">oct. 2023 - nov. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">oct. 2022 - oct. 2023</t>
+    <t xml:space="preserve">nov. 2022 - nov. 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
@@ -78,115 +84,109 @@
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N.L.</t>
   </si>
   <si>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cd. Juárez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
+    <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
@@ -195,31 +195,31 @@
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">León, Gto.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche, Camp.</t>
@@ -228,13 +228,13 @@
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>3.18</v>
+        <v>0.38</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1.88</v>
+        <v>-2.44</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.94</v>
+        <v>1.06</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.06</v>
+        <v>-0.14</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.03</v>
+        <v>2.6</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.12</v>
+        <v>2.81</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.87</v>
+        <v>0.38</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.31</v>
+        <v>2.93</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-0.38</v>
+        <v>2.89</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.47</v>
+        <v>3.35</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.59</v>
+        <v>-0.11</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3.12</v>
+        <v>2.53</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.54</v>
+        <v>3.39</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1.62</v>
+        <v>0.39</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.54</v>
+        <v>3.43</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>1.73</v>
+        <v>0.23</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.65</v>
+        <v>3.61</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.42</v>
+        <v>2.88</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.59</v>
+        <v>3.7</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>3.21</v>
+        <v>4.06</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.27</v>
+        <v>4.46</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.74</v>
+        <v>3.71</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.25</v>
+        <v>3.86</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-0.12</v>
+        <v>5.36</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.83</v>
+        <v>3.77</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.71</v>
+        <v>3.81</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.2</v>
+        <v>-0.02</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-1.43</v>
+        <v>3.64</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.18</v>
+        <v>1.96</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.92</v>
+        <v>4.01</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.34</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.94</v>
+        <v>4.02</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-0.03</v>
+        <v>4.19</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.19</v>
+        <v>4.22</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4</v>
+        <v>4.11</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.01</v>
+        <v>4.19</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>3.28</v>
+        <v>4.2</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.21</v>
+        <v>3.35</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.04</v>
+        <v>4.25</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.04</v>
+        <v>4.26</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.89</v>
+        <v>3.88</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.07</v>
+        <v>4.27</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.47</v>
+        <v>4.04</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>1.23</v>
+        <v>0.35</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.07</v>
+        <v>4.27</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.09</v>
+        <v>4.28</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.73</v>
+        <v>3.65</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.17</v>
+        <v>3.93</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.18</v>
+        <v>4.32</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.21</v>
+        <v>3.77</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>1.81</v>
+        <v>0.24</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>4.12</v>
+        <v>4.35</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.04</v>
+        <v>1.11</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>1.37</v>
+        <v>0.21</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.24</v>
+        <v>4.41</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.27</v>
+        <v>3.57</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.38</v>
+        <v>0.69</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.26</v>
+        <v>4.42</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.42</v>
+        <v>4.09</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.32</v>
+        <v>4.42</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3.68</v>
+        <v>3.84</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.33</v>
+        <v>4.43</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.96</v>
+        <v>4.19</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.07</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.38</v>
+        <v>4.43</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.44</v>
+        <v>4.47</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.82</v>
+        <v>4.36</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.76</v>
+        <v>4.38</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>1.57</v>
+        <v>0.62</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.53</v>
+        <v>3.94</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>3.45</v>
+        <v>3.97</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>0.08</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.32</v>
+        <v>4.35</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.51</v>
+        <v>4.76</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.89</v>
+        <v>4.13</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.6</v>
+        <v>4.81</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.18</v>
+        <v>4.62</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.31</v>
+        <v>2.39</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.63</v>
+        <v>4.81</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.73</v>
+        <v>4.61</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>3.42</v>
+        <v>-0.11</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>3.74</v>
+        <v>4.39</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>3.74</v>
+        <v>4.35</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.83</v>
+        <v>0.22</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.75</v>
+        <v>4.88</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>4.34</v>
+        <v>4.59</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>1.27</v>
+        <v>0.23</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.8</v>
+        <v>4.95</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>4.12</v>
+        <v>5.09</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>-0.04</v>
+        <v>1.5</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.89</v>
+        <v>5</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.88</v>
+        <v>5.12</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.18</v>
+        <v>3.75</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>4.12</v>
+        <v>4.26</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.07</v>
+        <v>0.84</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4.96</v>
+        <v>5.03</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>3.61</v>
+        <v>4.7</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4.96</v>
+        <v>5.04</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>3.99</v>
+        <v>4.14</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>4.28</v>
+        <v>4.36</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.31</v>
+        <v>0.6</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>4.06</v>
+        <v>4.23</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.84</v>
+        <v>5.22</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>5.41</v>
+        <v>5.39</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.51</v>
+        <v>5.77</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>5.12</v>
+        <v>5.22</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.94</v>
+        <v>0.32</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.71</v>
+        <v>5.9</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>4.89</v>
+        <v>5.87</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.35</v>
+        <v>0.43</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.24</v>
+        <v>5.93</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>5.33</v>
+        <v>5.64</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.27</v>
+        <v>6.38</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 23313</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 18582</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,178 +63,178 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2022 - dic. 2023</t>
+    <t xml:space="preserve">dic.2023 - ene. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">nov. 2023 - dic. 2023</t>
+    <t xml:space="preserve">dic. 2023 - ene. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">dic. 2022 - dic. 2023</t>
+    <t xml:space="preserve">ene. 2023 - ene. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N.L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.57</v>
+        <v>2.42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.78</v>
+        <v>1.2</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.49</v>
+        <v>3.83</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.04</v>
+        <v>0.77</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.68</v>
+        <v>3.87</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.69</v>
+        <v>3.99</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1.42</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.81</v>
+        <v>3.99</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.84</v>
+        <v>4.03</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.56</v>
+        <v>0.44</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.16</v>
+        <v>4.17</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.36</v>
+        <v>0.82</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,10 +945,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>4.3</v>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.67</v>
+        <v>0.31</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.38</v>
+        <v>4.44</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.55</v>
+        <v>1.14</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.41</v>
+        <v>4.44</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.08</v>
+        <v>1.05</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.46</v>
+        <v>4.68</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.49</v>
+        <v>4.69</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.5</v>
+        <v>4.69</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.52</v>
+        <v>4.7</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.48</v>
+        <v>0.96</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.53</v>
+        <v>4.74</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.58</v>
+        <v>4.79</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.94</v>
+        <v>1.02</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.59</v>
+        <v>4.82</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>0.9</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.59</v>
+        <v>4.83</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.64</v>
+        <v>4.88</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.65</v>
+        <v>4.92</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.56</v>
+        <v>0.79</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.65</v>
+        <v>4.95</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.66</v>
+        <v>4.96</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.67</v>
+        <v>4.98</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.55</v>
+        <v>1.66</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.77</v>
+        <v>4.99</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.52</v>
+        <v>0.83</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.78</v>
+        <v>5.02</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.81</v>
+        <v>5.04</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.47</v>
+        <v>1.4</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.84</v>
+        <v>5.04</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.84</v>
+        <v>5.06</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.63</v>
+        <v>0.9</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.85</v>
+        <v>5.06</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.33</v>
+        <v>0.81</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.93</v>
+        <v>5.09</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.78</v>
+        <v>1.3</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.95</v>
+        <v>5.12</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.07</v>
+        <v>5.16</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.44</v>
+        <v>0.91</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.14</v>
+        <v>5.23</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.22</v>
+        <v>0.59</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.2</v>
+        <v>5.28</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.22</v>
+        <v>5.3</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.28</v>
+        <v>5.51</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.35</v>
+        <v>5.59</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.32</v>
+        <v>1.42</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.42</v>
+        <v>5.63</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.52</v>
+        <v>1.14</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.76</v>
+        <v>5.84</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.56</v>
+        <v>0.69</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.97</v>
+        <v>5.91</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6.23</v>
+        <v>5.93</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.9</v>
+        <v>1.39</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.59</v>
+        <v>6.69</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>7.17</v>
+        <v>7.69</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 18582</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 10303</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,19 +63,19 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - ene. 2024</t>
+    <t xml:space="preserve">dic.2023 - feb. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">dic. 2023 - ene. 2024</t>
+    <t xml:space="preserve">ene. 2024 - feb. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">ene. 2023 - ene. 2024</t>
+    <t xml:space="preserve">mar. 2023 - feb. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
@@ -84,142 +84,130 @@
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
@@ -228,10 +216,22 @@
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1.8</v>
+        <v>-0.64</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.42</v>
+        <v>1.21</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.68</v>
+        <v>-0.46</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.7</v>
+        <v>-0.28</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.64</v>
+        <v>2.85</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.63</v>
+        <v>0.41</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.63</v>
+        <v>-0.22</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.77</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.2</v>
+        <v>0.59</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>1.2</v>
+        <v>-0.31</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.83</v>
+        <v>3.34</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.77</v>
+        <v>-0.25</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.87</v>
+        <v>3.55</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.99</v>
+        <v>3.68</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.5</v>
+        <v>-0.17</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.99</v>
+        <v>3.7</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.77</v>
+        <v>0.35</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.77</v>
+        <v>-0.05</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4.03</v>
+        <v>3.73</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.62</v>
+        <v>-0.1</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.08</v>
+        <v>3.86</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.44</v>
+        <v>0.94</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.17</v>
+        <v>3.89</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.82</v>
+        <v>0.1</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.26</v>
+        <v>3.91</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.91</v>
+        <v>1.31</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.91</v>
+        <v>0.54</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.3</v>
+        <v>3.92</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.31</v>
+        <v>0.69</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.31</v>
+        <v>-0.7</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.4</v>
+        <v>3.93</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.44</v>
+        <v>3.96</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>1.14</v>
+        <v>0.24</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.44</v>
+        <v>3.99</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.4</v>
+        <v>-0.28</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.47</v>
+        <v>4.01</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.05</v>
+        <v>0.47</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>1.05</v>
+        <v>-0.82</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.48</v>
+        <v>4.03</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.62</v>
+        <v>0.17</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.52</v>
+        <v>4.04</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.65</v>
+        <v>1.17</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.68</v>
+        <v>4.06</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.82</v>
+        <v>1.19</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.82</v>
+        <v>0.57</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.69</v>
+        <v>4.09</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.98</v>
+        <v>0.53</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.69</v>
+        <v>4.12</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.65</v>
+        <v>0.81</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.7</v>
+        <v>4.14</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.96</v>
+        <v>-0.25</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.74</v>
+        <v>4.21</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.9</v>
+        <v>-0.2</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.79</v>
+        <v>4.23</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.02</v>
+        <v>0.51</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>1.02</v>
+        <v>0.07</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.82</v>
+        <v>4.27</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.9</v>
+        <v>-0.15</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.83</v>
+        <v>4.27</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.89</v>
+        <v>1.07</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.89</v>
+        <v>0.07</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.88</v>
+        <v>4.27</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.92</v>
+        <v>4.35</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.79</v>
+        <v>1.16</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.79</v>
+        <v>0.14</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.95</v>
+        <v>4.39</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.7</v>
+        <v>0.99</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.7</v>
+        <v>0.09</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.96</v>
+        <v>4.4</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.98</v>
+        <v>4.42</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.66</v>
+        <v>1.07</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>1.66</v>
+        <v>0.26</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.99</v>
+        <v>4.48</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>5.02</v>
+        <v>4.55</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.72</v>
+        <v>1.61</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>5.04</v>
+        <v>4.57</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>1.4</v>
+        <v>-0.33</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>5.04</v>
+        <v>4.63</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.62</v>
+        <v>1.26</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.62</v>
+        <v>0.39</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>5.06</v>
+        <v>4.77</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>5.06</v>
+        <v>4.84</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0.81</v>
+        <v>1.16</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5.09</v>
+        <v>4.86</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.12</v>
+        <v>4.87</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.16</v>
+        <v>4.88</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1441,10 +1441,10 @@
         <v>0.91</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.91</v>
+        <v>0.15</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.19</v>
+        <v>4.93</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0.45</v>
+        <v>1.35</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.23</v>
+        <v>4.97</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.94</v>
+        <v>0.33</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.23</v>
+        <v>4.99</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.59</v>
+        <v>1.37</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.28</v>
+        <v>5</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.87</v>
+        <v>1.85</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.3</v>
+        <v>5.11</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.9</v>
+        <v>0.66</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.9</v>
+        <v>0.21</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.32</v>
+        <v>5.23</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.4</v>
+        <v>0.81</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>1.4</v>
+        <v>-0.32</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.51</v>
+        <v>5.24</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.76</v>
+        <v>2</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.76</v>
+        <v>1.27</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.59</v>
+        <v>5.29</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.42</v>
+        <v>0.27</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.63</v>
+        <v>5.38</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.44</v>
+        <v>1.42</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.66</v>
+        <v>5.43</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>1.14</v>
+        <v>0.23</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.84</v>
+        <v>5.59</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0.69</v>
+        <v>1.7</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.91</v>
+        <v>5.72</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.05</v>
+        <v>0.66</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.93</v>
+        <v>5.89</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.39</v>
+        <v>0.07</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.69</v>
+        <v>6.25</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1.62</v>
+        <v>0.73</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1.62</v>
+        <v>-0.87</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>7.69</v>
+        <v>6.75</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 10303</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,40 +63,55 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - feb. 2024</t>
+    <t xml:space="preserve">dic.2023 - mar. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">ene. 2024 - feb. 2024</t>
+    <t xml:space="preserve">feb. 2024 - mar. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">mar. 2023 - feb. 2024</t>
+    <t xml:space="preserve">abr. 2023 - mar. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz,Ver.</t>
@@ -105,94 +120,85 @@
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
+    <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
@@ -204,34 +210,28 @@
     <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.64</v>
+        <v>0.31</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.46</v>
+        <v>0.12</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2.83</v>
+        <v>3.11</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.42</v>
+        <v>0.93</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.28</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2.85</v>
+        <v>3.23</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.41</v>
+        <v>1.29</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.22</v>
+        <v>0.49</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.31</v>
+        <v>0.21</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.25</v>
+        <v>-0.1</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.68</v>
+        <v>3.56</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>0.48</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>-0.17</v>
-      </c>
       <c r="D21" s="3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.16</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.73</v>
+        <v>3.61</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.8</v>
+        <v>1.28</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-0.1</v>
+        <v>-0.04</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.86</v>
+        <v>3.64</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.64</v>
+        <v>-0.14</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.89</v>
+        <v>3.7</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.41</v>
+        <v>0.95</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.91</v>
+        <v>3.86</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.69</v>
+        <v>1.35</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-0.7</v>
+        <v>0.18</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.24</v>
+        <v>0.64</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.62</v>
+        <v>0.94</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.28</v>
+        <v>0.32</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.01</v>
+        <v>4.14</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.03</v>
+        <v>4.19</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.79</v>
+        <v>1.22</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.04</v>
+        <v>4.22</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.06</v>
+        <v>4.22</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.09</v>
+        <v>4.26</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.03</v>
+        <v>0.74</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.12</v>
+        <v>4.26</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.81</v>
+        <v>1.39</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.14</v>
+        <v>4.26</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.21</v>
+        <v>4.29</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.7</v>
+        <v>1.48</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>-0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.23</v>
+        <v>4.39</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.51</v>
+        <v>1.28</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.07</v>
+        <v>0.29</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.27</v>
+        <v>4.42</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.79</v>
+        <v>1.01</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>-0.15</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.27</v>
+        <v>4.42</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.07</v>
+        <v>0.44</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.27</v>
+        <v>4.44</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.95</v>
+        <v>1.25</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.35</v>
+        <v>4.46</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.16</v>
+        <v>0.71</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.14</v>
+        <v>-0.38</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.39</v>
+        <v>4.47</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.99</v>
+        <v>1.74</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.4</v>
+        <v>4.48</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.42</v>
+        <v>4.51</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.48</v>
+        <v>4.52</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.78</v>
+        <v>0.33</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,10 +1336,10 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>-0.33</v>
+        <v>0.45</v>
       </c>
       <c r="D49" s="3" t="n">
         <v>4.63</v>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.77</v>
+        <v>4.64</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.09</v>
+        <v>1.58</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.84</v>
+        <v>4.68</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.86</v>
+        <v>4.68</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.05</v>
+        <v>0.58</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.45</v>
+        <v>-0.08</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.87</v>
+        <v>4.8</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.92</v>
+        <v>1.19</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.88</v>
+        <v>4.83</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.91</v>
+        <v>2.12</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.93</v>
+        <v>4.83</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.97</v>
+        <v>4.84</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.92</v>
+        <v>1.47</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.99</v>
+        <v>4.86</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5</v>
+        <v>4.89</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.11</v>
+        <v>4.93</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.66</v>
+        <v>1.56</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.23</v>
+        <v>4.97</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0.81</v>
+        <v>2.39</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>-0.32</v>
+        <v>0.39</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.24</v>
+        <v>5.04</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>1.27</v>
+        <v>0.24</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.1</v>
+        <v>1.77</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.27</v>
+        <v>0.07</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.38</v>
+        <v>5.27</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.43</v>
+        <v>5.31</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.23</v>
+        <v>-0.06</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.59</v>
+        <v>5.42</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.72</v>
+        <v>5.51</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1.35</v>
+        <v>2.06</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.89</v>
+        <v>5.69</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.07</v>
+        <v>0.15</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.25</v>
+        <v>5.84</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.73</v>
+        <v>0.99</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>-0.87</v>
+        <v>0.26</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.75</v>
+        <v>6.56</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,22 +63,16 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - mar. 2024</t>
+    <t xml:space="preserve">dic.2023 - abr. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">feb. 2024 - mar. 2024</t>
+    <t xml:space="preserve">mar. 2024 - abr. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">abr. 2023 - mar. 2024</t>
+    <t xml:space="preserve">may. 2023 - abr. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
@@ -87,151 +81,157 @@
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">León, Gto.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Monterrey, N.L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tijuana, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.53</v>
+        <v>-0.1</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.12</v>
+        <v>-1.37</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.11</v>
+        <v>3.44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.93</v>
+        <v>1.09</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.23</v>
+        <v>3.67</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.49</v>
+        <v>-0.08</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.63</v>
+        <v>1.54</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.45</v>
+        <v>3.78</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.25</v>
+        <v>1.81</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.56</v>
+        <v>3.85</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.21</v>
+        <v>-0.03</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.48</v>
+        <v>-0.91</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.6</v>
+        <v>3.86</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.75</v>
+        <v>1.71</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.16</v>
+        <v>0.78</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.61</v>
+        <v>3.9</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.28</v>
+        <v>0.05</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-0.04</v>
+        <v>-1.29</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.64</v>
+        <v>4.07</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.89</v>
+        <v>1.51</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-0.14</v>
+        <v>0.22</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.95</v>
+        <v>-0.06</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.46</v>
+        <v>-0.96</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.86</v>
+        <v>4.23</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.88</v>
+        <v>4.32</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1.35</v>
+        <v>2.22</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.95</v>
+        <v>4.34</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.91</v>
+        <v>1.3</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.09</v>
+        <v>4.39</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.94</v>
+        <v>0.25</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.32</v>
+        <v>-0.78</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.14</v>
+        <v>4.39</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.22</v>
+        <v>2.35</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.41</v>
+        <v>1.13</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.22</v>
+        <v>4.47</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.26</v>
+        <v>4.49</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.74</v>
+        <v>2.06</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.05</v>
+        <v>0.63</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.26</v>
+        <v>4.58</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.26</v>
+        <v>4.6</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.35</v>
+        <v>-0.07</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.29</v>
+        <v>4.63</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.48</v>
+        <v>0.9</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.19</v>
+        <v>-0.48</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.39</v>
+        <v>4.63</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.28</v>
+        <v>2.26</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.29</v>
+        <v>0.13</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.42</v>
+        <v>4.64</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.42</v>
+        <v>4.65</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.95</v>
+        <v>1.53</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.44</v>
+        <v>0.82</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.44</v>
+        <v>4.67</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.46</v>
+        <v>4.68</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.71</v>
+        <v>1.45</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>-0.38</v>
+        <v>0.5</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.47</v>
+        <v>4.71</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.48</v>
+        <v>4.71</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.7</v>
+        <v>-0.86</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.27</v>
+        <v>-3.05</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.51</v>
+        <v>4.72</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.52</v>
+        <v>4.72</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.53</v>
+        <v>4.73</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.94</v>
+        <v>0.22</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.33</v>
+        <v>-0.49</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.61</v>
+        <v>4.74</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.63</v>
+        <v>4.75</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.1</v>
+        <v>0.44</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.19</v>
+        <v>-0.91</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.64</v>
+        <v>4.79</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.78</v>
+        <v>0.48</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.68</v>
+        <v>4.81</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.44</v>
+        <v>1.69</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.29</v>
+        <v>0.46</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.68</v>
+        <v>4.81</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>-0.08</v>
+        <v>-1.03</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.19</v>
+        <v>0.67</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.1</v>
+        <v>-0.89</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.83</v>
+        <v>4.86</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.83</v>
+        <v>5.03</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.5</v>
+        <v>1.97</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.84</v>
+        <v>5.06</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.55</v>
+        <v>-0.76</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.86</v>
+        <v>5.11</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.16</v>
+        <v>0.95</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.89</v>
+        <v>5.11</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.93</v>
+        <v>5.23</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.5</v>
+        <v>-0.54</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4.97</v>
+        <v>5.26</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.39</v>
+        <v>1.48</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.04</v>
+        <v>5.3</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1.05</v>
+        <v>0.77</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.24</v>
+        <v>-0.91</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.1</v>
+        <v>5.38</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.77</v>
+        <v>2.13</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.07</v>
+        <v>0.77</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.87</v>
+        <v>0.14</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.31</v>
+        <v>5.4</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>-0.06</v>
+        <v>0.78</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.42</v>
+        <v>5.53</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.06</v>
+        <v>2.27</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.69</v>
+        <v>5.61</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.61</v>
+        <v>2.29</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.15</v>
+        <v>0.68</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5.84</v>
+        <v>6.09</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.99</v>
+        <v>1.31</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.56</v>
+        <v>6.39</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de noviembre 10303</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - abr. 2024</t>
+    <t xml:space="preserve">dic.2023 - may. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">mar. 2024 - abr. 2024</t>
+    <t xml:space="preserve">abr. 2024 - may. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">may. 2023 - abr. 2024</t>
+    <t xml:space="preserve">jun. 2023 - may. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
@@ -78,34 +78,31 @@
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
@@ -114,100 +111,100 @@
     <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
@@ -216,25 +213,28 @@
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-0.1</v>
+        <v>-0.21</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-1.37</v>
+        <v>-0.11</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.09</v>
+        <v>-1.13</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.46</v>
+        <v>-2.59</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.08</v>
+        <v>-0.23</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.73</v>
+        <v>3.58</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.78</v>
+        <v>3.89</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.81</v>
+        <v>-3</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.08</v>
+        <v>-4.62</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.8</v>
+        <v>3.93</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.39</v>
+        <v>0.41</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.85</v>
+        <v>3.96</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.03</v>
+        <v>1.9</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.91</v>
+        <v>0.1</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.86</v>
+        <v>4.02</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.71</v>
+        <v>0.31</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.78</v>
+        <v>-1.11</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-1.29</v>
+        <v>-0.14</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-0.06</v>
+        <v>1.81</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-0.96</v>
+        <v>0.27</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.23</v>
+        <v>4.18</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.53</v>
+        <v>0.49</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.58</v>
+        <v>-1.7</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>2.22</v>
+        <v>0.25</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.34</v>
+        <v>4.21</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.3</v>
+        <v>-2.53</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>1.05</v>
+        <v>-3.98</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.38</v>
+        <v>4.27</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,10 +996,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.57</v>
+        <v>-1.66</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.62</v>
+        <v>-3.28</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>4.39</v>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.25</v>
+        <v>1.71</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.78</v>
+        <v>0.14</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.39</v>
+        <v>4.43</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,10 +1030,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.7</v>
+        <v>-2.5</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.21</v>
+        <v>-4.65</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>4.45</v>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.35</v>
+        <v>0.54</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>1.13</v>
+        <v>-1.12</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.33</v>
+        <v>2.39</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.5</v>
+        <v>0.38</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.49</v>
+        <v>-1.67</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.67</v>
+        <v>-1.3</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.15</v>
+        <v>-3.15</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.4</v>
+        <v>0.46</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-0.07</v>
+        <v>0.21</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.9</v>
+        <v>0.48</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>-0.48</v>
+        <v>0.42</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.63</v>
+        <v>4.59</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.26</v>
+        <v>1.51</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.65</v>
+        <v>4.63</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.82</v>
+        <v>1.05</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.67</v>
+        <v>4.63</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.33</v>
+        <v>-0.19</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.68</v>
+        <v>4.69</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,10 +1234,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>4.71</v>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.97</v>
+        <v>0.66</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.71</v>
+        <v>4.73</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-0.86</v>
+        <v>0.56</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>-3.05</v>
+        <v>0.35</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.72</v>
+        <v>4.76</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.72</v>
+        <v>4.83</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.84</v>
+        <v>0.74</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1.08</v>
+        <v>0.09</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.73</v>
+        <v>4.86</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>-0.49</v>
+        <v>0.39</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.74</v>
+        <v>4.9</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.55</v>
+        <v>0.13</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.75</v>
+        <v>4.92</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.44</v>
+        <v>1.04</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>-0.91</v>
+        <v>0.14</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.79</v>
+        <v>4.93</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.48</v>
+        <v>-0.14</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.81</v>
+        <v>4.96</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.81</v>
+        <v>4.98</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0.64</v>
+        <v>2.28</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>-1.03</v>
+        <v>0.22</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.81</v>
+        <v>4.99</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.67</v>
+        <v>-0.6</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>-0.89</v>
+        <v>0.26</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.86</v>
+        <v>5.04</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.75</v>
+        <v>2.48</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.03</v>
+        <v>5.04</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.97</v>
+        <v>2.45</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.06</v>
+        <v>5.05</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,10 +1472,10 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>-0.76</v>
+        <v>0.38</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>5.11</v>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.95</v>
+        <v>-0.16</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.11</v>
+        <v>5.15</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.17</v>
+        <v>1.71</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.23</v>
+        <v>5.2</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>-0.54</v>
+        <v>0.33</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,10 +1540,10 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>5.3</v>
@@ -1557,10 +1557,10 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.77</v>
+        <v>2.32</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>-0.91</v>
+        <v>0.24</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>5.38</v>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.13</v>
+        <v>2.35</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.77</v>
+        <v>0.05</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.4</v>
+        <v>5.54</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.78</v>
+        <v>0.12</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.53</v>
+        <v>5.59</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.54</v>
+        <v>5.66</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.82</v>
+        <v>-0.38</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.61</v>
+        <v>5.72</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>2.29</v>
+        <v>3.16</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.31</v>
+        <v>-0.14</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.39</v>
+        <v>6.63</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de noviembre 10303</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,88 +63,79 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - may. 2024</t>
+    <t xml:space="preserve">dic.2023 - jun. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">abr. 2024 - may. 2024</t>
+    <t xml:space="preserve">may. 2024 - jun. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">jun. 2023 - may. 2024</t>
+    <t xml:space="preserve">jul. 2023 - jun. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
@@ -153,7 +144,10 @@
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
@@ -162,13 +156,10 @@
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N.L.</t>
@@ -177,16 +168,28 @@
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
@@ -195,49 +198,46 @@
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-0.21</v>
+        <v>-1.12</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.11</v>
+        <v>0.01</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-1.13</v>
+        <v>-2.91</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-2.59</v>
+        <v>-0.42</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.55</v>
+        <v>3.91</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.3</v>
+        <v>-0.05</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.23</v>
+        <v>0.16</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.58</v>
+        <v>3.98</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.89</v>
+        <v>3.99</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-3</v>
+        <v>0.8</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-4.62</v>
+        <v>0.26</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.93</v>
+        <v>4.01</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.41</v>
+        <v>2.29</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.96</v>
+        <v>4.04</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.1</v>
+        <v>-0.51</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.31</v>
+        <v>1.86</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-1.11</v>
+        <v>0.55</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4.05</v>
+        <v>4.07</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-0.14</v>
+        <v>0.04</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.06</v>
+        <v>4.14</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2</v>
+        <v>0.69</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.06</v>
+        <v>4.3</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.81</v>
+        <v>0.4</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.27</v>
+        <v>-0.09</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.18</v>
+        <v>4.33</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.49</v>
+        <v>-2.13</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>-1.7</v>
+        <v>0.42</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.2</v>
+        <v>4.36</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.25</v>
+        <v>-2.48</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.21</v>
+        <v>4.4</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-2.53</v>
+        <v>2.09</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-3.98</v>
+        <v>0.09</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.27</v>
+        <v>4.4</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-1.66</v>
+        <v>2.13</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-3.28</v>
+        <v>0.37</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.39</v>
+        <v>4.42</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.43</v>
+        <v>4.52</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-2.5</v>
+        <v>1.85</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-4.65</v>
+        <v>0.04</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.45</v>
+        <v>4.56</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.54</v>
+        <v>-1.25</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-1.12</v>
+        <v>0.42</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.46</v>
+        <v>4.69</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.39</v>
+        <v>0.68</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.38</v>
+        <v>1.25</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>-1.67</v>
+        <v>0.59</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.5</v>
+        <v>4.77</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.81</v>
+        <v>0.65</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.52</v>
+        <v>4.79</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-1.3</v>
+        <v>1.76</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>-3.15</v>
+        <v>0.24</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.54</v>
+        <v>4.8</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.46</v>
+        <v>2.58</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.21</v>
+        <v>0.52</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.58</v>
+        <v>4.86</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.48</v>
+        <v>2.31</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.59</v>
+        <v>4.91</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.51</v>
+        <v>2.3</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.62</v>
+        <v>4.97</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.63</v>
+        <v>4.98</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>1.05</v>
+        <v>0.36</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.63</v>
+        <v>4.99</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1.29</v>
+        <v>-0.88</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>-0.19</v>
+        <v>0.43</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.69</v>
+        <v>5.04</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.63</v>
+        <v>0.71</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.71</v>
+        <v>5.04</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.66</v>
+        <v>1.15</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.73</v>
+        <v>5.06</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.56</v>
+        <v>2.26</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.76</v>
+        <v>5.07</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.59</v>
+        <v>1.29</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.83</v>
+        <v>5.08</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.74</v>
+        <v>1.87</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.86</v>
+        <v>5.11</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.9</v>
+        <v>5.12</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.92</v>
+        <v>5.13</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.04</v>
+        <v>2.71</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.93</v>
+        <v>5.14</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.55</v>
+        <v>0.99</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>-0.14</v>
+        <v>0.52</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.96</v>
+        <v>5.18</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.19</v>
+        <v>2.81</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.98</v>
+        <v>5.22</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.22</v>
+        <v>-0.16</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.99</v>
+        <v>5.28</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-0.6</v>
+        <v>2.66</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.04</v>
+        <v>5.3</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.48</v>
+        <v>-0.13</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.04</v>
+        <v>5.37</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1458,10 +1458,10 @@
         <v>2.45</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.92</v>
+        <v>0.26</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.05</v>
+        <v>5.43</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.91</v>
+        <v>2.99</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.11</v>
+        <v>5.43</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>-0.16</v>
+        <v>0.8</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.15</v>
+        <v>5.49</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1.71</v>
+        <v>2.35</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.19</v>
+        <v>0.52</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.2</v>
+        <v>5.53</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.25</v>
+        <v>5.59</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.06</v>
+        <v>2.35</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.3</v>
+        <v>5.63</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.24</v>
+        <v>-0.5</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.38</v>
+        <v>5.63</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.38</v>
+        <v>5.77</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.67</v>
+        <v>0.36</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.54</v>
+        <v>5.81</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.4</v>
+        <v>1.69</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.59</v>
+        <v>5.82</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.13</v>
+        <v>2.81</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.66</v>
+        <v>5.97</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1.9</v>
+        <v>3.08</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>-0.38</v>
+        <v>0.72</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.72</v>
+        <v>6.17</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3.16</v>
+        <v>1.5</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.08</v>
+        <v>6.31</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1.17</v>
+        <v>3.13</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>-0.14</v>
+        <v>0.79</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.63</v>
+        <v>6.36</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 11486</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,16 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - jun. 2024</t>
+    <t xml:space="preserve">dic.2023 - jul. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">may. 2024 - jun. 2024</t>
+    <t xml:space="preserve">jun. 2024 - jul. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">jul. 2023 - jun. 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">ago. 2023 - jul. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
@@ -81,91 +78,73 @@
     <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Monterrey, N.L.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Torreón, Coah.</t>
@@ -174,70 +153,91 @@
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2.57</v>
+        <v>-0.45</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.25</v>
+        <v>0.68</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.42</v>
+        <v>3.78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-1.12</v>
+        <v>-2.17</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.01</v>
+        <v>0.77</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.44</v>
+        <v>4.37</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-2.91</v>
+        <v>2.86</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.42</v>
+        <v>0.56</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.91</v>
+        <v>4.45</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-0.05</v>
+        <v>1.07</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.16</v>
+        <v>0.73</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.98</v>
+        <v>4.46</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.99</v>
+        <v>4.49</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.26</v>
+        <v>1.06</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.01</v>
+        <v>4.65</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.29</v>
+        <v>-1.12</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.38</v>
+        <v>1.03</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4.04</v>
+        <v>4.69</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.63</v>
+        <v>2.99</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.51</v>
+        <v>1.06</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>4.04</v>
+        <v>4.74</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.86</v>
+        <v>-1.44</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.55</v>
+        <v>1.07</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4.07</v>
+        <v>4.8</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.35</v>
+        <v>1.47</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.04</v>
+        <v>0.81</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.14</v>
+        <v>4.88</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.69</v>
+        <v>0.45</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.3</v>
+        <v>4.95</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.4</v>
+        <v>1.74</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-0.09</v>
+        <v>1.04</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.33</v>
+        <v>4.97</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-2.13</v>
+        <v>3.21</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.42</v>
+        <v>1.07</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.36</v>
+        <v>5.04</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-2.48</v>
+        <v>3.18</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.54</v>
+        <v>1.07</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.4</v>
+        <v>5.05</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.09</v>
+        <v>5.44</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.09</v>
+        <v>2.8</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.4</v>
+        <v>5.06</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.13</v>
+        <v>1.34</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.37</v>
+        <v>0.94</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.42</v>
+        <v>5.08</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.75</v>
+        <v>2.81</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.34</v>
+        <v>1.16</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.52</v>
+        <v>5.08</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.85</v>
+        <v>-0.39</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.56</v>
+        <v>5.1</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-1.25</v>
+        <v>1.9</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.42</v>
+        <v>0.65</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.69</v>
+        <v>5.17</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.68</v>
+        <v>2.97</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.75</v>
+        <v>5.22</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.25</v>
+        <v>2.83</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.59</v>
+        <v>0.96</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.65</v>
+        <v>3.55</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.11</v>
+        <v>0.72</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.79</v>
+        <v>5.34</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.76</v>
+        <v>1.97</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.24</v>
+        <v>0.81</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.8</v>
+        <v>5.39</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.52</v>
+        <v>0.97</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.86</v>
+        <v>5.4</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.31</v>
+        <v>1.91</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.59</v>
+        <v>1.15</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.91</v>
+        <v>5.45</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.97</v>
+        <v>5.48</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.68</v>
+        <v>2.95</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.38</v>
+        <v>1.06</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.98</v>
+        <v>5.49</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.99</v>
+        <v>1.43</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.99</v>
+        <v>5.5</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-0.88</v>
+        <v>3.6</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.43</v>
+        <v>1.7</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5.04</v>
+        <v>5.53</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.71</v>
+        <v>2.74</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.33</v>
+        <v>1.05</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>5.04</v>
+        <v>5.57</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.15</v>
+        <v>3.95</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.41</v>
+        <v>1.34</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>5.06</v>
+        <v>5.6</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>2.26</v>
+        <v>3.33</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.06</v>
+        <v>1.01</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>5.07</v>
+        <v>5.62</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.29</v>
+        <v>2.62</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.25</v>
+        <v>0.92</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>5.08</v>
+        <v>5.67</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.87</v>
+        <v>3.29</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.16</v>
+        <v>1.27</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>5.11</v>
+        <v>5.7</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>5.12</v>
+        <v>5.7</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2.12</v>
+        <v>3.13</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.21</v>
+        <v>1.34</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>5.13</v>
+        <v>5.73</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.71</v>
+        <v>2.12</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.32</v>
+        <v>1.44</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>5.14</v>
+        <v>5.78</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.99</v>
+        <v>3.62</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.52</v>
+        <v>0.93</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>5.18</v>
+        <v>5.79</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.81</v>
+        <v>4.07</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.35</v>
+        <v>1.32</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5.22</v>
+        <v>5.8</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.68</v>
+        <v>2.28</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>-0.16</v>
+        <v>0.58</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.28</v>
+        <v>5.89</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.38</v>
+        <v>0.97</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.3</v>
+        <v>5.93</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-0.13</v>
+        <v>0.03</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.48</v>
+        <v>0.92</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.37</v>
+        <v>5.93</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.26</v>
+        <v>1.35</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.43</v>
+        <v>6.09</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>2.99</v>
+        <v>3.31</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.43</v>
+        <v>6.15</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.37</v>
+        <v>3.83</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.8</v>
+        <v>1.68</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.49</v>
+        <v>6.3</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.35</v>
+        <v>3.85</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.52</v>
+        <v>1.36</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.53</v>
+        <v>6.33</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>2.12</v>
+        <v>3.99</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.59</v>
+        <v>6.44</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.35</v>
+        <v>4.25</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.29</v>
+        <v>1.23</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.63</v>
+        <v>6.46</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.65</v>
+        <v>3.44</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>-0.5</v>
+        <v>1.29</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.63</v>
+        <v>6.5</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.49</v>
+        <v>1.06</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.77</v>
+        <v>6.52</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>2.27</v>
+        <v>3.34</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.36</v>
+        <v>1.26</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.81</v>
+        <v>6.64</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.69</v>
+        <v>2.82</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.55</v>
+        <v>1.43</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.82</v>
+        <v>6.66</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.81</v>
+        <v>3.71</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.4</v>
+        <v>1.41</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.97</v>
+        <v>6.72</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>3.08</v>
+        <v>4.6</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.72</v>
+        <v>1.42</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6.17</v>
+        <v>7.01</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.5</v>
+        <v>4.48</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.33</v>
+        <v>1.78</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.31</v>
+        <v>7.07</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>3.13</v>
+        <v>2.53</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.79</v>
+        <v>1.02</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.36</v>
+        <v>7.38</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 11486</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - jul. 2024</t>
+    <t xml:space="preserve">dic.2023 - ago. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">jun. 2024 - jul. 2024</t>
+    <t xml:space="preserve">jul. 2024 - ago. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">ago. 2023 - jul. 2024</t>
+    <t xml:space="preserve">sep. 2023 - ago. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -75,76 +75,64 @@
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Torreón, Coah.</t>
@@ -153,88 +141,100 @@
     <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.68</v>
+        <v>0.01</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-2.17</v>
+        <v>1.23</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.77</v>
+        <v>0.15</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4.37</v>
+        <v>3.82</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.86</v>
+        <v>0.92</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.56</v>
+        <v>-0.09</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4.45</v>
+        <v>3.82</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.07</v>
+        <v>2.89</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.73</v>
+        <v>0.02</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.46</v>
+        <v>4.11</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.4</v>
+        <v>2.86</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.6</v>
+        <v>-0.31</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4.49</v>
+        <v>4.18</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.01</v>
+        <v>-1.37</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>1.06</v>
+        <v>0.07</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-1.12</v>
+        <v>2.89</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1.03</v>
+        <v>0.08</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4.69</v>
+        <v>4.25</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2.99</v>
+        <v>3.14</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1.06</v>
+        <v>0.15</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>4.74</v>
+        <v>4.27</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-1.44</v>
+        <v>1.58</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4.8</v>
+        <v>4.32</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.47</v>
+        <v>3.17</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.81</v>
+        <v>0.19</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.88</v>
+        <v>4.38</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.45</v>
+        <v>-1.82</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.95</v>
+        <v>4.45</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.74</v>
+        <v>3.25</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1.04</v>
+        <v>0.03</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.97</v>
+        <v>4.46</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.21</v>
+        <v>-0.96</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1.07</v>
+        <v>0.16</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>5.04</v>
+        <v>4.61</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.18</v>
+        <v>5.58</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>1.07</v>
+        <v>0.14</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>5.05</v>
+        <v>4.62</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>5.44</v>
+        <v>1.72</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>2.8</v>
+        <v>0.31</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>5.06</v>
+        <v>4.63</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.34</v>
+        <v>2.75</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.94</v>
+        <v>-0.07</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5.08</v>
+        <v>4.66</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1.16</v>
+        <v>0.02</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>5.08</v>
+        <v>4.67</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-0.39</v>
+        <v>-0.16</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.86</v>
+        <v>0.24</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>5.1</v>
+        <v>4.71</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.9</v>
+        <v>2.84</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.65</v>
+        <v>-0.5</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>5.17</v>
+        <v>4.72</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.97</v>
+        <v>2.02</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>5.22</v>
+        <v>4.73</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>2.83</v>
+        <v>3.13</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.96</v>
+        <v>-0.16</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>5.24</v>
+        <v>4.74</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.55</v>
+        <v>2.31</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.72</v>
+        <v>-0.09</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5.34</v>
+        <v>4.78</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.81</v>
+        <v>-0.12</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5.39</v>
+        <v>4.79</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.97</v>
+        <v>-0.59</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>5.4</v>
+        <v>4.83</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.91</v>
+        <v>3.15</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>1.15</v>
+        <v>-0.14</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>5.45</v>
+        <v>4.85</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.41</v>
+        <v>3.36</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>1.1</v>
+        <v>-0.24</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>5.48</v>
+        <v>4.87</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.95</v>
+        <v>2.06</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>1.06</v>
+        <v>0.32</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>5.49</v>
+        <v>4.87</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.43</v>
+        <v>3.55</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.72</v>
+        <v>-0.04</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>5.5</v>
+        <v>4.89</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.6</v>
+        <v>2.03</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>1.7</v>
+        <v>-0.09</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>5.53</v>
+        <v>4.93</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.05</v>
+        <v>0.01</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>5.57</v>
+        <v>4.99</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3.95</v>
+        <v>0.77</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>1.34</v>
+        <v>0.31</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.33</v>
+        <v>1.73</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>1.01</v>
+        <v>0.38</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>5.62</v>
+        <v>5.1</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>2.62</v>
+        <v>3.83</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.92</v>
+        <v>-0.12</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>5.67</v>
+        <v>5.12</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1.27</v>
+        <v>-0.2</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>5.7</v>
+        <v>5.13</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.86</v>
+        <v>3.69</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.5</v>
+        <v>-0.28</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>5.7</v>
+        <v>5.14</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.13</v>
+        <v>2.37</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>1.34</v>
+        <v>0.01</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>5.73</v>
+        <v>5.16</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>1.44</v>
+        <v>0.18</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>5.78</v>
+        <v>5.16</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>3.62</v>
+        <v>3.03</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.93</v>
+        <v>-0.09</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>5.79</v>
+        <v>5.21</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>4.07</v>
+        <v>3.44</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.32</v>
+        <v>0.12</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5.8</v>
+        <v>5.28</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.28</v>
+        <v>3.38</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.58</v>
+        <v>0.05</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.89</v>
+        <v>5.28</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.97</v>
+        <v>-0.37</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.93</v>
+        <v>5.28</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.03</v>
+        <v>3.89</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.92</v>
+        <v>-0.18</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.93</v>
+        <v>5.36</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>1.35</v>
+        <v>0.24</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>6.09</v>
+        <v>5.4</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.31</v>
+        <v>2.74</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>1.43</v>
+        <v>-0.07</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6.15</v>
+        <v>5.44</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.83</v>
+        <v>2.41</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.68</v>
+        <v>0.12</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>6.3</v>
+        <v>5.62</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.85</v>
+        <v>3.77</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1.36</v>
+        <v>-0.13</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6.33</v>
+        <v>5.63</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.88</v>
+        <v>0.54</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>6.44</v>
+        <v>5.67</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>1.23</v>
+        <v>0.04</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>6.46</v>
+        <v>5.72</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>3.44</v>
+        <v>4.15</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>1.29</v>
+        <v>0.3</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>6.5</v>
+        <v>5.74</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>3.9</v>
+        <v>2.28</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>6.52</v>
+        <v>5.85</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>3.34</v>
+        <v>0.61</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.26</v>
+        <v>0.58</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>6.64</v>
+        <v>5.86</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.82</v>
+        <v>4.3</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>1.43</v>
+        <v>-0.29</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>6.66</v>
+        <v>6.06</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>3.71</v>
+        <v>4.28</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>1.41</v>
+        <v>-0.18</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>6.72</v>
+        <v>6.22</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>4.6</v>
+        <v>4.04</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.42</v>
+        <v>0.32</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7.01</v>
+        <v>6.22</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>4.48</v>
+        <v>4.63</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>1.78</v>
+        <v>0.36</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>7.07</v>
+        <v>6.37</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>2.53</v>
+        <v>3.48</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>7.38</v>
+        <v>6.59</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,19 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - ago. 2024</t>
+    <t xml:space="preserve">dic.2023 - sep. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">jul. 2024 - ago. 2024</t>
+    <t xml:space="preserve">ago. 2024 - sep. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">sep. 2023 - ago. 2024</t>
+    <t xml:space="preserve">oct. 2023 - sep. 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
@@ -78,16 +84,10 @@
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
@@ -96,148 +96,148 @@
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Monterrey, N.L.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.44</v>
+        <v>1.38</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.01</v>
+        <v>-0.2</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.49</v>
+        <v>3.26</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1.23</v>
+        <v>0.85</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.15</v>
+        <v>-0.07</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.82</v>
+        <v>3.37</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.92</v>
+        <v>-0.2</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.09</v>
+        <v>0.24</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.82</v>
+        <v>3.38</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.89</v>
+        <v>1.58</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4.11</v>
+        <v>3.67</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.86</v>
+        <v>2.34</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.31</v>
+        <v>-0.29</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4.18</v>
+        <v>3.68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-1.37</v>
+        <v>3.07</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.07</v>
+        <v>0.17</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4.2</v>
+        <v>3.79</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.08</v>
+        <v>-0.03</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4.25</v>
+        <v>3.82</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.14</v>
+        <v>3.39</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>4.27</v>
+        <v>3.9</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.58</v>
+        <v>3.02</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4.32</v>
+        <v>3.9</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.38</v>
+        <v>4.03</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-1.82</v>
+        <v>-1.04</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.45</v>
+        <v>4.09</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.25</v>
+        <v>5.41</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.03</v>
+        <v>-0.16</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.46</v>
+        <v>4.12</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-0.96</v>
+        <v>3.02</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.16</v>
+        <v>-0.22</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.61</v>
+        <v>4.12</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.58</v>
+        <v>3.01</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.14</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.62</v>
+        <v>4.15</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.72</v>
+        <v>3.22</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.63</v>
+        <v>4.19</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-0.07</v>
+        <v>-0.21</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.66</v>
+        <v>4.28</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.63</v>
+        <v>2.86</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.02</v>
+        <v>-0.46</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.67</v>
+        <v>4.28</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-0.16</v>
+        <v>-0.73</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.71</v>
+        <v>4.3</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.84</v>
+        <v>-1.52</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-0.5</v>
+        <v>0.31</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.72</v>
+        <v>4.33</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.02</v>
+        <v>3.23</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.73</v>
+        <v>4.33</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.74</v>
+        <v>4.34</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.31</v>
+        <v>1.94</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>-0.09</v>
+        <v>0.22</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.78</v>
+        <v>4.42</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.82</v>
+        <v>2.28</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>-0.12</v>
+        <v>0.22</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.79</v>
+        <v>4.44</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.24</v>
+        <v>3.84</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-0.59</v>
+        <v>0.01</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.83</v>
+        <v>4.45</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>-0.14</v>
+        <v>0.27</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.85</v>
+        <v>4.47</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>-0.24</v>
+        <v>-0.34</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.87</v>
+        <v>4.48</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.06</v>
+        <v>2.65</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.87</v>
+        <v>4.48</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.55</v>
+        <v>3.26</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.89</v>
+        <v>4.51</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.03</v>
+        <v>2.63</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>-0.09</v>
+        <v>-0.32</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.93</v>
+        <v>4.53</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.75</v>
+        <v>1.92</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.01</v>
+        <v>-0.18</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.99</v>
+        <v>4.54</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.77</v>
+        <v>3.02</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>5.1</v>
+        <v>4.56</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.83</v>
+        <v>0.33</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>-0.12</v>
+        <v>0.48</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>5.12</v>
+        <v>4.57</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.34</v>
+        <v>2.8</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>-0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>5.13</v>
+        <v>4.58</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.69</v>
+        <v>3.19</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>-0.28</v>
+        <v>-0.05</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>5.14</v>
+        <v>4.6</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2.37</v>
+        <v>0.82</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>5.16</v>
+        <v>4.61</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.1</v>
+        <v>2.96</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>5.16</v>
+        <v>4.62</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>3.03</v>
+        <v>3.58</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>-0.09</v>
+        <v>-0.3</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>5.21</v>
+        <v>4.7</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.12</v>
+        <v>-0.3</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5.28</v>
+        <v>4.71</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>3.38</v>
+        <v>2.18</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.05</v>
+        <v>-0.18</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.28</v>
+        <v>4.79</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>-0.37</v>
+        <v>0.45</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.28</v>
+        <v>4.82</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>3.89</v>
+        <v>2.51</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.36</v>
+        <v>4.82</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.4</v>
+        <v>4.89</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>2.74</v>
+        <v>3.77</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>-0.07</v>
+        <v>-0.36</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.44</v>
+        <v>4.95</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.62</v>
+        <v>4.98</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.77</v>
+        <v>3.6</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.63</v>
+        <v>5.05</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.42</v>
+        <v>3.67</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.67</v>
+        <v>5.14</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>3.48</v>
+        <v>2.51</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.72</v>
+        <v>5.21</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.3</v>
+        <v>-0.67</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.74</v>
+        <v>5.24</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.28</v>
+        <v>3.38</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.84</v>
+        <v>-0.04</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.85</v>
+        <v>5.27</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.58</v>
+        <v>0.1</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.86</v>
+        <v>5.27</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.3</v>
+        <v>2.44</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>-0.29</v>
+        <v>0.16</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>6.06</v>
+        <v>5.67</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>4.28</v>
+        <v>3.97</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>-0.18</v>
+        <v>-0.06</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>6.22</v>
+        <v>5.8</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>4.04</v>
+        <v>4.51</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6.22</v>
+        <v>5.88</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>4.63</v>
+        <v>3.61</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.37</v>
+        <v>5.9</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>3.48</v>
+        <v>5.65</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.59</v>
+        <v>6.99</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 10304</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,64 +63,64 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - sep. 2024</t>
+    <t xml:space="preserve">dic.2023 - oct. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">ago. 2024 - sep. 2024</t>
+    <t xml:space="preserve">sep. 2024 - oct. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">oct. 2023 - sep. 2024</t>
+    <t xml:space="preserve">nov. 2023 - oct. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Esperanza, Son.</t>
@@ -129,91 +129,97 @@
     <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
@@ -222,19 +228,13 @@
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.2</v>
+        <v>0.24</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.26</v>
+        <v>3.23</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.85</v>
+        <v>1.52</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.07</v>
+        <v>-0.05</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.58</v>
+        <v>3.07</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.67</v>
+        <v>3.64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.29</v>
+        <v>0.21</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.68</v>
+        <v>3.79</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.17</v>
+        <v>2.24</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-0.03</v>
+        <v>1.29</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.82</v>
+        <v>3.84</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.39</v>
+        <v>3.5</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3.02</v>
+        <v>3.71</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.15</v>
+        <v>2.87</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.9</v>
+        <v>4.06</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-1.04</v>
+        <v>3.6</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.09</v>
+        <v>4.15</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>5.41</v>
+        <v>3.44</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-0.16</v>
+        <v>0.29</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.12</v>
+        <v>4.17</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.02</v>
+        <v>3.26</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>-0.22</v>
+        <v>1.32</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.12</v>
+        <v>4.24</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.01</v>
+        <v>3.38</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.15</v>
+        <v>4.26</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>3.22</v>
+        <v>2.23</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-0.32</v>
+        <v>0.23</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.19</v>
+        <v>4.27</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>3.15</v>
+        <v>-0.74</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-0.21</v>
+        <v>0.31</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.86</v>
+        <v>3.24</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.46</v>
+        <v>-0.02</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.28</v>
+        <v>4.31</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-0.73</v>
+        <v>-0.54</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-1.52</v>
+        <v>-1.29</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.33</v>
+        <v>4.38</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.86</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.33</v>
+        <v>4.46</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.14</v>
+        <v>3.36</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.34</v>
+        <v>4.48</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.94</v>
+        <v>3.64</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.28</v>
+        <v>0.6</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.44</v>
+        <v>4.54</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.84</v>
+        <v>3.72</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.01</v>
+        <v>1.39</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.45</v>
+        <v>4.54</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2</v>
+        <v>3.54</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.47</v>
+        <v>4.59</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.34</v>
+        <v>3.89</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>-0.34</v>
+        <v>1.38</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.65</v>
+        <v>5.97</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.48</v>
+        <v>4.61</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.26</v>
+        <v>4.13</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.51</v>
+        <v>4.67</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.63</v>
+        <v>3.34</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>-0.32</v>
+        <v>0.32</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.53</v>
+        <v>4.67</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.92</v>
+        <v>3.81</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>-0.18</v>
+        <v>0.49</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.54</v>
+        <v>4.72</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3.02</v>
+        <v>3.51</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.55</v>
+        <v>4.72</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.26</v>
+        <v>1.14</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.56</v>
+        <v>4.73</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0.33</v>
+        <v>3.9</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.48</v>
+        <v>1.01</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.57</v>
+        <v>4.75</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.8</v>
+        <v>3.37</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.58</v>
+        <v>4.76</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.28</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.6</v>
+        <v>4.76</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.82</v>
+        <v>3.71</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.61</v>
+        <v>4.79</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.12</v>
+        <v>0.57</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.62</v>
+        <v>4.8</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>3.58</v>
+        <v>4.08</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.7</v>
+        <v>4.94</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.13</v>
+        <v>3.64</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>-0.3</v>
+        <v>1.42</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.71</v>
+        <v>4.98</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.18</v>
+        <v>0.72</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>-0.18</v>
+        <v>0.01</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.79</v>
+        <v>5.05</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.48</v>
+        <v>4.24</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.82</v>
+        <v>5.09</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.51</v>
+        <v>3.61</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>-0.22</v>
+        <v>0.63</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.82</v>
+        <v>5.15</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.3</v>
+        <v>3.89</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.09</v>
+        <v>0.54</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.89</v>
+        <v>5.2</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>-0.36</v>
+        <v>1.21</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.95</v>
+        <v>5.22</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>2.45</v>
+        <v>3.94</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.41</v>
+        <v>1.4</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.98</v>
+        <v>5.27</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>-0.17</v>
+        <v>0.89</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.05</v>
+        <v>5.44</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.18</v>
+        <v>1.04</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.14</v>
+        <v>5.52</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.51</v>
+        <v>4.11</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.1</v>
+        <v>0.49</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.21</v>
+        <v>5.53</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>3.6</v>
+        <v>4.14</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>-0.67</v>
+        <v>0.92</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.24</v>
+        <v>5.6</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>3.38</v>
+        <v>4.25</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.56</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.27</v>
+        <v>5.62</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.71</v>
+        <v>4.24</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.1</v>
+        <v>0.62</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.27</v>
+        <v>5.64</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.44</v>
+        <v>5.07</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>-0.06</v>
+        <v>0.31</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.8</v>
+        <v>5.66</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>4.51</v>
+        <v>2.83</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3.61</v>
+        <v>4.66</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.97</v>
+        <v>0.02</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.99</v>
+        <v>6.38</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 10304</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 37508</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - oct. 2024</t>
+    <t xml:space="preserve">dic.2023 - nov. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">sep. 2024 - oct. 2024</t>
+    <t xml:space="preserve">oct. 2024 - nov. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">nov. 2023 - oct. 2024</t>
+    <t xml:space="preserve">dic. 2023 - nov. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
@@ -81,7 +81,13 @@
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
@@ -90,55 +96,46 @@
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">León, Gto.</t>
+    <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Monterrey, N.L.</t>
@@ -147,97 +144,100 @@
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
     <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
+    <t xml:space="preserve">Huatabampo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.23</v>
+        <v>2.29</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1.52</v>
+        <v>2.01</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.48</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.38</v>
+        <v>2.33</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.2</v>
+        <v>1.91</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.59</v>
+        <v>2.41</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>3.07</v>
+        <v>2.2</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.2</v>
+        <v>3.53</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.64</v>
+        <v>2.56</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.21</v>
+        <v>3.17</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.79</v>
+        <v>2.98</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3.1</v>
+        <v>3.37</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>2.24</v>
+        <v>1.12</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3.6</v>
+        <v>2.71</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1.29</v>
+        <v>0.16</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.84</v>
+        <v>3.64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.86</v>
+        <v>3.79</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>2.87</v>
+        <v>0.3</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4.06</v>
+        <v>3.83</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.29</v>
+        <v>3.8</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4.06</v>
+        <v>3.9</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.44</v>
+        <v>3.23</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.29</v>
+        <v>-0.01</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.17</v>
+        <v>4.04</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.26</v>
+        <v>3.72</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1.32</v>
+        <v>0.11</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.24</v>
+        <v>4.13</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.38</v>
+        <v>3.66</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>1.41</v>
+        <v>0.15</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.26</v>
+        <v>4.13</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.23</v>
+        <v>3.43</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-0.74</v>
+        <v>3.29</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.24</v>
+        <v>3.7</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.02</v>
+        <v>3.08</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-0.54</v>
+        <v>3.87</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.31</v>
+        <v>4.36</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-1.29</v>
+        <v>3.79</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.38</v>
+        <v>4.36</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.53</v>
+        <v>3.42</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.86</v>
+        <v>-0.01</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.46</v>
+        <v>4.4</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.36</v>
+        <v>3.88</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.33</v>
+        <v>-0.01</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.48</v>
+        <v>4.42</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.64</v>
+        <v>3.88</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.6</v>
+        <v>0.07</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.5</v>
+        <v>4.42</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.6</v>
+        <v>3.88</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.54</v>
+        <v>4.45</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.72</v>
+        <v>3.61</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>1.39</v>
+        <v>0.07</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.54</v>
+        <v>4.47</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.54</v>
+        <v>3.74</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.89</v>
+        <v>3.62</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>1.38</v>
+        <v>0.01</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>5.97</v>
+        <v>3.82</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.61</v>
+        <v>4.55</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.13</v>
+        <v>4.1</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.67</v>
+        <v>4.55</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.34</v>
+        <v>3.65</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.67</v>
+        <v>4.56</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.81</v>
+        <v>3.67</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.72</v>
+        <v>4.57</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3.51</v>
+        <v>4.27</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.49</v>
+        <v>0.13</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.72</v>
+        <v>4.58</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.61</v>
+        <v>4.1</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>1.14</v>
+        <v>0.45</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.73</v>
+        <v>4.6</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>1.01</v>
+        <v>0.28</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.75</v>
+        <v>4.61</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.55</v>
+        <v>0.22</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.43</v>
+        <v>3.92</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.76</v>
+        <v>4.84</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.71</v>
+        <v>4.12</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.79</v>
+        <v>4.86</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>3.71</v>
+        <v>4.15</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.57</v>
+        <v>0.01</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.8</v>
+        <v>4.89</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.08</v>
+        <v>3.97</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.94</v>
+        <v>4.92</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>3.64</v>
+        <v>4.6</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.42</v>
+        <v>0.67</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.98</v>
+        <v>4.93</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0.72</v>
+        <v>4.68</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.01</v>
+        <v>-0.37</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.05</v>
+        <v>5.03</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,10 +1421,10 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.24</v>
+        <v>4.54</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.26</v>
+        <v>3.79</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>5.09</v>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>3.61</v>
+        <v>4.14</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.15</v>
+        <v>5.11</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.76</v>
+        <v>4.16</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>1.21</v>
+        <v>0.2</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.22</v>
+        <v>5.15</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.94</v>
+        <v>4.6</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.4</v>
+        <v>0.35</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.27</v>
+        <v>5.19</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.89</v>
+        <v>1.87</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.44</v>
+        <v>5.21</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>3.69</v>
+        <v>4.39</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>1.04</v>
+        <v>0.65</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.52</v>
+        <v>5.28</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.53</v>
+        <v>5.4</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.14</v>
+        <v>4.77</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.6</v>
+        <v>5.42</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.56</v>
+        <v>0.37</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.62</v>
+        <v>5.44</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.62</v>
+        <v>0.26</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.64</v>
+        <v>5.48</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>5.07</v>
+        <v>4.86</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>1.64</v>
+        <v>0.34</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.66</v>
+        <v>5.55</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>3.92</v>
+        <v>4.62</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.66</v>
+        <v>5.6</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.83</v>
+        <v>5.06</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.74</v>
+        <v>5.64</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>4.66</v>
+        <v>6.32</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.14</v>
+        <v>0.62</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5.8</v>
+        <v>6.61</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>5.66</v>
+        <v>6.17</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.38</v>
+        <v>7.42</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 37508</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 35142</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2023 - nov. 2024</t>
+    <t xml:space="preserve">dic.2024 - dic. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">oct. 2024 - nov. 2024</t>
+    <t xml:space="preserve">nov. 2024 - dic. 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">dic. 2023 - nov. 2024</t>
+    <t xml:space="preserve">ene. 2024 - dic. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
@@ -81,67 +81,52 @@
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Cortazar, Gto.</t>
@@ -150,46 +135,73 @@
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
     <t xml:space="preserve">Huatabampo, Son.</t>
@@ -198,46 +210,34 @@
     <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1.7</v>
+        <v>0.67</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2.41</v>
+        <v>2.59</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>3.53</v>
+        <v>0.22</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>3.17</v>
+        <v>0.45</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>1.12</v>
+        <v>0.01</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.16</v>
+        <v>0.63</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.64</v>
+        <v>3.36</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.35</v>
+        <v>-0.25</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.79</v>
+        <v>3.39</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.83</v>
+        <v>3.46</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>3.8</v>
+        <v>-0.15</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.9</v>
+        <v>3.56</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.95</v>
+        <v>3.57</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-0.01</v>
+        <v>0.2</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4.04</v>
+        <v>3.63</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4.13</v>
+        <v>3.74</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4.13</v>
+        <v>3.8</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4.18</v>
+        <v>3.86</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.03</v>
+        <v>0.45</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.24</v>
+        <v>3.88</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>3.08</v>
+        <v>0.62</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4.27</v>
+        <v>3.89</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>3.87</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.27</v>
+        <v>-0.08</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.36</v>
+        <v>3.89</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.36</v>
+        <v>3.93</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>-0.01</v>
+        <v>0.21</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.4</v>
+        <v>3.96</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>-0.01</v>
+        <v>0.4</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.42</v>
+        <v>4.03</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.07</v>
+        <v>0.36</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.42</v>
+        <v>4.03</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.45</v>
+        <v>4.06</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.07</v>
+        <v>0.26</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.47</v>
+        <v>4.08</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>0.01</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.53</v>
+        <v>4.17</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.55</v>
+        <v>4.17</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.55</v>
+        <v>4.18</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.56</v>
+        <v>4.21</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.57</v>
+        <v>4.21</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.27</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.58</v>
+        <v>4.23</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.61</v>
+        <v>4.27</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.78</v>
+        <v>4.34</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.84</v>
+        <v>4.34</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.86</v>
+        <v>4.42</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.01</v>
+        <v>0.49</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.89</v>
+        <v>4.43</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>3.97</v>
+        <v>0</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.92</v>
+        <v>4.54</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.93</v>
+        <v>4.55</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>4.68</v>
+        <v>0</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>-0.37</v>
+        <v>0.39</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>5.03</v>
+        <v>4.68</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>4.54</v>
+        <v>0</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>3.79</v>
+        <v>0.18</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>5.09</v>
+        <v>4.69</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>4.14</v>
+        <v>0</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5.11</v>
+        <v>4.74</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>5.13</v>
+        <v>4.76</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>5.15</v>
+        <v>4.76</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>5.19</v>
+        <v>4.78</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1.87</v>
+        <v>0.66</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>5.21</v>
+        <v>4.83</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>4.39</v>
+        <v>0</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.65</v>
+        <v>-0.19</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.28</v>
+        <v>4.86</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.4</v>
+        <v>4.99</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>4.77</v>
+        <v>0</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.42</v>
+        <v>5.05</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.37</v>
+        <v>0.86</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.44</v>
+        <v>5.1</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.48</v>
+        <v>5.11</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.55</v>
+        <v>5.24</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.6</v>
+        <v>5.28</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.39</v>
+        <v>0.66</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.64</v>
+        <v>5.31</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>6.32</v>
+        <v>0</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.61</v>
+        <v>6.34</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.19</v>
+        <v>0.63</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>7.42</v>
+        <v>6.99</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 35142</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 35142</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2024 - dic. 2024</t>
+    <t xml:space="preserve">dic.2024 - ene. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">nov. 2024 - dic. 2024</t>
+    <t xml:space="preserve">dic. 2024 - ene. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">ene. 2024 - dic. 2024</t>
+    <t xml:space="preserve">feb. 2024 - ene. 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
@@ -78,16 +78,34 @@
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
@@ -96,7 +114,19 @@
     <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Monclova, Coah.</t>
@@ -105,76 +135,25 @@
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Morelia, Mich.</t>
@@ -183,58 +162,79 @@
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2.39</v>
+        <v>2.09</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2.59</v>
+        <v>2.1</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.22</v>
+        <v>-0.1</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2.63</v>
+        <v>2.17</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.45</v>
+        <v>-0.15</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.01</v>
+        <v>0.39</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.3</v>
+        <v>2.47</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.63</v>
+        <v>-0.67</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.36</v>
+        <v>2.54</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.25</v>
+        <v>-0.03</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.39</v>
+        <v>2.8</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.46</v>
+        <v>2.97</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.57</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.56</v>
+        <v>2.98</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.11</v>
+        <v>-0.08</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.57</v>
+        <v>3.09</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.63</v>
+        <v>3.24</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.74</v>
+        <v>3.24</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.8</v>
+        <v>3.34</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.86</v>
+        <v>3.36</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.88</v>
+        <v>3.36</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.62</v>
+        <v>0.24</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.89</v>
+        <v>3.4</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.59</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>3.89</v>
+        <v>3.4</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>3.93</v>
+        <v>3.41</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3.96</v>
+        <v>3.51</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.03</v>
+        <v>3.53</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.03</v>
+        <v>3.56</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.06</v>
+        <v>3.59</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.08</v>
+        <v>3.6</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.14</v>
+        <v>3.66</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.17</v>
+        <v>3.66</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>0.37</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.17</v>
+        <v>3.67</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.41</v>
+        <v>-0.05</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.18</v>
+        <v>3.69</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.21</v>
+        <v>3.69</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.21</v>
+        <v>3.7</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.12</v>
+        <v>0.69</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.23</v>
+        <v>3.71</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.25</v>
+        <v>3.72</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.13</v>
+        <v>-0.06</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.27</v>
+        <v>3.76</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.34</v>
+        <v>3.82</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.34</v>
+        <v>3.82</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.42</v>
+        <v>3.83</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.49</v>
+        <v>0.07</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.43</v>
+        <v>3.84</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.54</v>
+        <v>3.88</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.64</v>
+        <v>1.01</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.55</v>
+        <v>3.9</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.68</v>
+        <v>3.9</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.69</v>
+        <v>3.92</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.74</v>
+        <v>3.97</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.16</v>
+        <v>0.73</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.76</v>
+        <v>3.97</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.76</v>
+        <v>4</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.23</v>
+        <v>0.83</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.78</v>
+        <v>4.01</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.66</v>
+        <v>0.24</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.83</v>
+        <v>4.01</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>-0.19</v>
+        <v>0.4</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4.86</v>
+        <v>4.03</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.13</v>
+        <v>0.48</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4.99</v>
+        <v>4.09</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.05</v>
+        <v>4.09</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.1</v>
+        <v>4.13</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.11</v>
+        <v>4.58</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.24</v>
+        <v>4.59</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.49</v>
+        <v>0.01</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.28</v>
+        <v>4.67</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.31</v>
+        <v>4.84</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.16</v>
+        <v>0.41</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6.34</v>
+        <v>4.92</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.63</v>
+        <v>0.29</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.99</v>
+        <v>6.43</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 35142</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 30411</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,28 +63,25 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2024 - ene. 2025</t>
+    <t xml:space="preserve">dic.2024 - feb. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">dic. 2024 - ene. 2025</t>
+    <t xml:space="preserve">ene. 2025 - feb. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">feb. 2024 - ene. 2025</t>
+    <t xml:space="preserve">feb. 2024 - feb. 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
-  </si>
-  <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
@@ -93,43 +90,82 @@
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
@@ -138,103 +174,67 @@
     <t xml:space="preserve">Puebla, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2.09</v>
+        <v>1.56</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.43</v>
+        <v>0.14</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-0.1</v>
+        <v>0.63</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.1</v>
+        <v>0.46</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.43</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.15</v>
+        <v>0.03</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.39</v>
+        <v>-0.91</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.39</v>
+        <v>-0.24</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>2.47</v>
+        <v>2.61</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-0.67</v>
+        <v>0.19</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-0.67</v>
+        <v>0.26</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>2.54</v>
+        <v>2.88</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.17</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.2</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.2</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.22</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>2.98</v>
+        <v>3.14</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.9</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>-0.08</v>
+        <v>0.31</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.58</v>
+        <v>-0.12</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.58</v>
+        <v>-0.42</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.34</v>
+        <v>3.26</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0.14</v>
+        <v>-0.25</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.14</v>
+        <v>-0.19</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.24</v>
+        <v>0.59</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.59</v>
+        <v>0.11</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.71</v>
+        <v>0.41</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.71</v>
+        <v>0.1</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3.51</v>
+        <v>3.56</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.31</v>
+        <v>-0.03</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.31</v>
+        <v>-0.09</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.29</v>
+        <v>0.07</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.18</v>
+        <v>0.98</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>3.6</v>
+        <v>3.69</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.05</v>
+        <v>0.56</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.34</v>
+        <v>0.58</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.37</v>
+        <v>1.05</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>3.67</v>
+        <v>3.77</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.55</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.18</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.19</v>
+        <v>0.64</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.69</v>
+        <v>3.79</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.17</v>
+        <v>0.54</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>3.7</v>
+        <v>3.81</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.69</v>
+        <v>0.48</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.69</v>
+        <v>0.44</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>3.71</v>
+        <v>3.84</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.3</v>
+        <v>0.87</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>0.3</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-0.06</v>
+        <v>0.72</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>-0.06</v>
+        <v>0.46</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>3.76</v>
+        <v>3.89</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.57</v>
+        <v>0.08</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>0.4</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>3.82</v>
+        <v>3.94</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>3.83</v>
+        <v>3.95</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.07</v>
+        <v>-0.28</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.07</v>
+        <v>-0.46</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>3.84</v>
+        <v>4.04</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.03</v>
+        <v>0.71</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>3.88</v>
+        <v>4.08</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1.01</v>
+        <v>0.49</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>1.01</v>
+        <v>0.25</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>3.9</v>
+        <v>4.12</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>3.9</v>
+        <v>4.16</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.22</v>
+        <v>1.56</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.22</v>
+        <v>0.73</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>3.92</v>
+        <v>4.18</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>3.97</v>
+        <v>4.25</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0.73</v>
+        <v>1.34</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>3.97</v>
+        <v>4.28</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.57</v>
+        <v>1.44</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.57</v>
+        <v>0.74</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.01</v>
+        <v>4.32</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.24</v>
+        <v>0.65</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.01</v>
+        <v>4.34</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.4</v>
+        <v>0.77</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4.03</v>
+        <v>4.34</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0.48</v>
+        <v>0.96</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4.09</v>
+        <v>4.36</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>4.09</v>
+        <v>4.42</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.29</v>
+        <v>-0.23</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>4.13</v>
+        <v>4.44</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.12</v>
+        <v>0.73</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.12</v>
+        <v>0.54</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>4.58</v>
+        <v>4.46</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.01</v>
+        <v>0.29</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>4.67</v>
+        <v>4.63</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>4.84</v>
+        <v>4.73</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>4.92</v>
+        <v>5.55</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.43</v>
+        <v>5.81</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 30411</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 29229</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,154 +63,151 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2024 - feb. 2025</t>
+    <t xml:space="preserve">dic.2024 - mar. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">ene. 2025 - feb. 2025</t>
+    <t xml:space="preserve">feb. 2025 - mar. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">feb. 2024 - feb. 2025</t>
+    <t xml:space="preserve">mar. 2024 - mar. 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
     <t xml:space="preserve">Tampico, Tamps.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepic, Nay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
     <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
@@ -219,19 +216,22 @@
     <t xml:space="preserve">León, Gto.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.18</v>
+        <v>-0.04</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.41</v>
+        <v>0.98</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.04</v>
+        <v>0.57</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.63</v>
+        <v>1.14</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.43</v>
+        <v>0.88</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-0.91</v>
+        <v>0.61</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>2.95</v>
+        <v>3.02</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.38</v>
+        <v>-0.32</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -914,10 +914,10 @@
         <v>0.9</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.01</v>
+        <v>0.68</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.6</v>
+        <v>0.93</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-0.12</v>
+        <v>0.55</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-0.42</v>
+        <v>0.36</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.17</v>
+        <v>-0.05</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-0.25</v>
+        <v>1.19</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>-0.19</v>
+        <v>0.3</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.59</v>
+        <v>0.11</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.33</v>
+        <v>0.79</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>3.37</v>
+        <v>3.48</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>0.34</v>
       </c>
-      <c r="C32" s="3" t="n">
-        <v>-0.01</v>
-      </c>
       <c r="D32" s="3" t="n">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.41</v>
+        <v>0.77</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.44</v>
+        <v>1.62</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3.57</v>
+        <v>3.68</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-0.03</v>
+        <v>1.27</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>-0.09</v>
+        <v>0.37</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>3.6</v>
+        <v>3.69</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.07</v>
+        <v>0.4</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3.64</v>
+        <v>3.74</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.98</v>
+        <v>-0.3</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.65</v>
+        <v>-0.02</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.56</v>
+        <v>0.88</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.58</v>
+        <v>0.85</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>3.77</v>
+        <v>3.82</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.55</v>
+        <v>0.76</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>3.78</v>
+        <v>3.82</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.79</v>
+        <v>3.84</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.54</v>
+        <v>1.05</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C44" s="3" t="n">
         <v>0.48</v>
       </c>
-      <c r="C44" s="3" t="n">
-        <v>0.44</v>
-      </c>
       <c r="D44" s="3" t="n">
-        <v>3.84</v>
+        <v>3.88</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.87</v>
+        <v>1.85</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0.72</v>
+        <v>1.04</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.67</v>
+        <v>0.81</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.4</v>
+        <v>0.84</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.03</v>
+        <v>-0.2</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-0.28</v>
+        <v>0.76</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>-0.46</v>
+        <v>0.37</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.04</v>
+        <v>3.99</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.08</v>
+        <v>4.01</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.25</v>
+        <v>0.77</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0.15</v>
+        <v>1.31</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.16</v>
+        <v>4.12</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.56</v>
+        <v>0.65</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.18</v>
+        <v>4.21</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.02</v>
+        <v>0.51</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.61</v>
+        <v>0.35</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.28</v>
+        <v>4.23</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.44</v>
+        <v>0.57</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.09</v>
+        <v>0.41</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.77</v>
+        <v>1.31</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>0.43</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.27</v>
+        <v>0.07</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>4.42</v>
+        <v>4.53</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0.19</v>
+        <v>1.35</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>-0.23</v>
+        <v>0.64</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>4.44</v>
+        <v>4.54</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>4.46</v>
+        <v>4.59</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0.65</v>
+        <v>1.62</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0.3</v>
+        <v>1.12</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>4.63</v>
+        <v>4.66</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>4.73</v>
+        <v>4.82</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5.55</v>
+        <v>5.6</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>5.81</v>
+        <v>5.78</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 29229</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 36325</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 36325</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 11487</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,40 +63,28 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2024 - mar. 2025</t>
+    <t xml:space="preserve">dic.2024 - abr. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">feb. 2025 - mar. 2025</t>
+    <t xml:space="preserve">mar. 2025 - abr. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">mar. 2024 - mar. 2025</t>
+    <t xml:space="preserve">abr. 2024 - abr. 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
@@ -105,91 +93,118 @@
     <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
@@ -198,40 +213,25 @@
     <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérida, Yuc.</t>
   </si>
   <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+    <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1.14</v>
+        <v>1.53</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.57</v>
+        <v>1.28</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.61</v>
+        <v>0.12</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.22</v>
+        <v>0.44</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.39</v>
+        <v>-0.68</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.05</v>
+        <v>-1.56</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.16</v>
+        <v>0.76</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.6</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.02</v>
+        <v>3.13</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-0.32</v>
+        <v>0.78</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.9</v>
+        <v>1.48</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.93</v>
+        <v>1.4</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.55</v>
+        <v>1.45</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.25</v>
+        <v>3.56</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.01</v>
+        <v>-0.13</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>-0.05</v>
+        <v>0.16</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.39</v>
+        <v>3.68</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.44</v>
+        <v>1.23</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.11</v>
+        <v>0.84</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.41</v>
+        <v>3.68</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.79</v>
+        <v>1.47</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>3.48</v>
+        <v>3.69</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.35</v>
+        <v>1.23</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.33</v>
+        <v>-0.14</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3.67</v>
+        <v>3.72</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.18</v>
+        <v>0.59</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>3.69</v>
+        <v>3.77</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3.74</v>
+        <v>3.81</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-0.3</v>
+        <v>1.52</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>-0.02</v>
+        <v>0.51</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>3.75</v>
+        <v>3.83</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.85</v>
+        <v>2.33</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.85</v>
+        <v>1.21</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>3.82</v>
+        <v>3.93</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.76</v>
+        <v>0.41</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.27</v>
+        <v>-0.77</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>3.82</v>
+        <v>3.93</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.84</v>
+        <v>3.93</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.05</v>
+        <v>0.39</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.48</v>
+        <v>-0.3</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.23</v>
+        <v>0.91</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.48</v>
+        <v>-0.77</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.85</v>
+        <v>0.33</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.29</v>
+        <v>-0.46</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>3.92</v>
+        <v>4.04</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>3.94</v>
+        <v>4.05</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.81</v>
+        <v>0.71</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.84</v>
+        <v>-0.56</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>3.96</v>
+        <v>4.06</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.57</v>
+        <v>1.92</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>3.98</v>
+        <v>4.13</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.76</v>
+        <v>1.42</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>3.99</v>
+        <v>4.13</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.01</v>
+        <v>4.14</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.77</v>
+        <v>-0.46</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1.31</v>
+        <v>-1.14</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.33</v>
+        <v>-2.05</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.12</v>
+        <v>4.25</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.65</v>
+        <v>0.81</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.21</v>
+        <v>4.31</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.51</v>
+        <v>1.93</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.23</v>
+        <v>4.37</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.57</v>
+        <v>1.41</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.55</v>
+        <v>-0.21</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.32</v>
+        <v>4.39</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.41</v>
+        <v>1.65</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.37</v>
+        <v>4.54</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.35</v>
+        <v>0.64</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4.37</v>
+        <v>4.56</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.07</v>
+        <v>-0.63</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>4.53</v>
+        <v>4.65</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>4.54</v>
+        <v>4.68</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.81</v>
+        <v>1.92</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.67</v>
+        <v>0.56</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>4.59</v>
+        <v>4.91</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.62</v>
+        <v>0.59</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>4.61</v>
+        <v>5.01</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.12</v>
+        <v>2.52</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>4.66</v>
+        <v>5.1</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.86</v>
+        <v>0.53</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.21</v>
+        <v>-0.28</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>4.82</v>
+        <v>5.12</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.79</v>
+        <v>1.32</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>5.78</v>
+        <v>6.31</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 11487</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 15035</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,34 +63,64 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2024 - abr. 2025</t>
+    <t xml:space="preserve">dic.2024 - may. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">mar. 2025 - abr. 2025</t>
+    <t xml:space="preserve">abr. 2025 - may. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">abr. 2024 - abr. 2025</t>
+    <t xml:space="preserve">may. 2024 - may. 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, B.C.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
     <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">La Paz, B.C.S.</t>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. Jiménez, Chih.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro, Qro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala, Tlax.</t>
@@ -99,142 +129,112 @@
     <t xml:space="preserve">Esperanza, Son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacona, Mich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
     <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
   </si>
   <si>
     <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas, Zac.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro, Qro.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cd. de México</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Tijuana, B.C.</t>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.72</v>
+        <v>-0.9</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.11</v>
+        <v>-1.35</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.12</v>
+        <v>2.82</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.45</v>
+        <v>0.89</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1.53</v>
+        <v>2.85</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>1.67</v>
+        <v>2.93</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.08</v>
+        <v>1.6</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2.01</v>
+        <v>3.01</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>2.2</v>
+        <v>3.18</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.12</v>
+        <v>-1.99</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.44</v>
+        <v>-2.69</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-0.68</v>
+        <v>1.28</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-1.56</v>
+        <v>0.02</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>2.86</v>
+        <v>3.38</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.82</v>
+        <v>1.8</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3</v>
+        <v>3.38</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.76</v>
+        <v>1.23</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.13</v>
+        <v>3.51</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.78</v>
+        <v>1.31</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.21</v>
+        <v>3.55</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.89</v>
+        <v>0.35</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.27</v>
+        <v>3.74</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.34</v>
+        <v>3.78</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.41</v>
+        <v>3.83</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1.45</v>
+        <v>-1.81</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.68</v>
+        <v>-2.86</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.56</v>
+        <v>3.89</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-0.13</v>
+        <v>1.58</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.16</v>
+        <v>0.41</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.08</v>
+        <v>2.29</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.68</v>
+        <v>3.94</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.84</v>
+        <v>0.45</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>3.69</v>
+        <v>3.97</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.23</v>
+        <v>-2.39</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.38</v>
+        <v>-3.12</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>3.71</v>
+        <v>4.04</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>-0.14</v>
+        <v>1.06</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3.72</v>
+        <v>4.07</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3.75</v>
+        <v>4.09</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.36</v>
+        <v>1.86</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>3.77</v>
+        <v>4.14</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3.81</v>
+        <v>4.17</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.52</v>
+        <v>0.74</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>3.83</v>
+        <v>4.21</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.99</v>
+        <v>2.79</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3.83</v>
+        <v>4.32</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.33</v>
+        <v>1.44</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.47</v>
+        <v>0.73</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.21</v>
+        <v>0.95</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>3.93</v>
+        <v>4.36</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.41</v>
+        <v>0.75</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>-0.77</v>
+        <v>0.08</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>3.93</v>
+        <v>4.36</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.93</v>
+        <v>4.39</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.39</v>
+        <v>2.23</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>-0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>3.94</v>
+        <v>4.41</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.91</v>
+        <v>1.5</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>-0.77</v>
+        <v>0.28</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>3.94</v>
+        <v>4.42</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.33</v>
+        <v>-1.37</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>-0.46</v>
+        <v>-2.56</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>3.95</v>
+        <v>4.45</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.04</v>
+        <v>4.46</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.45</v>
+        <v>0.85</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.05</v>
+        <v>4.46</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.71</v>
+        <v>2.4</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>-0.56</v>
+        <v>0.94</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.06</v>
+        <v>4.49</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.92</v>
+        <v>-1.57</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.6</v>
+        <v>-2.53</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.13</v>
+        <v>4.5</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.33</v>
+        <v>0.87</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.13</v>
+        <v>4.55</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1.85</v>
+        <v>2.52</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.14</v>
+        <v>4.6</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0.59</v>
+        <v>2.09</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>-0.46</v>
+        <v>0.6</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.18</v>
+        <v>4.61</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-1.14</v>
+        <v>2.41</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>-2.05</v>
+        <v>0.47</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.25</v>
+        <v>4.66</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.81</v>
+        <v>1.7</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.31</v>
+        <v>4.67</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.93</v>
+        <v>1.03</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.75</v>
+        <v>0.22</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.31</v>
+        <v>4.7</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.48</v>
+        <v>-0.43</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.37</v>
+        <v>4.72</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>-0.21</v>
+        <v>0.26</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.39</v>
+        <v>4.81</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.08</v>
+        <v>0.46</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.4</v>
+        <v>4.92</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.48</v>
+        <v>2.3</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>-0.18</v>
+        <v>0.38</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.54</v>
+        <v>4.95</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1.15</v>
+        <v>2.78</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.64</v>
+        <v>0.25</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4.56</v>
+        <v>5.02</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4.56</v>
+        <v>5.11</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.67</v>
+        <v>2.07</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>-0.63</v>
+        <v>0.91</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>4.65</v>
+        <v>5.23</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.54</v>
+        <v>-0.36</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>4.68</v>
+        <v>5.32</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.56</v>
+        <v>1.2</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>4.91</v>
+        <v>5.44</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0.59</v>
+        <v>1.22</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.15</v>
+        <v>0.68</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.01</v>
+        <v>5.62</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>2.52</v>
+        <v>1.5</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.1</v>
+        <v>5.63</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.53</v>
+        <v>1.7</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>-0.28</v>
+        <v>0.49</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.12</v>
+        <v>5.7</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.44</v>
+        <v>-0.67</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6.31</v>
+        <v>5.97</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 15035</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 12670</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,181 +63,181 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2024 - may. 2025</t>
+    <t xml:space="preserve">dic.2024 - jun. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">abr. 2025 - may. 2025</t>
+    <t xml:space="preserve">may. 2025 - jun. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">may. 2024 - may. 2025</t>
+    <t xml:space="preserve">jun. 2024 - jun. 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
   </si>
   <si>
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
+    <t xml:space="preserve">Iguala, Gro.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltillo, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Fresnillo, Zac.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancún, Q. Roo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mexicali, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua, Chih.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Durango, Dgo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Cd. Acuña, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancún, Q. Roo.</t>
+    <t xml:space="preserve">Colima, Col.</t>
   </si>
   <si>
-    <t xml:space="preserve">Saltillo, Coah.</t>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Tapachula, Chis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
+    <t xml:space="preserve">Córdoba, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
+    <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
     <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima, Col.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Acuña, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chetumal, Q.R.</t>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Veracruz,Ver.</t>
   </si>
   <si>
     <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matamoros, Tamps.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
+    <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
     <t xml:space="preserve">Acapulco, Gro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.9</v>
+        <v>0.92</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-1.35</v>
+        <v>0.02</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.82</v>
+        <v>2.61</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.89</v>
+        <v>-0.91</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.11</v>
+        <v>-0.22</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-1.99</v>
+        <v>1.61</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-2.69</v>
+        <v>-0.02</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0.02</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1.8</v>
+        <v>-1.59</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.38</v>
+        <v>3.57</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.23</v>
+        <v>1.92</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.72</v>
+        <v>0.21</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.55</v>
+        <v>3.69</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.65</v>
+        <v>1.76</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.71</v>
+        <v>1.02</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.83</v>
+        <v>3.87</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-1.81</v>
+        <v>-2.14</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>-2.86</v>
+        <v>0.25</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.29</v>
+        <v>0.9</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.88</v>
+        <v>0.16</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.86</v>
+        <v>-1.39</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.45</v>
+        <v>-0.03</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.63</v>
+        <v>-1.61</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.8</v>
+        <v>-0.04</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>3.97</v>
+        <v>4.01</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-2.39</v>
+        <v>2.74</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>-3.12</v>
+        <v>0.44</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.04</v>
+        <v>4.01</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.38</v>
+        <v>1.23</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>1.06</v>
+        <v>0.29</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.86</v>
+        <v>1.03</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.14</v>
+        <v>4.08</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.74</v>
+        <v>0.58</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.17</v>
+        <v>4.11</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.74</v>
+        <v>2.54</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.21</v>
+        <v>4.12</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.79</v>
+        <v>2.27</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.32</v>
+        <v>4.13</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.35</v>
+        <v>4.13</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.95</v>
+        <v>-1.5</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.36</v>
+        <v>4.16</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.75</v>
+        <v>2.18</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.08</v>
+        <v>-0.22</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.36</v>
+        <v>4.17</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.49</v>
+        <v>2.85</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.39</v>
+        <v>4.19</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.23</v>
+        <v>1.91</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.41</v>
+        <v>4.24</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>1.5</v>
+        <v>-0.39</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.42</v>
+        <v>4.27</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-1.37</v>
+        <v>1.78</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>-2.56</v>
+        <v>0.28</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.45</v>
+        <v>4.32</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.46</v>
+        <v>4.33</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1.58</v>
+        <v>2.01</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.85</v>
+        <v>0.27</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.46</v>
+        <v>4.35</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.94</v>
+        <v>0.03</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.49</v>
+        <v>4.42</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-1.57</v>
+        <v>2.45</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>-2.53</v>
+        <v>0.72</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.96</v>
+        <v>1.33</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.87</v>
+        <v>0.3</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.55</v>
+        <v>4.47</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>1.05</v>
+        <v>0.71</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.09</v>
+        <v>2.88</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.41</v>
+        <v>2.6</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.66</v>
+        <v>4.65</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1.7</v>
+        <v>2.36</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.67</v>
+        <v>4.68</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.03</v>
+        <v>2.61</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-0.43</v>
+        <v>1.19</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.72</v>
+        <v>4.78</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.67</v>
+        <v>3.14</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.81</v>
+        <v>4.84</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.92</v>
+        <v>4.86</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>2.3</v>
+        <v>3.16</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.95</v>
+        <v>4.87</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>2.78</v>
+        <v>2.03</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.25</v>
+        <v>-0.03</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>5.02</v>
+        <v>4.92</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.11</v>
+        <v>4.95</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.91</v>
+        <v>0.29</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>5.23</v>
+        <v>4.97</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>-0.36</v>
+        <v>0.14</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.32</v>
+        <v>5.33</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.69</v>
+        <v>2.57</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.44</v>
+        <v>5.36</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.62</v>
+        <v>5.48</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.91</v>
+        <v>0.27</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.7</v>
+        <v>5.77</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0.98</v>
+        <v>1.82</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>-0.67</v>
+        <v>0.32</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>5.97</v>
+        <v>5.93</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>

--- a/InflacionTabulado.xlsx
+++ b/InflacionTabulado.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 12670</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 10305</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC.</t>
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">dic.2024 - jun. 2025</t>
+    <t xml:space="preserve">dic.2024 - jul. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">may. 2025 - jun. 2025</t>
+    <t xml:space="preserve">jun. 2025 - jul. 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">jun. 2024 - jun. 2025</t>
+    <t xml:space="preserve">jul. 2024 - jul. 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Izúcar de Matamoros, Pue.</t>
@@ -78,166 +78,166 @@
     <t xml:space="preserve">La Paz, B.C.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguala, Gro.</t>
+    <t xml:space="preserve">Cuernavaca, Mor.</t>
   </si>
   <si>
     <t xml:space="preserve">Cd. Jiménez, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuernavaca, Mor.</t>
+    <t xml:space="preserve">Tlaxcala, Tlax.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala, Tlax.</t>
+    <t xml:space="preserve">Fresnillo, Zac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguala, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperanza, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosillo, Son.</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas, Zac.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hermosillo, Son.</t>
+    <t xml:space="preserve">Cortazar, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla, Pue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelia, Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">Saltillo, Coah.</t>
   </si>
   <si>
+    <t xml:space="preserve">Huatabampo, Son.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torreón, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlacomulco, Méx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampico, Tamps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulancingo, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culiacán, Sin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villahermosa, Tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca, Hgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cd. de México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chihuahua, Chih.</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresnillo, Zac.</t>
+    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortazar, Gto.</t>
+    <t xml:space="preserve">Monclova, Coah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima, Col.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche, Camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">León, Gto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexicali, B.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehuantepec, Oax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango, Dgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes, Ags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapachula, Chis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérida, Yuc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz,Ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca, Oax.</t>
   </si>
   <si>
     <t xml:space="preserve">Cancún, Q. Roo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torreón, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterrey, N.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culiacán, Sin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huatabampo, Son.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulancingo, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche, Camp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monclova, Coah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mérida, Yuc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villahermosa, Tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla, Pue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampico, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexicali, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluca, Edo. de Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuca, Hgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango, Dgo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cd. Acuña, Coah.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlacomulco, Méx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">León, Gto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelia, Mich.</t>
+    <t xml:space="preserve">Tepic, Nay.</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro, Qro.</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima, Col.</t>
+    <t xml:space="preserve">Jacona, Mich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca, Oax.</t>
+    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes, Ags.</t>
+    <t xml:space="preserve">Tepatitlán, Jal.</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí, S.L.P.</t>
+    <t xml:space="preserve">Tijuana, B.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuxtla Gutiérrez, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalajara, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tapachula, Chis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba, Ver.</t>
+    <t xml:space="preserve">Cd. Juárez, Chih.</t>
   </si>
   <si>
     <t xml:space="preserve">Chetumal, Q.R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacona, Mich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Andrés Tuxtla, Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehuantepec, Oax.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepic, Nay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz,Ver.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tepatitlán, Jal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coatzacoalcos, Ver.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matamoros, Tamps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd. Juárez, Chih.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijuana, B.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acapulco, Gro.</t>
   </si>
 </sst>
 </file>
@@ -741,13 +741,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0.02</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>2.61</v>
+        <v>1.24</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -758,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-0.91</v>
+        <v>-0.72</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2.81</v>
+        <v>2.31</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -775,13 +775,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.22</v>
+        <v>0.17</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2.92</v>
+        <v>2.36</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -792,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.04</v>
+        <v>2.42</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.14</v>
+        <v>2.54</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -826,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.02</v>
+        <v>0.61</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.44</v>
+        <v>2.6</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -843,13 +843,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.56</v>
+        <v>2.61</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -860,13 +860,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-1.59</v>
+        <v>-2.25</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.23</v>
+        <v>-0.11</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.57</v>
+        <v>2.71</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -877,13 +877,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1.92</v>
+        <v>-1.27</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.66</v>
+        <v>2.81</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -894,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.62</v>
+        <v>2.19</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.34</v>
+        <v>0.56</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.69</v>
+        <v>2.94</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +911,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.8</v>
+        <v>2.98</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -928,13 +928,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.45</v>
+        <v>-0.03</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.85</v>
+        <v>3.01</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -945,13 +945,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.02</v>
+        <v>2.28</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.37</v>
+        <v>0.01</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.87</v>
+        <v>3.05</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -962,13 +962,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-2.14</v>
+        <v>2.49</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.87</v>
+        <v>3.07</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -979,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.24</v>
+        <v>1.93</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.87</v>
+        <v>3.09</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -996,13 +996,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0.9</v>
+        <v>-1.56</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.95</v>
+        <v>3.11</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-1.39</v>
+        <v>1.62</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.37</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.98</v>
+        <v>3.13</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1030,13 +1030,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-1.61</v>
+        <v>2.27</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>-0.04</v>
+        <v>0.2</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4.01</v>
+        <v>3.17</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1047,13 +1047,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4.01</v>
+        <v>3.18</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1064,13 +1064,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.23</v>
+        <v>3.05</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4.05</v>
+        <v>3.23</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1081,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.17</v>
+        <v>-1.22</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4.05</v>
+        <v>3.28</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1098,13 +1098,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4.08</v>
+        <v>3.31</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1115,13 +1115,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.58</v>
+        <v>1.09</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4.11</v>
+        <v>3.32</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1132,13 +1132,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.54</v>
+        <v>2.89</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4.12</v>
+        <v>3.32</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1149,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4.13</v>
+        <v>3.36</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1166,13 +1166,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.56</v>
+        <v>2.09</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.12</v>
+        <v>0.46</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4.13</v>
+        <v>3.42</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1183,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-1.5</v>
+        <v>2.54</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4.16</v>
+        <v>3.43</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1200,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.18</v>
+        <v>1.62</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>-0.22</v>
+        <v>0.45</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4.17</v>
+        <v>3.44</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.85</v>
+        <v>1.66</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>0.33</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.19</v>
+        <v>3.47</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1234,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.91</v>
+        <v>1.35</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4.24</v>
+        <v>3.49</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1251,13 +1251,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-0.39</v>
+        <v>2.92</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.27</v>
+        <v>3.49</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1268,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4.32</v>
+        <v>3.51</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1285,13 +1285,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4.33</v>
+        <v>3.56</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1302,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2.01</v>
+        <v>2.86</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4.35</v>
+        <v>3.58</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1319,13 +1319,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2.12</v>
+        <v>-1.28</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4.42</v>
+        <v>3.59</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1336,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2.45</v>
+        <v>2.94</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.72</v>
+        <v>-0.19</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4.43</v>
+        <v>3.62</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1353,13 +1353,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1.33</v>
+        <v>2.27</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4.47</v>
+        <v>3.71</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1370,13 +1370,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.71</v>
+        <v>0.32</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4.58</v>
+        <v>3.77</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1387,13 +1387,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4.65</v>
+        <v>3.83</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1404,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.6</v>
+        <v>3.39</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1421,13 +1421,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.36</v>
+        <v>1.32</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.77</v>
+        <v>0.13</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4.68</v>
+        <v>3.86</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1438,13 +1438,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.61</v>
+        <v>1.43</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4.71</v>
+        <v>3.88</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1455,13 +1455,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1.19</v>
+        <v>1.69</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4.78</v>
+        <v>3.89</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1472,13 +1472,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.14</v>
+        <v>3.21</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.35</v>
+        <v>0.77</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.84</v>
+        <v>3.91</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1489,13 +1489,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1.99</v>
+        <v>1.69</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.32</v>
+        <v>0.67</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4.86</v>
+        <v>4.04</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1506,13 +1506,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.16</v>
+        <v>0.02</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4.87</v>
+        <v>4.09</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1523,13 +1523,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>-0.03</v>
+        <v>0.49</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4.92</v>
+        <v>4.11</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1540,13 +1540,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.03</v>
+        <v>2.71</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4.95</v>
+        <v>4.13</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.17</v>
+        <v>2.91</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>4.97</v>
+        <v>4.16</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1574,13 +1574,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1.64</v>
+        <v>3.49</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>5.33</v>
+        <v>4.25</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1591,13 +1591,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>2.57</v>
+        <v>1.82</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>5.36</v>
+        <v>4.28</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1608,13 +1608,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.62</v>
+        <v>3.18</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>5.48</v>
+        <v>4.52</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1625,13 +1625,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5.68</v>
+        <v>4.66</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1642,13 +1642,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>5.77</v>
+        <v>4.94</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1659,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.82</v>
+        <v>2.71</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.32</v>
+        <v>0.71</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5.78</v>
+        <v>4.97</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1676,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>2.17</v>
+        <v>1.29</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>5.93</v>
+        <v>4.97</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
